--- a/MAE 159/Other data/159 Digitized Plots.xlsx
+++ b/MAE 159/Other data/159 Digitized Plots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy Slagle\Documents\MAE136-MAE158-MAE159_Aircraft_Design_and_Analysis_Course_Series\MAE 159\Other data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B9C581-AFA3-438D-87FF-92500A86D4A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3223F2-9121-489D-A29B-BF452203D264}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7470" yWindow="915" windowWidth="28800" windowHeight="15435" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4725" yWindow="6495" windowWidth="28800" windowHeight="15435" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1a" sheetId="6" r:id="rId1"/>
@@ -10180,364 +10180,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="146"/>
                 <c:pt idx="0">
-                  <c:v>12.5125056385536</c:v>
+                  <c:v>70.643408757290402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.188002859575001</c:v>
+                  <c:v>72.849330145099202</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.703197824191701</c:v>
+                  <c:v>74.730029234863494</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.2989718271137</c:v>
+                  <c:v>76.9231356523551</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.8938900098297</c:v>
+                  <c:v>79.0590994881303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.489521376050799</c:v>
+                  <c:v>80.805084108819997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.085117083096499</c:v>
+                  <c:v>82.866074447708598</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.679923533730101</c:v>
+                  <c:v>85.069275991755006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.275987564610801</c:v>
+                  <c:v>87.273732029126506</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.871654590007097</c:v>
+                  <c:v>89.495013201355704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.566668077641197</c:v>
+                  <c:v>91.680910389834395</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41.061990183892703</c:v>
+                  <c:v>93.885639050543006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43.656801389083</c:v>
+                  <c:v>96.889420627219707</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46.252575392004999</c:v>
+                  <c:v>103.518211887381</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48.846174185236997</c:v>
+                  <c:v>105.79077461991101</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.442364211870199</c:v>
+                  <c:v>107.90742403547399</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54.0396240137608</c:v>
+                  <c:v>110.078667795646</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>56.6320341678178</c:v>
+                  <c:v>112.31453850008801</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>59.169988006716203</c:v>
+                  <c:v>114.517648459732</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>61.822583716754899</c:v>
+                  <c:v>116.72056673109201</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>64.417430581120499</c:v>
+                  <c:v>118.924635132156</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>67.011992172084106</c:v>
+                  <c:v>122.930144385839</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>69.606211434965402</c:v>
+                  <c:v>124.731457446269</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>72.201471945763799</c:v>
+                  <c:v>126.93642039265799</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>74.796675401881799</c:v>
+                  <c:v>129.13981788472799</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>77.391474720680407</c:v>
+                  <c:v>132.75878834573899</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>79.986654404014999</c:v>
+                  <c:v>134.94897240629601</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>82.540228546523693</c:v>
+                  <c:v>136.949152020523</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>85.175278357488693</c:v>
+                  <c:v>139.15427257727899</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>87.771765543915706</c:v>
+                  <c:v>140.89974349365201</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>90.365554519415596</c:v>
+                  <c:v>142.958425459343</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>93.1238086400122</c:v>
+                  <c:v>145.16077931520101</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>95.6141655261289</c:v>
+                  <c:v>147.36454953448899</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>98.148264608182998</c:v>
+                  <c:v>153.05531257967499</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>100.74229131151699</c:v>
+                  <c:v>157.578134884695</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>103.336876675265</c:v>
+                  <c:v>160.29662024660601</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>105.930629991589</c:v>
+                  <c:v>162.780124099647</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>108.52541878244099</c:v>
+                  <c:v>164.82672967302199</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>111.02927597106699</c:v>
+                  <c:v>167.47878556154799</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>113.37855815869101</c:v>
+                  <c:v>170.278978213877</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>116.36716840922</c:v>
+                  <c:v>173.28197341218799</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>119.863045893007</c:v>
+                  <c:v>176.00057017933099</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>122.42081620175</c:v>
+                  <c:v>182.60887772074901</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>124.656628558259</c:v>
+                  <c:v>185.0147987531</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>127.15846569771099</c:v>
+                  <c:v>187.08163160382099</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>129.71247438689201</c:v>
+                  <c:v>189.32745026120301</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>131.80838886800899</c:v>
+                  <c:v>191.41918555963301</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>134.232211950612</c:v>
+                  <c:v>195.62314604249801</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>136.826809200751</c:v>
+                  <c:v>197.825723534687</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>139.42132800070399</c:v>
+                  <c:v>200.028782377455</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>141.889157353071</c:v>
+                  <c:v>203.23167544295899</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>144.609072361188</c:v>
+                  <c:v>207.808437298884</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>147.20320128749199</c:v>
+                  <c:v>209.91383032527199</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>149.85748506326601</c:v>
+                  <c:v>211.32340145521701</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>152.451933875013</c:v>
+                  <c:v>213.242669097049</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>155.02565689488301</c:v>
+                  <c:v>215.38980455644</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>157.52189385708701</c:v>
+                  <c:v>216.84025126019699</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>160.17287123488899</c:v>
+                  <c:v>225.05132308482499</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>162.766562741976</c:v>
+                  <c:v>227.16719814057399</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>165.27059864446099</c:v>
+                  <c:v>229.275148910328</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>167.95477304901701</c:v>
+                  <c:v>230.176268792553</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>170.64793701409499</c:v>
+                  <c:v>232.064260784787</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>173.143147388264</c:v>
+                  <c:v>234.26688034190499</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>175.73624695304301</c:v>
+                  <c:v>236.46822250959701</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>177.95077849110299</c:v>
+                  <c:v>238.61930106798499</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>180.45198745173201</c:v>
+                  <c:v>240.70217431968999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>183.09483784878699</c:v>
+                  <c:v>242.997841776396</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>184.29814726498199</c:v>
+                  <c:v>245.278255595274</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>186.58274583345599</c:v>
+                  <c:v>246.67737240589901</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>187.912082906774</c:v>
+                  <c:v>248.682421967473</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>189.86467204067</c:v>
+                  <c:v>250.972523417318</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>192.477587866302</c:v>
+                  <c:v>253.18632228079699</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>195.07229209396701</c:v>
+                  <c:v>255.489274452345</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>197.66627600629201</c:v>
+                  <c:v>257.11067101931701</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>200.26084671015599</c:v>
+                  <c:v>258.22512114384199</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>202.85408693056999</c:v>
+                  <c:v>259.46591902560198</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>205.44882681741001</c:v>
+                  <c:v>261.21069050793898</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>208.04210467806399</c:v>
+                  <c:v>263.49709815497903</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>210.637391338925</c:v>
+                  <c:v>265.73327267013701</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>212.91742185384501</c:v>
+                  <c:v>267.90127339923799</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>215.49052069664501</c:v>
+                  <c:v>270.105014459595</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>218.18141079498099</c:v>
+                  <c:v>272.46720819956897</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>220.86830404837499</c:v>
+                  <c:v>274.47607124234798</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>223.36915991002201</c:v>
+                  <c:v>276.67915990329402</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>225.28333968271801</c:v>
+                  <c:v>278.84698438566699</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>227.61307246551499</c:v>
+                  <c:v>281.04879326108397</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>229.82943080614299</c:v>
+                  <c:v>283.11513739542499</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>232.287668615379</c:v>
+                  <c:v>284.18605172568999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>234.922918117725</c:v>
+                  <c:v>286.31984830482202</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>236.977335917554</c:v>
+                  <c:v>288.43494356741598</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>239.402708985641</c:v>
+                  <c:v>290.85664491394402</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>242.054616473598</c:v>
+                  <c:v>293.20860873702998</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>244.58962129870301</c:v>
+                  <c:v>295.32602490572901</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>247.20338931766801</c:v>
+                  <c:v>297.57982449935298</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>249.77496460805401</c:v>
+                  <c:v>299.81948698785601</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>252.37102388437799</c:v>
+                  <c:v>301.93237296691098</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>254.965252656373</c:v>
+                  <c:v>304.13314858923002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>257.55924370053299</c:v>
+                  <c:v>306.33484005557301</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>260.09421375794199</c:v>
+                  <c:v>308.53727271661398</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>262.64665700932898</c:v>
+                  <c:v>310.675024578104</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>265.33829278064098</c:v>
+                  <c:v>312.19969554125498</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>267.93153498212098</c:v>
+                  <c:v>314.34300879711799</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>270.56513326654698</c:v>
+                  <c:v>316.54432966611103</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>273.11710413291502</c:v>
+                  <c:v>318.74648118433601</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>275.71151120078599</c:v>
+                  <c:v>320.05628270811701</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>278.303731172575</c:v>
+                  <c:v>321.74884000797101</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>280.896985260446</c:v>
+                  <c:v>323.90307472136601</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>283.453324177676</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>286.08399266464198</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>288.67716354777099</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>291.26969256574603</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>293.86413529279201</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>296.51630428136701</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>299.05045328626602</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>301.64406396588998</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>304.23658109747299</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>306.81197276863799</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>309.42306550043202</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>312.01612940603502</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>313.432583165192</c:v>
+                  <c:v>325.35170041451198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10549,364 +10513,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="146"/>
                 <c:pt idx="0">
-                  <c:v>2961.7820950748801</c:v>
+                  <c:v>2983.6960333294801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3024.0544259920302</c:v>
+                  <c:v>3037.7469948995199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3101.3521069911999</c:v>
+                  <c:v>3115.0315235173102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3168.3984882904001</c:v>
+                  <c:v>3164.8029015226598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3240.9221189075201</c:v>
+                  <c:v>3239.4017004268599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3308.8813750930403</c:v>
+                  <c:v>3312.0036189612597</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3377.0688500001402</c:v>
+                  <c:v>3355.9567345892096</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3450.30756594488</c:v>
+                  <c:v>3429.4011535583404</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3515.4977683085604</c:v>
+                  <c:v>3493.9005870865399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3583.22880577251</c:v>
+                  <c:v>3557.9994234788101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3646.9606667325102</c:v>
+                  <c:v>3635.2614543957702</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3725.0810049046299</c:v>
+                  <c:v>3697.81698616431</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3798.2892916864903</c:v>
+                  <c:v>3802.1337731171602</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3865.3356729856896</c:v>
+                  <c:v>4005.2281432322002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3946.3033963012799</c:v>
+                  <c:v>4062.3770099664098</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4010.6872258486997</c:v>
+                  <c:v>4155.1258996127999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4068.2244937487299</c:v>
+                  <c:v>4217.3034843514597</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4156.7995077836604</c:v>
+                  <c:v>4296.94236889695</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4214.8040297433399</c:v>
+                  <c:v>4371.0398173634703</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4297.2823945862992</c:v>
+                  <c:v>4446.5040717547399</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4370.2624626465804</c:v>
+                  <c:v>4513.76749059745</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4445.0682804794997</c:v>
+                  <c:v>4649.5255832068397</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4522.0649980395901</c:v>
+                  <c:v>4718.9314609233497</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4592.3977289295499</c:v>
+                  <c:v>4779.8164521171902</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4663.09560977403</c:v>
+                  <c:v>4851.8636916965606</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4736.3799694630798</c:v>
+                  <c:v>4984.5055015541602</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4807.2299961219496</c:v>
+                  <c:v>5040.3981899378896</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4891.6282113388997</c:v>
+                  <c:v>5126.6379958318503</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4960.0366938899206</c:v>
+                  <c:v>5186.3991688208798</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5022.5187007575205</c:v>
+                  <c:v>5262.6639825980901</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5102.2692575580104</c:v>
+                  <c:v>5323.0766235421997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5179.2330955298494</c:v>
+                  <c:v>5402.5653620452595</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5250.24972368414</c:v>
+                  <c:v>5471.9549234376</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5332.9246894466296</c:v>
+                  <c:v>5667.6825673222102</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5411.15378810325</c:v>
+                  <c:v>5821.4411739097095</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5485.8074601217895</c:v>
+                  <c:v>5927.3552662437696</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5565.78623564386</c:v>
+                  <c:v>6034.8107115181701</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5639.1379741935798</c:v>
+                  <c:v>6076.9815440922202</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5711.2351837721899</c:v>
+                  <c:v>6170.3157714090503</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5772.8121999579307</c:v>
+                  <c:v>6268.6958428940397</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5871.0312718994901</c:v>
+                  <c:v>6378.61978843822</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5980.42236867069</c:v>
+                  <c:v>6466.6582897717399</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6047.6853997055705</c:v>
+                  <c:v>6696.2402667699998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6118.6681362302606</c:v>
+                  <c:v>6759.0458148289099</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6180.3649891889399</c:v>
+                  <c:v>6848.2987332972698</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6261.9821057070703</c:v>
+                  <c:v>6912.1906790208695</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6334.5757075502906</c:v>
+                  <c:v>7007.8319798658804</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6399.2980615347306</c:v>
+                  <c:v>7163.3854134896901</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6473.8756606460793</c:v>
+                  <c:v>7241.2795450805406</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6548.9553409448908</c:v>
+                  <c:v>7315.7414751269898</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6618.3439892922997</c:v>
+                  <c:v>7435.1457160201007</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6707.3914338451696</c:v>
+                  <c:v>7597.1643944813995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6784.9663054999301</c:v>
+                  <c:v>7676.2285835743005</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6856.6410496396502</c:v>
+                  <c:v>7746.1129160451201</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6932.1686544610602</c:v>
+                  <c:v>7794.3596334525801</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7013.9776909244501</c:v>
+                  <c:v>7876.2597649278296</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7086.2429510062502</c:v>
+                  <c:v>7969.1366087857796</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7179.0786421635903</c:v>
+                  <c:v>8249.0246748344907</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7259.4529968030702</c:v>
+                  <c:v>8292.9456522481705</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7330.4064376825499</c:v>
+                  <c:v>8373.3021576444207</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7414.9070317413598</c:v>
+                  <c:v>8437.8125422811499</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7490.4758370606505</c:v>
+                  <c:v>8463.0960716781792</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7569.3112605603901</c:v>
+                  <c:v>8540.6902653021989</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7653.4740459780996</c:v>
+                  <c:v>8627.3927017415008</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7734.2903842083697</c:v>
+                  <c:v>8713.7867536772901</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7800.0075816366307</c:v>
+                  <c:v>8774.0720439686902</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7890.70010541995</c:v>
+                  <c:v>8866.1949949100908</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7951.85750411142</c:v>
+                  <c:v>8940.9435033295304</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7988.6084840617496</c:v>
+                  <c:v>9008.5053226392902</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8073.5784875502395</c:v>
+                  <c:v>9060.0206646781098</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8096.7283103362497</c:v>
+                  <c:v>9151.5370442986896</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8170.7103829342195</c:v>
+                  <c:v>9229.1312065451693</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8244.6033258808202</c:v>
+                  <c:v>9308.7297664609196</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8323.1062870033402</c:v>
+                  <c:v>9405.5339529697503</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8397.85378227408</c:v>
+                  <c:v>9410.4200017528401</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8481.1163716233295</c:v>
+                  <c:v>9470.9504042588997</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8554.7810958483497</c:v>
+                  <c:v>9525.0277453805193</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8637.80278765816</c:v>
+                  <c:v>9603.0260504256803</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8707.96815815228</c:v>
+                  <c:v>9680.4986560570887</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8773.9546808409104</c:v>
+                  <c:v>9765.8002105561409</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8859.7584505617997</c:v>
+                  <c:v>9835.3976855481505</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8949.8800030271814</c:v>
+                  <c:v>9923.0297490395806</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9016.9799645230287</c:v>
+                  <c:v>9995.1810574814499</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9108.2856667645701</c:v>
+                  <c:v>10069.430373272899</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9177.9896669629597</c:v>
+                  <c:v>10155.9886298861</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9241.7907661549107</c:v>
+                  <c:v>10239.3632735669</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9310.9155679542091</c:v>
+                  <c:v>10332.1009143629</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9398.9208615724183</c:v>
+                  <c:v>10408.275477962699</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9466.0513192825892</c:v>
+                  <c:v>10438.543279069499</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9551.4964086421696</c:v>
+                  <c:v>10525.2926025283</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9606.2988555285992</c:v>
+                  <c:v>10612.2287299688</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9693.1818416980605</c:v>
+                  <c:v>10701.0625803855</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9770.0600519324089</c:v>
+                  <c:v>10788.344246332899</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9848.3083669223597</c:v>
+                  <c:v>10859.712371214498</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9943.8628720857396</c:v>
+                  <c:v>10929.395713103799</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>10009.083503612301</c:v>
+                  <c:v>11031.898017228701</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>10086.019362846599</c:v>
+                  <c:v>11122.6401245122</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>10164.4766802248</c:v>
+                  <c:v>11206.851936822</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>10241.577403712699</c:v>
+                  <c:v>11285.7787662226</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>10333.2133221082</c:v>
+                  <c:v>11347.628303195301</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>10418.562567528999</c:v>
+                  <c:v>11428.665711882599</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>10501.812478060399</c:v>
+                  <c:v>11498.687970122201</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>10579.510730461499</c:v>
+                  <c:v>11585.5422738865</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>10674.169912977</c:v>
+                  <c:v>11666.4737519768</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>10749.964678603501</c:v>
+                  <c:v>11755.961116001601</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>10839.7568591535</c:v>
+                  <c:v>11780.9352762378</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>10922.930696777699</c:v>
+                  <c:v>11872.417575015599</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>10989.634353781399</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>11086.083309923901</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>11169.7896578985</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>11257.6039428615</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>11333.1704897663</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>11418.3798719775</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>11500.735331529801</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>11581.6269819382</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>11669.517339808399</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>11740.6470079836</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>11836.017160871099</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>11920.4081650104</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>11953.285924588099</c:v>
+                  <c:v>11918.076491096101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17820,13 +17748,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>510540</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -18902,7 +18830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C2F5D8-F9D3-4BC8-847A-B054563BDAE4}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -18940,7 +18868,7 @@
         <v>14911.466077196501</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="E2:F36" si="0">E2*1000</f>
+        <f t="shared" ref="F2:F36" si="0">E2*1000</f>
         <v>14911466.077196501</v>
       </c>
     </row>
@@ -18952,7 +18880,7 @@
         <v>26576.830040557601</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="B3:C53" si="1">B3*1000</f>
+        <f t="shared" ref="C3:C53" si="1">B3*1000</f>
         <v>26576830.040557601</v>
       </c>
       <c r="D3">
@@ -29403,2769 +29331,3123 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB30471-B599-4A7E-AA66-1ED16431E92A}">
-  <dimension ref="B1:I147"/>
+  <dimension ref="B1:J147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>12.5125056385536</v>
+        <v>70.643408757290402</v>
       </c>
       <c r="C2">
-        <v>2961.7820950748801</v>
-      </c>
-      <c r="E2">
-        <v>13.268908063890599</v>
+        <v>2983.6960333294801</v>
+      </c>
+      <c r="D2">
+        <f>C2*1000</f>
+        <v>2983696.0333294799</v>
       </c>
       <c r="F2">
-        <v>2669.8974820090002</v>
-      </c>
-      <c r="H2">
-        <v>13.322539463461901</v>
+        <v>70.240711734520602</v>
+      </c>
+      <c r="G2">
+        <v>2666.57300266628</v>
       </c>
       <c r="I2">
-        <v>2326.65652475255</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+        <v>70.634700480256797</v>
+      </c>
+      <c r="J2">
+        <v>2328.3774184182803</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>15.188002859575001</v>
+        <v>72.849330145099202</v>
       </c>
       <c r="C3">
-        <v>3024.0544259920302</v>
-      </c>
-      <c r="E3">
-        <v>15.8663937072244</v>
+        <v>3037.7469948995199</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="C3:D66" si="0">C3*1000</f>
+        <v>3037746.9948995197</v>
       </c>
       <c r="F3">
-        <v>2725.9893646723599</v>
-      </c>
-      <c r="H3">
-        <v>15.9198468109195</v>
+        <v>72.371970637148195</v>
+      </c>
+      <c r="G3">
+        <v>2710.94972277842</v>
       </c>
       <c r="I3">
-        <v>2383.8895010238098</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>72.941308573354306</v>
+      </c>
+      <c r="J3">
+        <v>2381.9079520023697</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>17.703197824191701</v>
+        <v>74.730029234863494</v>
       </c>
       <c r="C4">
-        <v>3101.3521069911999</v>
-      </c>
-      <c r="E4">
-        <v>17.7252554099116</v>
+        <v>3115.0315235173102</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>3115031.5235173102</v>
       </c>
       <c r="F4">
-        <v>2770.6381038383097</v>
-      </c>
-      <c r="H4">
-        <v>18.5162270198207</v>
+        <v>74.430447577513505</v>
+      </c>
+      <c r="G4">
+        <v>2764.1283676378998</v>
       </c>
       <c r="I4">
-        <v>2447.05616405614</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+        <v>74.824118364111897</v>
+      </c>
+      <c r="J4">
+        <v>2444.14242871531</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>20.2989718271137</v>
+        <v>76.9231356523551</v>
       </c>
       <c r="C5">
-        <v>3168.3984882904001</v>
-      </c>
-      <c r="E5">
-        <v>19.957388427186601</v>
+        <v>3164.8029015226598</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3164802.9015226597</v>
       </c>
       <c r="F5">
-        <v>2827.2595205508401</v>
-      </c>
-      <c r="H5">
-        <v>21.112734582919199</v>
+        <v>76.784096305118297</v>
+      </c>
+      <c r="G5">
+        <v>2840.9482470881899</v>
       </c>
       <c r="I5">
-        <v>2509.4077602257003</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>76.950332112243402</v>
+      </c>
+      <c r="J5">
+        <v>2492.60793599116</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>22.8938900098297</v>
+        <v>79.0590994881303</v>
       </c>
       <c r="C6">
-        <v>3240.9221189075201</v>
-      </c>
-      <c r="E6">
-        <v>22.5353835577566</v>
+        <v>3239.4017004268599</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3239401.7004268598</v>
       </c>
       <c r="F6">
-        <v>2881.72704853909</v>
-      </c>
-      <c r="H6">
-        <v>23.619407670812201</v>
+        <v>78.908288477166195</v>
+      </c>
+      <c r="G6">
+        <v>2879.9145891563398</v>
       </c>
       <c r="I6">
-        <v>2563.4832144936104</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>78.971155362940394</v>
+      </c>
+      <c r="J6">
+        <v>2551.2198645035601</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>25.489521376050799</v>
+        <v>80.805084108819997</v>
       </c>
       <c r="C7">
-        <v>3308.8813750930403</v>
-      </c>
-      <c r="E7">
-        <v>24.695981600891699</v>
+        <v>3312.0036189612597</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>3312003.6189612597</v>
       </c>
       <c r="F7">
-        <v>2928.6268452019799</v>
-      </c>
-      <c r="H7">
-        <v>26.247657233517799</v>
+        <v>81.5295084146791</v>
+      </c>
+      <c r="G7">
+        <v>2961.95415484149</v>
       </c>
       <c r="I7">
-        <v>2626.8118873038898</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>81.026507378587695</v>
+      </c>
+      <c r="J7">
+        <v>2602.7666139722496</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>28.085117083096499</v>
+        <v>82.866074447708598</v>
       </c>
       <c r="C8">
-        <v>3377.0688500001402</v>
-      </c>
-      <c r="E8">
-        <v>27.236680901832202</v>
+        <v>3355.9567345892096</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>3355956.7345892098</v>
       </c>
       <c r="F8">
-        <v>2994.3331373646397</v>
-      </c>
-      <c r="H8">
-        <v>28.9036021325383</v>
+        <v>83.701548086918507</v>
+      </c>
+      <c r="G8">
+        <v>3018.4566022814397</v>
       </c>
       <c r="I8">
-        <v>2687.85544266333</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>83.199702581272106</v>
+      </c>
+      <c r="J8">
+        <v>2651.0297166491</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>30.679923533730101</v>
+        <v>85.069275991755006</v>
       </c>
       <c r="C9">
-        <v>3450.30756594488</v>
-      </c>
-      <c r="E9">
-        <v>29.7939166473192</v>
+        <v>3429.4011535583404</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3429401.1535583404</v>
       </c>
       <c r="F9">
-        <v>3055.2970935206699</v>
-      </c>
-      <c r="H9">
-        <v>31.500089318965301</v>
+        <v>86.013020809933494</v>
+      </c>
+      <c r="G9">
+        <v>3054.3818190970196</v>
       </c>
       <c r="I9">
-        <v>2750.3374495309299</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+        <v>85.416611109023805</v>
+      </c>
+      <c r="J9">
+        <v>2695.0633740922003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>33.275987564610801</v>
+        <v>87.273732029126506</v>
       </c>
       <c r="C10">
-        <v>3515.4977683085604</v>
-      </c>
-      <c r="E10">
-        <v>32.3903776836842</v>
+        <v>3493.9005870865399</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>3493900.5870865397</v>
       </c>
       <c r="F10">
-        <v>3117.94646078409</v>
-      </c>
-      <c r="H10">
-        <v>34.176511640876001</v>
+        <v>88.208419549138895</v>
+      </c>
+      <c r="G10">
+        <v>3120.3938593194298</v>
       </c>
       <c r="I10">
-        <v>2806.6891347567998</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>87.355972388289103</v>
+      </c>
+      <c r="J10">
+        <v>2748.0726235315597</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>35.871654590007097</v>
+        <v>89.495013201355704</v>
       </c>
       <c r="C11">
-        <v>3583.22880577251</v>
-      </c>
-      <c r="E11">
-        <v>34.987314854941701</v>
+        <v>3557.9994234788101</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>3557999.4234788101</v>
       </c>
       <c r="F11">
-        <v>3177.5485647365099</v>
-      </c>
-      <c r="H11">
-        <v>36.693990830375597</v>
+        <v>90.3332267406022</v>
+      </c>
+      <c r="G11">
+        <v>3200.9628253742603</v>
       </c>
       <c r="I11">
-        <v>2869.3677765050397</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>101.990844965436</v>
+      </c>
+      <c r="J11">
+        <v>3178.1746939763698</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>38.566668077641197</v>
+        <v>91.680910389834395</v>
       </c>
       <c r="C12">
-        <v>3646.9606667325102</v>
-      </c>
-      <c r="E12">
-        <v>37.584222140414198</v>
+        <v>3635.2614543957702</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>3635261.4543957701</v>
       </c>
       <c r="F12">
-        <v>3237.3419377127402</v>
-      </c>
-      <c r="H12">
-        <v>39.329212597807903</v>
+        <v>92.537633790967703</v>
+      </c>
+      <c r="G12">
+        <v>3265.8115537498998</v>
       </c>
       <c r="I12">
-        <v>2936.67573766533</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>104.161748631037</v>
+      </c>
+      <c r="J12">
+        <v>3242.7772744648701</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>41.061990183892703</v>
+        <v>93.885639050543006</v>
       </c>
       <c r="C13">
-        <v>3725.0810049046299</v>
-      </c>
-      <c r="E13">
-        <v>40.139790423245302</v>
+        <v>3697.81698616431</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>3697816.98616431</v>
       </c>
       <c r="F13">
-        <v>3308.9776548662103</v>
-      </c>
-      <c r="H13">
-        <v>41.887785364260097</v>
+        <v>94.823807951028101</v>
+      </c>
+      <c r="G13">
+        <v>3345.4747043450902</v>
       </c>
       <c r="I13">
-        <v>2989.0827596438999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>106.36565310819201</v>
+      </c>
+      <c r="J13">
+        <v>3311.2095293265802</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>43.656801389083</v>
+        <v>96.889420627219707</v>
       </c>
       <c r="C14">
-        <v>3798.2892916864903</v>
-      </c>
-      <c r="E14">
-        <v>42.776190924526098</v>
+        <v>3802.1337731171602</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3802133.7731171604</v>
       </c>
       <c r="F14">
-        <v>3368.7417193964898</v>
-      </c>
-      <c r="H14">
-        <v>44.484819324707502</v>
+        <v>97.006597334690198</v>
+      </c>
+      <c r="G14">
+        <v>3408.1061478808001</v>
       </c>
       <c r="I14">
-        <v>3048.0654127806001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>111.04686508418099</v>
+      </c>
+      <c r="J14">
+        <v>3471.4951362455404</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>46.252575392004999</v>
+        <v>103.518211887381</v>
       </c>
       <c r="C15">
-        <v>3865.3356729856896</v>
-      </c>
-      <c r="E15">
-        <v>45.4706352521019</v>
+        <v>4005.2281432322002</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>4005228.1432322003</v>
       </c>
       <c r="F15">
-        <v>3436.1162047292701</v>
-      </c>
-      <c r="H15">
-        <v>47.0263179729887</v>
+        <v>99.737396983674202</v>
+      </c>
+      <c r="G15">
+        <v>3472.2029074932502</v>
       </c>
       <c r="I15">
-        <v>3112.5439938508302</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>113.12954596662399</v>
+      </c>
+      <c r="J15">
+        <v>3507.5302402172401</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>48.846174185236997</v>
+        <v>105.79077461991101</v>
       </c>
       <c r="C16">
-        <v>3946.3033963012799</v>
-      </c>
-      <c r="E16">
-        <v>47.871605359821999</v>
+        <v>4062.3770099664098</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>4062377.0099664098</v>
       </c>
       <c r="F16">
-        <v>3486.2711516844602</v>
-      </c>
-      <c r="H16">
-        <v>49.638146637882798</v>
+        <v>101.95793178281301</v>
+      </c>
+      <c r="G16">
+        <v>3532.42606416743</v>
       </c>
       <c r="I16">
-        <v>3174.0433357319803</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>117.03954516362001</v>
+      </c>
+      <c r="J16">
+        <v>3606.8974074778198</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>51.442364211870199</v>
+        <v>107.90742403547399</v>
       </c>
       <c r="C17">
-        <v>4010.6872258486997</v>
-      </c>
-      <c r="E17">
-        <v>50.567157301002297</v>
+        <v>4155.1258996127999</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>4155125.8996127998</v>
       </c>
       <c r="F17">
-        <v>3546.5569099485997</v>
-      </c>
-      <c r="H17">
-        <v>52.272847724754598</v>
+        <v>104.162982053864</v>
+      </c>
+      <c r="G17">
+        <v>3592.6883993288802</v>
       </c>
       <c r="I17">
-        <v>3244.6836524792802</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>119.244252525631</v>
+      </c>
+      <c r="J17">
+        <v>3669.6048065713399</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>54.0396240137608</v>
+        <v>110.078667795646</v>
       </c>
       <c r="C18">
-        <v>4068.2244937487299</v>
-      </c>
-      <c r="E18">
-        <v>53.162931303924303</v>
+        <v>4217.3034843514597</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>4217303.4843514599</v>
       </c>
       <c r="F18">
-        <v>3613.6032912477999</v>
-      </c>
-      <c r="H18">
-        <v>54.869419474368598</v>
+        <v>106.31806382936099</v>
+      </c>
+      <c r="G18">
+        <v>3650.5380835637702</v>
       </c>
       <c r="I18">
-        <v>3306.6244549499897</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>120.75571444183601</v>
+      </c>
+      <c r="J18">
+        <v>3733.23005567788</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>56.6320341678178</v>
+        <v>112.31453850008801</v>
       </c>
       <c r="C19">
-        <v>4156.7995077836604</v>
-      </c>
-      <c r="E19">
-        <v>55.759061898598802</v>
+        <v>4296.94236889695</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>4296942.36889695</v>
       </c>
       <c r="F19">
-        <v>3678.3674853312</v>
-      </c>
-      <c r="H19">
-        <v>57.592226036677403</v>
+        <v>108.571874959779</v>
+      </c>
+      <c r="G19">
+        <v>3721.82394697775</v>
       </c>
       <c r="I19">
-        <v>3377.1659526773501</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>122.917277081577</v>
+      </c>
+      <c r="J19">
+        <v>3784.72507104325</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>59.169988006716203</v>
+        <v>114.517648459732</v>
       </c>
       <c r="C20">
-        <v>4214.8040297433399</v>
-      </c>
-      <c r="E20">
-        <v>58.355356525479401</v>
+        <v>4371.0398173634703</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>4371039.8173634699</v>
       </c>
       <c r="F20">
-        <v>3742.0818732953298</v>
-      </c>
-      <c r="H20">
-        <v>59.302505405562997</v>
+        <v>110.84173541997301</v>
+      </c>
+      <c r="G20">
+        <v>3798.2409805679599</v>
       </c>
       <c r="I20">
-        <v>3408.8138892453599</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>125.056569903884</v>
+      </c>
+      <c r="J20">
+        <v>3835.58700705413</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>61.822583716754899</v>
+        <v>116.72056673109201</v>
       </c>
       <c r="C21">
-        <v>4297.2823945862992</v>
-      </c>
-      <c r="E21">
-        <v>60.211966639858097</v>
+        <v>4446.5040717547399</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>4446504.0717547396</v>
       </c>
       <c r="F21">
-        <v>3801.1407776351098</v>
-      </c>
-      <c r="H21">
-        <v>61.7147147116331</v>
+        <v>113.04840279468699</v>
+      </c>
+      <c r="G21">
+        <v>3846.9727890807999</v>
       </c>
       <c r="I21">
-        <v>3471.2803910024199</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>127.25787259798901</v>
+      </c>
+      <c r="J21">
+        <v>3922.5709042690401</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>64.417430581120499</v>
+        <v>118.924635132156</v>
       </c>
       <c r="C22">
-        <v>4370.2624626465804</v>
-      </c>
-      <c r="E22">
-        <v>62.367427387187199</v>
+        <v>4513.76749059745</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>4513767.4905974502</v>
       </c>
       <c r="F22">
-        <v>3843.01017654712</v>
-      </c>
-      <c r="H22">
-        <v>64.410741514163803</v>
+        <v>115.236458793861</v>
+      </c>
+      <c r="G22">
+        <v>3932.7554534082296</v>
       </c>
       <c r="I22">
-        <v>3528.5270366241898</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>129.497934551546</v>
+      </c>
+      <c r="J22">
+        <v>3972.32468574632</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>67.011992172084106</v>
+        <v>122.930144385839</v>
       </c>
       <c r="C23">
-        <v>4445.0682804794997</v>
-      </c>
-      <c r="E23">
-        <v>65.224573433923396</v>
+        <v>4649.5255832068397</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>4649525.5832068399</v>
       </c>
       <c r="F23">
-        <v>3918.0410276746497</v>
-      </c>
-      <c r="H23">
-        <v>66.908616223043396</v>
+        <v>117.466554431958</v>
+      </c>
+      <c r="G23">
+        <v>3983.6709667751202</v>
       </c>
       <c r="I23">
-        <v>3590.3107179765402</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>131.669648353703</v>
+      </c>
+      <c r="J23">
+        <v>4031.15070325837</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>69.606211434965402</v>
+        <v>124.731457446269</v>
       </c>
       <c r="C24">
-        <v>4522.0649980395901</v>
-      </c>
-      <c r="E24">
-        <v>67.558033990804702</v>
+        <v>4718.9314609233497</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>4718931.4609233495</v>
       </c>
       <c r="F24">
-        <v>3983.1279133952303</v>
-      </c>
-      <c r="H24">
-        <v>69.564297640380204</v>
+        <v>119.62565093600099</v>
+      </c>
+      <c r="G24">
+        <v>4040.4869618766097</v>
       </c>
       <c r="I24">
-        <v>3653.0405561121001</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>133.87445688452999</v>
+      </c>
+      <c r="J24">
+        <v>4093.1367325582596</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>72.201471945763799</v>
+        <v>126.93642039265799</v>
       </c>
       <c r="C25">
-        <v>4592.3977289295499</v>
-      </c>
-      <c r="E25">
-        <v>70.155245454702197</v>
+        <v>4779.8164521171902</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>4779816.4521171907</v>
       </c>
       <c r="F25">
-        <v>4040.9745444511805</v>
-      </c>
-      <c r="H25">
-        <v>72.100613534495494</v>
+        <v>121.082768326505</v>
+      </c>
+      <c r="G25">
+        <v>4088.6662070178595</v>
       </c>
       <c r="I25">
-        <v>3721.5279246830301</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>136.045696080694</v>
+      </c>
+      <c r="J25">
+        <v>4155.3468602951298</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>74.796675401881799</v>
+        <v>129.13981788472799</v>
       </c>
       <c r="C26">
-        <v>4663.09560977403</v>
-      </c>
-      <c r="E26">
-        <v>72.059618966320002</v>
+        <v>4851.8636916965606</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>4851863.6916965609</v>
       </c>
       <c r="F26">
-        <v>4088.43861555176</v>
-      </c>
-      <c r="H26">
-        <v>74.696715601829794</v>
+        <v>123.05095909625599</v>
+      </c>
+      <c r="G26">
+        <v>4146.7794199526597</v>
       </c>
       <c r="I26">
-        <v>3786.4746937436903</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>138.28487797204099</v>
+      </c>
+      <c r="J26">
+        <v>4211.3757996403101</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>77.391474720680407</v>
+        <v>132.75878834573899</v>
       </c>
       <c r="C27">
-        <v>4736.3799694630798</v>
-      </c>
-      <c r="E27">
-        <v>74.226308874873197</v>
+        <v>4984.5055015541602</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>4984505.5015541604</v>
       </c>
       <c r="F27">
-        <v>4143.4413826296404</v>
-      </c>
-      <c r="H27">
-        <v>77.293245579266994</v>
+        <v>125.204865893567</v>
+      </c>
+      <c r="G27">
+        <v>4213.0071182819102</v>
       </c>
       <c r="I27">
-        <v>3848.6828381453902</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>140.38209844983101</v>
+      </c>
+      <c r="J27">
+        <v>4267.9058126571199</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>79.986654404014999</v>
+        <v>134.94897240629601</v>
       </c>
       <c r="C28">
-        <v>4807.2299961219496</v>
-      </c>
-      <c r="E28">
-        <v>77.420095061291406</v>
+        <v>5040.3981899378896</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>5040398.1899378896</v>
       </c>
       <c r="F28">
-        <v>4220.7422570851295</v>
-      </c>
-      <c r="H28">
-        <v>79.789774680800505</v>
+        <v>127.45502473608801</v>
+      </c>
+      <c r="G28">
+        <v>4282.7423395536098</v>
       </c>
       <c r="I28">
-        <v>3901.0264584605602</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>142.77746614105101</v>
+      </c>
+      <c r="J28">
+        <v>4341.5773471350003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>82.540228546523693</v>
+        <v>136.949152020523</v>
       </c>
       <c r="C29">
-        <v>4891.6282113388997</v>
-      </c>
-      <c r="E29">
-        <v>75.943862966150704</v>
+        <v>5126.6379958318503</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>5126637.99583185</v>
       </c>
       <c r="F29">
-        <v>4188.3679257262902</v>
-      </c>
-      <c r="H29">
-        <v>82.701336898395695</v>
+        <v>129.61389901591099</v>
+      </c>
+      <c r="G29">
+        <v>4341.1428727080502</v>
       </c>
       <c r="I29">
-        <v>3986.8983957219202</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>144.86542291388801</v>
+      </c>
+      <c r="J29">
+        <v>4399.7777800436597</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>85.175278357488693</v>
+        <v>139.15427257727899</v>
       </c>
       <c r="C30">
-        <v>4960.0366938899206</v>
-      </c>
-      <c r="E30">
-        <v>79.359766103174707</v>
+        <v>5186.3991688208798</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>5186399.1688208794</v>
       </c>
       <c r="F30">
-        <v>4270.2242124089607</v>
-      </c>
-      <c r="H30">
-        <v>85.789947447611098</v>
+        <v>131.19385886407699</v>
+      </c>
+      <c r="G30">
+        <v>4410.5703800132696</v>
       </c>
       <c r="I30">
-        <v>4058.8817898340503</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>146.96897056201999</v>
+      </c>
+      <c r="J30">
+        <v>4466.3783272985702</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>87.771765543915706</v>
+        <v>140.89974349365201</v>
       </c>
       <c r="C31">
-        <v>5022.5187007575205</v>
-      </c>
-      <c r="E31">
-        <v>81.955056726165594</v>
+        <v>5262.6639825980901</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>5262663.9825980905</v>
       </c>
       <c r="F31">
-        <v>4340.3642252673499</v>
-      </c>
-      <c r="H31">
-        <v>88.228296295251099</v>
+        <v>133.08962495722801</v>
+      </c>
+      <c r="G31">
+        <v>4428.2492427623902</v>
       </c>
       <c r="I31">
-        <v>4122.5400740291307</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>149.108985942663</v>
+      </c>
+      <c r="J31">
+        <v>4512.08816430973</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>90.365554519415596</v>
+        <v>142.958425459343</v>
       </c>
       <c r="C32">
-        <v>5102.2692575580104</v>
-      </c>
-      <c r="E32">
-        <v>84.533186447263702</v>
+        <v>5323.0766235421997</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>5323076.6235421998</v>
       </c>
       <c r="F32">
-        <v>4403.6906535959706</v>
-      </c>
-      <c r="H32">
-        <v>90.747452399918004</v>
+        <v>135.224597338601</v>
+      </c>
+      <c r="G32">
+        <v>4509.9174656441</v>
       </c>
       <c r="I32">
-        <v>4174.4864587061102</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>151.12798025639501</v>
+      </c>
+      <c r="J32">
+        <v>4583.7410665736907</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>93.1238086400122</v>
+        <v>145.16077931520101</v>
       </c>
       <c r="C33">
-        <v>5179.2330955298494</v>
-      </c>
-      <c r="E33">
-        <v>87.147516022043604</v>
+        <v>5402.5653620452595</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>5402565.3620452592</v>
       </c>
       <c r="F33">
-        <v>4468.6247316476001</v>
-      </c>
-      <c r="H33">
-        <v>93.383961859789807</v>
+        <v>137.463583814392</v>
+      </c>
+      <c r="G33">
+        <v>4567.3397876959098</v>
       </c>
       <c r="I33">
-        <v>4233.5531882537898</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>153.11744719591999</v>
+      </c>
+      <c r="J33">
+        <v>4626.7974456778202</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>95.6141655261289</v>
+        <v>147.36454953448899</v>
       </c>
       <c r="C34">
-        <v>5250.24972368414</v>
-      </c>
-      <c r="E34">
-        <v>89.744003208470602</v>
+        <v>5471.9549234376</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>5471954.9234376</v>
       </c>
       <c r="F34">
-        <v>4531.1067385152</v>
-      </c>
-      <c r="H34">
-        <v>95.9402841360709</v>
+        <v>139.634376270362</v>
+      </c>
+      <c r="G34">
+        <v>4632.7353325740905</v>
       </c>
       <c r="I34">
-        <v>4300.3633473276295</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>155.064278439384</v>
+      </c>
+      <c r="J34">
+        <v>4702.1146934113203</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>98.148264608182998</v>
+        <v>153.05531257967499</v>
       </c>
       <c r="C35">
-        <v>5332.9246894466296</v>
-      </c>
-      <c r="E35">
-        <v>92.339670233866798</v>
+        <v>5667.6825673222102</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>5667682.5673222104</v>
       </c>
       <c r="F35">
-        <v>4598.8377759791401</v>
-      </c>
-      <c r="H35">
-        <v>98.537436960435798</v>
+        <v>140.80394238373401</v>
+      </c>
+      <c r="G35">
+        <v>4697.2773422310793</v>
       </c>
       <c r="I35">
-        <v>4358.5852713923996</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>157.125286527188</v>
+      </c>
+      <c r="J35">
+        <v>4745.9412529351303</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>100.74229131151699</v>
+        <v>157.578134884695</v>
       </c>
       <c r="C36">
-        <v>5411.15378810325</v>
-      </c>
-      <c r="E36">
-        <v>95.188283361317602</v>
+        <v>5821.4411739097095</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>5821441.1739097098</v>
       </c>
       <c r="F36">
-        <v>4668.6228512033204</v>
-      </c>
-      <c r="H36">
-        <v>101.13411432913</v>
+        <v>142.92089360329999</v>
+      </c>
+      <c r="G36">
+        <v>4753.7117977295993</v>
       </c>
       <c r="I36">
-        <v>4419.8501117448996</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>159.21696078495299</v>
+      </c>
+      <c r="J36">
+        <v>4831.9840648872705</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>103.336876675265</v>
+        <v>160.29662024660601</v>
       </c>
       <c r="C37">
-        <v>5485.8074601217895</v>
-      </c>
-      <c r="E37">
-        <v>93.874833387420594</v>
+        <v>5927.3552662437696</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>5927355.2662437698</v>
       </c>
       <c r="F37">
-        <v>4630.1572295984806</v>
-      </c>
-      <c r="H37">
-        <v>103.730530197207</v>
+        <v>144.872265410468</v>
+      </c>
+      <c r="G37">
+        <v>4795.1003653584803</v>
       </c>
       <c r="I37">
-        <v>4482.7885560556606</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>159.72994845101701</v>
+      </c>
+      <c r="J37">
+        <v>4826.4767463888402</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>105.930629991589</v>
+        <v>162.780124099647</v>
       </c>
       <c r="C38">
-        <v>5565.78623564386</v>
-      </c>
-      <c r="E38">
-        <v>98.524950027984204</v>
+        <v>6034.8107115181701</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>6034810.7115181703</v>
       </c>
       <c r="F38">
-        <v>4752.1380027184705</v>
-      </c>
-      <c r="H38">
-        <v>106.28916120697799</v>
+        <v>147.51534736054501</v>
+      </c>
+      <c r="G38">
+        <v>4874.9870608010697</v>
       </c>
       <c r="I38">
-        <v>4534.8228207889797</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>161.60109056133399</v>
+      </c>
+      <c r="J38">
+        <v>4876.25105296519</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>108.52541878244099</v>
+        <v>164.82672967302199</v>
       </c>
       <c r="C39">
-        <v>5639.1379741935798</v>
-      </c>
-      <c r="E39">
-        <v>96.468396521477302</v>
+        <v>6076.9815440922202</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>6076981.5440922203</v>
       </c>
       <c r="F39">
-        <v>4711.3531716356401</v>
-      </c>
-      <c r="H39">
-        <v>108.924460235957</v>
+        <v>149.13209901105799</v>
+      </c>
+      <c r="G39">
+        <v>4945.12684887061</v>
       </c>
       <c r="I39">
-        <v>4601.6363080525098</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>164.481464061152</v>
+      </c>
+      <c r="J39">
+        <v>4972.2874428649602</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>111.02927597106699</v>
+        <v>167.47878556154799</v>
       </c>
       <c r="C40">
-        <v>5711.2351837721899</v>
-      </c>
-      <c r="E40">
-        <v>100.363305596994</v>
+        <v>6170.3157714090503</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>6170315.7714090506</v>
       </c>
       <c r="F40">
-        <v>4803.9350883291399</v>
-      </c>
-      <c r="H40">
-        <v>111.52012012951801</v>
+        <v>151.287692665268</v>
+      </c>
+      <c r="G40">
+        <v>4999.3266550619801</v>
       </c>
       <c r="I40">
-        <v>4669.4129892607698</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>168.79050068280799</v>
+      </c>
+      <c r="J40">
+        <v>5096.02221997574</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>113.37855815869101</v>
+        <v>170.278978213877</v>
       </c>
       <c r="C41">
-        <v>5772.8121999579307</v>
-      </c>
-      <c r="E41">
-        <v>103.05663002836</v>
+        <v>6268.6958428940397</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>6268695.84289404</v>
       </c>
       <c r="F41">
-        <v>4878.47690940132</v>
-      </c>
-      <c r="H41">
-        <v>114.115955941678</v>
+        <v>153.49374308769001</v>
+      </c>
+      <c r="G41">
+        <v>5052.4575537548908</v>
       </c>
       <c r="I41">
-        <v>4736.0637914425597</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>171.00945562425801</v>
+      </c>
+      <c r="J41">
+        <v>5159.6266807106404</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>116.36716840922</v>
+        <v>173.28197341218799</v>
       </c>
       <c r="C42">
-        <v>5871.0312718994901</v>
-      </c>
-      <c r="E42">
-        <v>105.55360553170399</v>
+        <v>6378.61978843822</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>6378619.7884382196</v>
       </c>
       <c r="F42">
-        <v>4946.01550618284</v>
-      </c>
-      <c r="H42">
-        <v>116.81055142453501</v>
+        <v>155.66240318899</v>
+      </c>
+      <c r="G42">
+        <v>5133.0575489849898</v>
       </c>
       <c r="I42">
-        <v>4802.4708829721994</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>173.15655652759801</v>
+      </c>
+      <c r="J42">
+        <v>5223.1391379967499</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>119.863045893007</v>
+        <v>176.00057017933099</v>
       </c>
       <c r="C43">
-        <v>5980.42236867069</v>
-      </c>
-      <c r="E43">
-        <v>107.54478177188</v>
+        <v>6466.6582897717399</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>6466658.2897717403</v>
       </c>
       <c r="F43">
-        <v>4985.51787208313</v>
-      </c>
-      <c r="H43">
-        <v>118.669610749744</v>
+        <v>157.867013312301</v>
+      </c>
+      <c r="G43">
+        <v>5196.4582947347808</v>
       </c>
       <c r="I43">
-        <v>4858.4912016329599</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>175.17684961819899</v>
+      </c>
+      <c r="J43">
+        <v>5285.5312973399496</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>122.42081620175</v>
+        <v>182.60887772074901</v>
       </c>
       <c r="C44">
-        <v>6047.6853997055705</v>
-      </c>
-      <c r="E44">
-        <v>109.565868952958</v>
+        <v>6696.2402667699998</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>6696240.2667699996</v>
       </c>
       <c r="F44">
-        <v>5045.7114283380897</v>
-      </c>
-      <c r="H44">
-        <v>121.17839457867299</v>
+        <v>160.03776385547499</v>
+      </c>
+      <c r="G44">
+        <v>5262.1526928131798</v>
       </c>
       <c r="I44">
-        <v>4910.7222489342594</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>177.27449161517001</v>
+      </c>
+      <c r="J44">
+        <v>5329.8581416351299</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>124.656628558259</v>
+        <v>185.0147987531</v>
       </c>
       <c r="C45">
-        <v>6118.6681362302606</v>
-      </c>
-      <c r="E45">
-        <v>111.889308652959</v>
+        <v>6759.0458148289099</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>6759045.8148289099</v>
       </c>
       <c r="F45">
-        <v>5106.0469986839598</v>
-      </c>
-      <c r="H45">
-        <v>123.792429736673</v>
+        <v>162.27514440941999</v>
+      </c>
+      <c r="G45">
+        <v>5331.0258111679696</v>
       </c>
       <c r="I45">
-        <v>4977.5405943794403</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>179.31781161025299</v>
+      </c>
+      <c r="J45">
+        <v>5412.0119763995999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>127.15846569771099</v>
+        <v>187.08163160382099</v>
       </c>
       <c r="C46">
-        <v>6180.3649891889399</v>
-      </c>
-      <c r="E46">
-        <v>114.18492613548101</v>
+        <v>6848.2987332972698</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>6848298.7332972698</v>
       </c>
       <c r="F46">
-        <v>5179.2000056438892</v>
-      </c>
-      <c r="H46">
-        <v>126.390260085368</v>
+        <v>165.27855112900801</v>
+      </c>
+      <c r="G46">
+        <v>5438.0154630403504</v>
       </c>
       <c r="I46">
-        <v>5031.4263627341898</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>181.57408959583401</v>
+      </c>
+      <c r="J46">
+        <v>5465.7082814839505</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>129.71247438689201</v>
+        <v>189.32745026120301</v>
       </c>
       <c r="C47">
-        <v>6261.9821057070703</v>
-      </c>
-      <c r="E47">
-        <v>116.881847983311</v>
+        <v>6912.1906790208695</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>6912190.6790208695</v>
       </c>
       <c r="F47">
-        <v>5230.7183613539992</v>
-      </c>
-      <c r="H47">
-        <v>129.026422066387</v>
+        <v>167.48455345187</v>
+      </c>
+      <c r="G47">
+        <v>5491.4893287754903</v>
       </c>
       <c r="I47">
-        <v>5092.7169569354801</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>183.77817561903501</v>
+      </c>
+      <c r="J47">
+        <v>5532.8460481946904</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>131.80838886800899</v>
+        <v>191.41918555963301</v>
       </c>
       <c r="C48">
-        <v>6334.5757075502906</v>
-      </c>
-      <c r="E48">
-        <v>119.570014909297</v>
+        <v>7007.8319798658804</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>7007831.9798658807</v>
       </c>
       <c r="F48">
-        <v>5289.6668182559797</v>
-      </c>
-      <c r="H48">
-        <v>131.581059248532</v>
+        <v>170.062319303522</v>
+      </c>
+      <c r="G48">
+        <v>5584.4504875238299</v>
       </c>
       <c r="I48">
-        <v>5170.3117184857701</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>186.03263128863</v>
+      </c>
+      <c r="J48">
+        <v>5632.1457416411495</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>134.232211950612</v>
+        <v>195.62314604249801</v>
       </c>
       <c r="C49">
-        <v>6399.2980615347306</v>
-      </c>
-      <c r="E49">
-        <v>122.072801669567</v>
+        <v>7163.3854134896901</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>7163385.4134896901</v>
       </c>
       <c r="F49">
-        <v>5368.6147693120702</v>
-      </c>
-      <c r="H49">
-        <v>134.17722550238099</v>
+        <v>171.87745655904101</v>
+      </c>
+      <c r="G49">
+        <v>5624.2668151440794</v>
       </c>
       <c r="I49">
-        <v>5234.8476938475906</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>185.33227760514001</v>
+      </c>
+      <c r="J49">
+        <v>5571.4258248668502</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>136.826809200751</v>
+        <v>197.825723534687</v>
       </c>
       <c r="C50">
-        <v>6473.8756606460793</v>
-      </c>
-      <c r="E50">
-        <v>124.667387033314</v>
+        <v>7241.2795450805406</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>7241279.5450805407</v>
       </c>
       <c r="F50">
-        <v>5443.2684413306006</v>
-      </c>
-      <c r="H50">
-        <v>136.716165246104</v>
+        <v>174.079460511614</v>
+      </c>
+      <c r="G50">
+        <v>5697.0529026150207</v>
       </c>
       <c r="I50">
-        <v>5315.70326409065</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>188.18696570801899</v>
+      </c>
+      <c r="J50">
+        <v>5662.7147172754303</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>139.42132800070399</v>
+        <v>200.028782377455</v>
       </c>
       <c r="C51">
-        <v>6548.9553409448908</v>
-      </c>
-      <c r="E51">
-        <v>127.263902747081</v>
+        <v>7315.7414751269898</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>7315741.4751269901</v>
       </c>
       <c r="F51">
-        <v>5505.5678732209399</v>
-      </c>
-      <c r="H51">
-        <v>139.33017917809099</v>
+        <v>176.267448344813</v>
+      </c>
+      <c r="G51">
+        <v>5759.4078900248096</v>
       </c>
       <c r="I51">
-        <v>5363.2168965771307</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>189.134683993951</v>
+      </c>
+      <c r="J51">
+        <v>5720.5564002359697</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>141.889157353071</v>
+        <v>203.23167544295899</v>
       </c>
       <c r="C52">
-        <v>6618.3439892922997</v>
-      </c>
-      <c r="E52">
-        <v>129.805947699152</v>
+        <v>7435.1457160201007</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>7435145.7160201008</v>
       </c>
       <c r="F52">
-        <v>5566.5501100379206</v>
-      </c>
-      <c r="H52">
-        <v>141.906967353184</v>
+        <v>178.45486120190299</v>
+      </c>
+      <c r="G52">
+        <v>5825.8626624283597</v>
       </c>
       <c r="I52">
-        <v>5425.4089396212603</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>190.98955719505699</v>
+      </c>
+      <c r="J52">
+        <v>5766.7652164388101</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>144.609072361188</v>
+        <v>207.808437298884</v>
       </c>
       <c r="C53">
-        <v>6707.3914338451696</v>
-      </c>
-      <c r="E53">
-        <v>132.328495311403</v>
+        <v>7597.1643944813995</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>7597164.3944813991</v>
       </c>
       <c r="F53">
-        <v>5635.6719650570303</v>
-      </c>
-      <c r="H53">
-        <v>144.56302923410999</v>
+        <v>180.64109063739599</v>
+      </c>
+      <c r="G53">
+        <v>5900.7556534729601</v>
       </c>
       <c r="I53">
-        <v>5485.7038107857397</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>193.19508178343699</v>
+      </c>
+      <c r="J53">
+        <v>5823.6454996505399</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>147.20320128749199</v>
+        <v>209.91383032527199</v>
       </c>
       <c r="C54">
-        <v>6784.9663054999301</v>
-      </c>
-      <c r="E54">
-        <v>135.04975559782699</v>
+        <v>7676.2285835743005</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>7676228.5835743006</v>
       </c>
       <c r="F54">
-        <v>5716.1096284476398</v>
-      </c>
-      <c r="H54">
-        <v>147.01971739747299</v>
+        <v>182.91071678655399</v>
+      </c>
+      <c r="G54">
+        <v>5978.8434084322998</v>
       </c>
       <c r="I54">
-        <v>5558.3541107175997</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>195.20092388186001</v>
+      </c>
+      <c r="J54">
+        <v>5869.5097709113397</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>149.85748506326601</v>
+        <v>211.32340145521701</v>
       </c>
       <c r="C55">
-        <v>6856.6410496396502</v>
-      </c>
-      <c r="E55">
-        <v>137.74242290983699</v>
+        <v>7746.1129160451201</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>7746112.91604512</v>
       </c>
       <c r="F55">
-        <v>5794.85701340582</v>
-      </c>
-      <c r="H55">
-        <v>149.516276480892</v>
+        <v>185.25600152512101</v>
+      </c>
+      <c r="G55">
+        <v>6032.52323914101</v>
       </c>
       <c r="I55">
-        <v>5628.5577950144607</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>197.63624334254999</v>
+      </c>
+      <c r="J55">
+        <v>5961.8312722266901</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>152.451933875013</v>
+        <v>213.242669097049</v>
       </c>
       <c r="C56">
-        <v>6932.1686544610602</v>
-      </c>
-      <c r="E56">
-        <v>140.367234960703</v>
+        <v>7794.3596334525801</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>7794359.6334525803</v>
       </c>
       <c r="F56">
-        <v>5860.7452025443599</v>
-      </c>
-      <c r="H56">
-        <v>152.11264955795801</v>
+        <v>187.35229153066001</v>
+      </c>
+      <c r="G56">
+        <v>6114.0830244402896</v>
       </c>
       <c r="I56">
-        <v>5691.7701017911204</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>199.17950578090401</v>
+      </c>
+      <c r="J56">
+        <v>6017.9165839489106</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>155.02565689488301</v>
+        <v>215.38980455644</v>
       </c>
       <c r="C57">
-        <v>7013.9776909244501</v>
-      </c>
-      <c r="E57">
-        <v>142.835589430346</v>
+        <v>7876.2597649278296</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>7876259.7649278296</v>
       </c>
       <c r="F57">
-        <v>5926.7731003258396</v>
-      </c>
-      <c r="H57">
-        <v>154.40637506403499</v>
+        <v>189.564934106648</v>
+      </c>
+      <c r="G57">
+        <v>6188.5344415145</v>
       </c>
       <c r="I57">
-        <v>5762.0095075252802</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>200.946144951208</v>
+      </c>
+      <c r="J57">
+        <v>6072.4284690050799</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>157.52189385708701</v>
+        <v>216.84025126019699</v>
       </c>
       <c r="C58">
-        <v>7086.2429510062502</v>
-      </c>
-      <c r="E58">
-        <v>144.90601080388399</v>
+        <v>7969.1366087857796</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>7969136.6087857792</v>
       </c>
       <c r="F58">
-        <v>5986.3793399879005</v>
-      </c>
-      <c r="H58">
-        <v>156.751081559032</v>
+        <v>191.72709967341601</v>
+      </c>
+      <c r="G58">
+        <v>6247.1178597905</v>
       </c>
       <c r="I58">
-        <v>5827.6234767353799</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>203.214733849862</v>
+      </c>
+      <c r="J58">
+        <v>6121.1218448507998</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>160.17287123488899</v>
+        <v>225.05132308482499</v>
       </c>
       <c r="C59">
-        <v>7179.0786421635903</v>
-      </c>
-      <c r="E59">
-        <v>147.70940918463799</v>
+        <v>8249.0246748344907</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>8249024.6748344908</v>
       </c>
       <c r="F59">
-        <v>6050.6903092251496</v>
-      </c>
-      <c r="H59">
-        <v>159.32809418322299</v>
+        <v>193.92988571535801</v>
+      </c>
+      <c r="G59">
+        <v>6323.5249571576496</v>
       </c>
       <c r="I59">
-        <v>5870.3270974976704</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>204.97555248646401</v>
+      </c>
+      <c r="J59">
+        <v>6192.3027306487693</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>162.766562741976</v>
+        <v>227.16719814057399</v>
       </c>
       <c r="C60">
-        <v>7259.4529968030702</v>
-      </c>
-      <c r="E60">
-        <v>149.91360765244099</v>
+        <v>8292.9456522481705</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>8292945.6522481702</v>
       </c>
       <c r="F60">
-        <v>6118.3655698263401</v>
-      </c>
-      <c r="H60">
-        <v>162.27745693783999</v>
+        <v>196.239851877852</v>
+      </c>
+      <c r="G60">
+        <v>6432.8236722164602</v>
       </c>
       <c r="I60">
-        <v>5967.0028705493496</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>207.07669857090099</v>
+      </c>
+      <c r="J60">
+        <v>6255.5298064601302</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>165.27059864446099</v>
+        <v>229.275148910328</v>
       </c>
       <c r="C61">
-        <v>7330.4064376825499</v>
-      </c>
-      <c r="E61">
-        <v>152.54939889124199</v>
+        <v>8373.3021576444207</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>8373302.1576444209</v>
       </c>
       <c r="F61">
-        <v>6182.0289142281899</v>
-      </c>
-      <c r="H61">
-        <v>164.85461189861999</v>
+        <v>195.432965858503</v>
+      </c>
+      <c r="G61">
+        <v>6367.2028260953603</v>
       </c>
       <c r="I61">
-        <v>6026.8474851943802</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>209.22606474292999</v>
+      </c>
+      <c r="J61">
+        <v>6302.8900889687302</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>167.95477304901701</v>
+        <v>230.176268792553</v>
       </c>
       <c r="C62">
-        <v>7414.9070317413598</v>
-      </c>
-      <c r="E62">
-        <v>155.10420474694499</v>
+        <v>8437.8125422811499</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>8437812.5422811508</v>
       </c>
       <c r="F62">
-        <v>6258.5441650002094</v>
-      </c>
-      <c r="H62">
-        <v>167.45076626607801</v>
+        <v>198.37833466864799</v>
+      </c>
+      <c r="G62">
+        <v>6478.0739342576499</v>
       </c>
       <c r="I62">
-        <v>6091.4595334633905</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>213.23213628224599</v>
+      </c>
+      <c r="J62">
+        <v>6434.6388841988191</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>170.64793701409499</v>
+        <v>232.064260784787</v>
       </c>
       <c r="C63">
-        <v>7490.4758370606505</v>
-      </c>
-      <c r="E63">
-        <v>157.70084744699801</v>
+        <v>8463.0960716781792</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>8463096.0716781784</v>
       </c>
       <c r="F63">
-        <v>6320.0308846653597</v>
-      </c>
-      <c r="H63">
-        <v>170.04624073192801</v>
+        <v>203.54499907111</v>
+      </c>
+      <c r="G63">
+        <v>6635.8598265235896</v>
       </c>
       <c r="I63">
-        <v>6160.4229520238696</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>214.981487466456</v>
+      </c>
+      <c r="J63">
+        <v>6515.8456270452298</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>173.143147388264</v>
+        <v>234.26688034190499</v>
       </c>
       <c r="C64">
-        <v>7569.3112605603901</v>
-      </c>
-      <c r="E64">
-        <v>160.29530106990299</v>
+        <v>8540.6902653021989</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>8540690.265302198</v>
       </c>
       <c r="F64">
-        <v>6395.52769807196</v>
-      </c>
-      <c r="H64">
-        <v>172.74188360400501</v>
+        <v>204.89248783725401</v>
+      </c>
+      <c r="G64">
+        <v>6712.8421714387305</v>
       </c>
       <c r="I64">
-        <v>6220.1267525479798</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>217.03912402104299</v>
+      </c>
+      <c r="J64">
+        <v>6551.1027979661794</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>175.73624695304301</v>
+        <v>236.46822250959701</v>
       </c>
       <c r="C65">
-        <v>7653.4740459780996</v>
-      </c>
-      <c r="E65">
-        <v>162.89048075323799</v>
+        <v>8627.3927017415008</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>8627392.7017415017</v>
       </c>
       <c r="F65">
-        <v>6466.3777247308299</v>
-      </c>
-      <c r="H65">
-        <v>175.14046533940899</v>
+        <v>207.17283973192201</v>
+      </c>
+      <c r="G65">
+        <v>6774.2358419686198</v>
       </c>
       <c r="I65">
-        <v>6285.5672823218902</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>219.242920863705</v>
+      </c>
+      <c r="J65">
+        <v>6620.3025252023099</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>177.95077849110299</v>
+        <v>238.61930106798499</v>
       </c>
       <c r="C66">
-        <v>7734.2903842083697</v>
-      </c>
-      <c r="E66">
-        <v>165.35858613113299</v>
+        <v>8713.7867536772901</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>8713786.7536772899</v>
       </c>
       <c r="F66">
-        <v>6533.9998096993195</v>
-      </c>
-      <c r="H66">
-        <v>177.81643134143499</v>
+        <v>206.248725804358</v>
+      </c>
+      <c r="G66">
+        <v>6727.4395887880592</v>
       </c>
       <c r="I66">
-        <v>6354.5596945348598</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>221.447005238792</v>
+      </c>
+      <c r="J66">
+        <v>6687.4520435512904</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>180.45198745173201</v>
+        <v>240.70217431968999</v>
       </c>
       <c r="C67">
-        <v>7800.0075816366307</v>
-      </c>
-      <c r="E67">
-        <v>168.07980838110299</v>
+        <v>8774.0720439686902</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="C67:D109" si="1">C67*1000</f>
+        <v>8774072.0439686906</v>
       </c>
       <c r="F67">
-        <v>6614.6809063929495</v>
-      </c>
-      <c r="H67">
-        <v>180.427981694956</v>
+        <v>209.073528334565</v>
+      </c>
+      <c r="G67">
+        <v>6816.59976568821</v>
       </c>
       <c r="I67">
-        <v>6437.2807886407109</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>223.650945847667</v>
+      </c>
+      <c r="J67">
+        <v>6755.62666634385</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>183.09483784878699</v>
+        <v>242.997841776396</v>
       </c>
       <c r="C68">
-        <v>7890.70010541995</v>
-      </c>
-      <c r="E68">
-        <v>170.675503933839</v>
+        <v>8866.1949949100908</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>8866194.9949100912</v>
       </c>
       <c r="F68">
-        <v>6682.2293688796199</v>
-      </c>
-      <c r="H68">
-        <v>183.02448314505301</v>
+        <v>211.00551164696799</v>
+      </c>
+      <c r="G68">
+        <v>6886.9153412323294</v>
       </c>
       <c r="I68">
-        <v>6499.67150801967</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>226.25514984948401</v>
+      </c>
+      <c r="J68">
+        <v>6839.4273072844799</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69">
-        <v>184.29814726498199</v>
+        <v>245.278255595274</v>
       </c>
       <c r="C69">
-        <v>7951.85750411142</v>
-      </c>
-      <c r="E69">
-        <v>173.26991575626701</v>
+        <v>8940.9435033295304</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>8940943.5033295304</v>
       </c>
       <c r="F69">
-        <v>6757.9937053431804</v>
-      </c>
-      <c r="H69">
-        <v>185.57266641269101</v>
+        <v>215.764789437269</v>
+      </c>
+      <c r="G69">
+        <v>7028.6226166547194</v>
       </c>
       <c r="I69">
-        <v>6568.0258678669297</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>228.19275936515399</v>
+      </c>
+      <c r="J69">
+        <v>6893.5397688456305</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>186.58274583345599</v>
+        <v>246.67737240589901</v>
       </c>
       <c r="C70">
-        <v>7988.6084840617496</v>
-      </c>
-      <c r="E70">
-        <v>175.865024121251</v>
+        <v>9008.5053226392902</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>9008505.3226392902</v>
       </c>
       <c r="F70">
-        <v>6829.3001694452096</v>
-      </c>
-      <c r="H70">
-        <v>187.69490083200401</v>
+        <v>217.96811025402499</v>
+      </c>
+      <c r="G70">
+        <v>7101.2165786039895</v>
       </c>
       <c r="I70">
-        <v>6632.99831153377</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>230.30274289670899</v>
+      </c>
+      <c r="J70">
+        <v>6962.0776181162601</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71">
-        <v>187.912082906774</v>
+        <v>248.682421967473</v>
       </c>
       <c r="C71">
-        <v>8073.5784875502395</v>
-      </c>
-      <c r="E71">
-        <v>178.46057941456499</v>
+        <v>9060.0206646781098</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>9060020.6646781098</v>
       </c>
       <c r="F71">
-        <v>6897.7462922367695</v>
-      </c>
-      <c r="H71">
-        <v>189.86630925398299</v>
+        <v>221.519622922167</v>
+      </c>
+      <c r="G71">
+        <v>7245.7796365943905</v>
       </c>
       <c r="I71">
-        <v>6686.5298654143999</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>231.86640903789399</v>
+      </c>
+      <c r="J71">
+        <v>7004.2027273295698</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>189.86467204067</v>
+        <v>250.972523417318</v>
       </c>
       <c r="C72">
-        <v>8096.7283103362497</v>
-      </c>
-      <c r="E72">
-        <v>181.05532643324</v>
+        <v>9151.5370442986896</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>9151537.0442986898</v>
       </c>
       <c r="F72">
-        <v>6971.3653727174797</v>
-      </c>
-      <c r="H72">
-        <v>192.46225442094601</v>
+        <v>220.57241009998401</v>
+      </c>
+      <c r="G72">
+        <v>7184.3338165822506</v>
       </c>
       <c r="I72">
-        <v>6752.4807968500099</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>235.003858277983</v>
+      </c>
+      <c r="J72">
+        <v>7111.9703227118798</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73">
-        <v>192.477587866302</v>
+        <v>253.18632228079699</v>
       </c>
       <c r="C73">
-        <v>8170.7103829342195</v>
-      </c>
-      <c r="E73">
-        <v>183.65329704135701</v>
+        <v>9229.1312065451693</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>9229131.2065451685</v>
       </c>
       <c r="F73">
-        <v>7024.3534807673404</v>
-      </c>
-      <c r="H73">
-        <v>194.47801476924499</v>
+        <v>223.32916371067699</v>
+      </c>
+      <c r="G73">
+        <v>7284.1116338619304</v>
       </c>
       <c r="I73">
-        <v>6824.9479010708192</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>237.18698424502301</v>
+      </c>
+      <c r="J73">
+        <v>7191.9109202968202</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74">
-        <v>195.07229209396701</v>
+        <v>255.489274452345</v>
       </c>
       <c r="C74">
-        <v>8244.6033258808202</v>
-      </c>
-      <c r="E74">
-        <v>186.13969429608099</v>
+        <v>9308.7297664609196</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>9308729.7664609198</v>
       </c>
       <c r="F74">
-        <v>7091.5509106755308</v>
-      </c>
-      <c r="H74">
-        <v>196.671070484691</v>
+        <v>225.94011325831499</v>
+      </c>
+      <c r="G74">
+        <v>7363.9625387647293</v>
       </c>
       <c r="I74">
-        <v>6877.3167301424301</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>238.73818654738801</v>
+      </c>
+      <c r="J74">
+        <v>7268.2477095473205</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75">
-        <v>197.66627600629201</v>
+        <v>257.11067101931701</v>
       </c>
       <c r="C75">
-        <v>8323.1062870033402</v>
-      </c>
-      <c r="E75">
-        <v>188.74350803885901</v>
+        <v>9405.5339529697503</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>9405533.9529697504</v>
       </c>
       <c r="F75">
-        <v>7157.1329668830804</v>
-      </c>
-      <c r="H75">
-        <v>199.36131727017101</v>
+        <v>228.14428900481801</v>
+      </c>
+      <c r="G75">
+        <v>7430.4605462895797</v>
       </c>
       <c r="I75">
-        <v>6952.1149254456705</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>241.09370948437001</v>
+      </c>
+      <c r="J75">
+        <v>7342.5736816356903</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76">
-        <v>200.26084671015599</v>
+        <v>258.22512114384199</v>
       </c>
       <c r="C76">
-        <v>8397.85378227408</v>
-      </c>
-      <c r="E76">
-        <v>191.37905603114299</v>
+        <v>9410.4200017528401</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>9410420.0017528404</v>
       </c>
       <c r="F76">
-        <v>7240.4050370447903</v>
-      </c>
-      <c r="H76">
-        <v>201.59959953976499</v>
+        <v>229.285994921319</v>
+      </c>
+      <c r="G76">
+        <v>7468.1834484865503</v>
       </c>
       <c r="I76">
-        <v>6998.1001355818207</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>245.030382866747</v>
+      </c>
+      <c r="J76">
+        <v>7447.4021279765093</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77">
-        <v>202.85408693056999</v>
+        <v>259.46591902560198</v>
       </c>
       <c r="C77">
-        <v>8481.1163716233295</v>
-      </c>
-      <c r="E77">
-        <v>194.03147921869601</v>
+        <v>9470.9504042588997</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>9470950.4042588994</v>
       </c>
       <c r="F77">
-        <v>7323.9875457978796</v>
-      </c>
-      <c r="H77">
-        <v>204.042516112545</v>
+        <v>232.18970958482501</v>
+      </c>
+      <c r="G77">
+        <v>7568.6013242686295</v>
       </c>
       <c r="I77">
-        <v>7066.9877887990506</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>247.091912772657</v>
+      </c>
+      <c r="J77">
+        <v>7487.5079380384695</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78">
-        <v>205.44882681741001</v>
+        <v>261.21069050793898</v>
       </c>
       <c r="C78">
-        <v>8554.7810958483497</v>
-      </c>
-      <c r="E78">
-        <v>196.52836277230901</v>
+        <v>9525.0277453805193</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>9525027.745380519</v>
       </c>
       <c r="F78">
-        <v>7392.1146208543296</v>
-      </c>
-      <c r="H78">
-        <v>207.603390258318</v>
+        <v>235.11499754762301</v>
+      </c>
+      <c r="G78">
+        <v>7658.6762194038201</v>
       </c>
       <c r="I78">
-        <v>7149.2114376733298</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>248.97351364930401</v>
+      </c>
+      <c r="J78">
+        <v>7558.3624041168896</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79">
-        <v>208.04210467806399</v>
+        <v>263.49709815497903</v>
       </c>
       <c r="C79">
-        <v>8637.80278765816</v>
-      </c>
-      <c r="E79">
-        <v>199.300638230826</v>
+        <v>9603.0260504256803</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>9603026.0504256804</v>
       </c>
       <c r="F79">
-        <v>7466.8244136224803</v>
-      </c>
-      <c r="H79">
-        <v>210.84532385613201</v>
+        <v>237.39968304277801</v>
+      </c>
+      <c r="G79">
+        <v>7725.0403577643601</v>
       </c>
       <c r="I79">
-        <v>7260.55669138146</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>251.01406896232999</v>
+      </c>
+      <c r="J79">
+        <v>7619.7600291141398</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80">
-        <v>210.637391338925</v>
+        <v>265.73327267013701</v>
       </c>
       <c r="C80">
-        <v>8707.96815815228</v>
-      </c>
-      <c r="E80">
-        <v>201.81661972641299</v>
+        <v>9680.4986560570887</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>9680498.6560570896</v>
       </c>
       <c r="F80">
-        <v>7539.0882964058001</v>
-      </c>
-      <c r="H80">
-        <v>213.52071498784201</v>
+        <v>241.07349560709201</v>
+      </c>
+      <c r="G80">
+        <v>7868.7043049674703</v>
       </c>
       <c r="I80">
-        <v>7313.7877141741701</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>253.301873803972</v>
+      </c>
+      <c r="J80">
+        <v>7687.7958376410506</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81">
-        <v>212.91742185384501</v>
+        <v>267.90127339923799</v>
       </c>
       <c r="C81">
-        <v>8773.9546808409104</v>
-      </c>
-      <c r="E81">
-        <v>204.41116383595201</v>
+        <v>9765.8002105561409</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>9765800.2105561402</v>
       </c>
       <c r="F81">
-        <v>7614.0059953591699</v>
-      </c>
-      <c r="H81">
-        <v>216.05611206387499</v>
+        <v>243.20775947435601</v>
+      </c>
+      <c r="G81">
+        <v>7921.2620226609497</v>
       </c>
       <c r="I81">
-        <v>7388.1555184711497</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>255.52158153487099</v>
+      </c>
+      <c r="J81">
+        <v>7763.11387266572</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82">
-        <v>215.49052069664501</v>
+        <v>270.105014459595</v>
       </c>
       <c r="C82">
-        <v>8859.7584505617997</v>
-      </c>
-      <c r="E82">
-        <v>207.007489367451</v>
+        <v>9835.3976855481505</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>9835397.6855481509</v>
       </c>
       <c r="F82">
-        <v>7677.5225937646001</v>
-      </c>
-      <c r="H82">
-        <v>218.65220699937399</v>
+        <v>245.396921737095</v>
+      </c>
+      <c r="G82">
+        <v>7984.4404944215803</v>
       </c>
       <c r="I82">
-        <v>7453.1479312761303</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>257.70894567118899</v>
+      </c>
+      <c r="J82">
+        <v>7829.9160415751503</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83">
-        <v>218.18141079498099</v>
+        <v>272.46720819956897</v>
       </c>
       <c r="C83">
-        <v>8949.8800030271814</v>
-      </c>
-      <c r="E83">
-        <v>209.60318511829399</v>
+        <v>9923.0297490395806</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>9923029.749039581</v>
       </c>
       <c r="F83">
-        <v>7745.0697883694893</v>
-      </c>
-      <c r="H83">
-        <v>221.24762441054401</v>
+        <v>247.233355754055</v>
+      </c>
+      <c r="G83">
+        <v>8057.2747938949597</v>
       </c>
       <c r="I83">
-        <v>7522.4764997911307</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>259.824782304763</v>
+      </c>
+      <c r="J83">
+        <v>7928.4603570839899</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84">
-        <v>220.86830404837499</v>
+        <v>274.47607124234798</v>
       </c>
       <c r="C84">
-        <v>9016.9799645230287</v>
-      </c>
-      <c r="E84">
-        <v>212.19682650442999</v>
+        <v>9995.1810574814499</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>9995181.0574814491</v>
       </c>
       <c r="F84">
-        <v>7825.7649171009598</v>
-      </c>
-      <c r="H84">
-        <v>223.84227514944499</v>
+        <v>249.21866689919</v>
+      </c>
+      <c r="G84">
+        <v>8106.0497465342196</v>
       </c>
       <c r="I84">
-        <v>7596.7117708201004</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>259.912864981366</v>
+      </c>
+      <c r="J84">
+        <v>7898.2425316926701</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85">
-        <v>223.36915991002201</v>
+        <v>276.67915990329402</v>
       </c>
       <c r="C85">
-        <v>9108.2856667645701</v>
-      </c>
-      <c r="E85">
-        <v>214.79091263972299</v>
+        <v>10069.430373272899</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>10069430.373272898</v>
       </c>
       <c r="F85">
-        <v>7903.6136512216199</v>
-      </c>
-      <c r="H85">
-        <v>226.438387914532</v>
+        <v>251.01881705069701</v>
+      </c>
+      <c r="G85">
+        <v>8183.7475801942801</v>
       </c>
       <c r="I85">
-        <v>7661.5900742642898</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>262.11593411850498</v>
+      </c>
+      <c r="J85">
+        <v>7972.6310591987203</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86">
-        <v>225.28333968271801</v>
+        <v>278.84698438566699</v>
       </c>
       <c r="C86">
-        <v>9177.9896669629597</v>
-      </c>
-      <c r="E86">
-        <v>217.23766983598401</v>
+        <v>10155.9886298861</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>10155988.6298861</v>
       </c>
       <c r="F86">
-        <v>7949.5624003499197</v>
-      </c>
-      <c r="H86">
-        <v>229.03337741559901</v>
+        <v>253.03731916263001</v>
+      </c>
+      <c r="G86">
+        <v>8249.7124706533796</v>
       </c>
       <c r="I86">
-        <v>7733.6572674382505</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>264.32075684846399</v>
+      </c>
+      <c r="J86">
+        <v>8034.5158436152997</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87">
-        <v>227.61307246551499</v>
+        <v>281.04879326108397</v>
       </c>
       <c r="C87">
-        <v>9241.7907661549107</v>
-      </c>
-      <c r="E87">
-        <v>219.59334405673999</v>
+        <v>10239.3632735669</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>10239363.2735669</v>
       </c>
       <c r="F87">
-        <v>8022.5980368640603</v>
-      </c>
-      <c r="H87">
-        <v>231.62893746346899</v>
+        <v>255.14374846026701</v>
+      </c>
+      <c r="G87">
+        <v>8304.963414192709</v>
       </c>
       <c r="I87">
-        <v>7802.0729610669296</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>266.52392005485399</v>
+      </c>
+      <c r="J87">
+        <v>8108.2336237693798</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88">
-        <v>229.82943080614299</v>
+        <v>283.11513739542499</v>
       </c>
       <c r="C88">
-        <v>9310.9155679542091</v>
-      </c>
-      <c r="E88">
-        <v>222.57787466062501</v>
+        <v>10332.1009143629</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>10332100.9143629</v>
       </c>
       <c r="F88">
-        <v>8107.0567174513608</v>
-      </c>
-      <c r="H88">
-        <v>234.22342773608199</v>
+        <v>257.02447397056</v>
+      </c>
+      <c r="G88">
+        <v>8405.9732796850913</v>
       </c>
       <c r="I88">
-        <v>7877.33521634301</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>268.66104626708398</v>
+      </c>
+      <c r="J88">
+        <v>8174.5442634131605</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89">
-        <v>232.287668615379</v>
+        <v>284.18605172568999</v>
       </c>
       <c r="C89">
-        <v>9398.9208615724183</v>
-      </c>
-      <c r="E89">
-        <v>225.172301765556</v>
+        <v>10408.275477962699</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>10408275.477962699</v>
       </c>
       <c r="F89">
-        <v>8182.7232458913904</v>
-      </c>
-      <c r="H89">
-        <v>236.58163114400699</v>
+        <v>259.28318735135099</v>
+      </c>
+      <c r="G89">
+        <v>8442.3043471343899</v>
       </c>
       <c r="I89">
-        <v>7948.4697692592299</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>270.86487627486099</v>
+      </c>
+      <c r="J89">
+        <v>8243.5075115289692</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90">
-        <v>234.922918117725</v>
+        <v>286.31984830482202</v>
       </c>
       <c r="C90">
-        <v>9466.0513192825892</v>
-      </c>
-      <c r="E90">
-        <v>227.82860692130001</v>
+        <v>10438.543279069499</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>10438543.2790695</v>
       </c>
       <c r="F90">
-        <v>8241.4611582219804</v>
-      </c>
-      <c r="H90">
-        <v>239.179097089892</v>
+        <v>260.71212622902902</v>
+      </c>
+      <c r="G90">
+        <v>8512.4476996932099</v>
       </c>
       <c r="I90">
-        <v>8004.6877155973707</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>272.61371261375302</v>
+      </c>
+      <c r="J90">
+        <v>8304.4715606924201</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91">
-        <v>236.977335917554</v>
+        <v>288.43494356741598</v>
       </c>
       <c r="C91">
-        <v>9551.4964086421696</v>
-      </c>
-      <c r="E91">
-        <v>230.36317937890601</v>
+        <v>10525.2926025283</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>10525292.6025283</v>
       </c>
       <c r="F91">
-        <v>8321.1065204554907</v>
-      </c>
-      <c r="H91">
-        <v>241.77397282120899</v>
+        <v>262.84055056904901</v>
+      </c>
+      <c r="G91">
+        <v>8545.1508973100899</v>
       </c>
       <c r="I91">
-        <v>8077.4830351687506</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>274.75482378706499</v>
+      </c>
+      <c r="J91">
+        <v>8366.2817293034695</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92">
-        <v>239.402708985641</v>
+        <v>290.85664491394402</v>
       </c>
       <c r="C92">
-        <v>9606.2988555285992</v>
-      </c>
-      <c r="E92">
-        <v>232.142759500431</v>
+        <v>10612.2287299688</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>10612228.729968799</v>
       </c>
       <c r="F92">
-        <v>8388.7634396633202</v>
-      </c>
-      <c r="H92">
-        <v>244.36924759567799</v>
+        <v>265.04307694436102</v>
+      </c>
+      <c r="G92">
+        <v>8623.4095104808712</v>
       </c>
       <c r="I92">
-        <v>8147.7244785700705</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>277.37537885021499</v>
+      </c>
+      <c r="J92">
+        <v>8453.0620866498593</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93">
-        <v>242.054616473598</v>
+        <v>293.20860873702998</v>
       </c>
       <c r="C93">
-        <v>9693.1818416980605</v>
-      </c>
-      <c r="E93">
-        <v>234.607398942917</v>
+        <v>10701.0625803855</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>10701062.580385501</v>
       </c>
       <c r="F93">
-        <v>8452.6467653285999</v>
-      </c>
-      <c r="H93">
-        <v>246.96504197527099</v>
+        <v>267.21521494559101</v>
+      </c>
+      <c r="G93">
+        <v>8679.2108371038703</v>
       </c>
       <c r="I93">
-        <v>8214.6404491712201</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279.36329898445899</v>
+      </c>
+      <c r="J93">
+        <v>8507.1477398329589</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94">
-        <v>244.58962129870301</v>
+        <v>295.32602490572901</v>
       </c>
       <c r="C94">
-        <v>9770.0600519324089</v>
-      </c>
-      <c r="E94">
-        <v>237.20361953455699</v>
+        <v>10788.344246332899</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>10788344.246332899</v>
       </c>
       <c r="F94">
-        <v>8516.8349788289597</v>
-      </c>
-      <c r="H94">
-        <v>249.56086691987201</v>
+        <v>269.56091973661597</v>
+      </c>
+      <c r="G94">
+        <v>8748.2907165943798</v>
       </c>
       <c r="I94">
-        <v>8281.3608037253089</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>281.349085851231</v>
+      </c>
+      <c r="J94">
+        <v>8576.4443519676097</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95">
-        <v>247.20338931766801</v>
+        <v>297.57982449935298</v>
       </c>
       <c r="C95">
-        <v>9848.3083669223597</v>
-      </c>
-      <c r="E95">
-        <v>239.79960749253101</v>
+        <v>10859.712371214498</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>10859712.371214498</v>
       </c>
       <c r="F95">
-        <v>8582.5120477986802</v>
-      </c>
-      <c r="H95">
-        <v>252.15614169434099</v>
+        <v>271.33290961532998</v>
+      </c>
+      <c r="G95">
+        <v>8828.1134859753511</v>
       </c>
       <c r="I95">
-        <v>8351.6022471266297</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>283.55319684969197</v>
+      </c>
+      <c r="J95">
+        <v>8643.4040361603693</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96">
-        <v>249.77496460805401</v>
+        <v>299.81948698785601</v>
       </c>
       <c r="C96">
-        <v>9943.8628720857396</v>
-      </c>
-      <c r="E96">
-        <v>242.41457207493201</v>
+        <v>10929.395713103799</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>10929395.713103799</v>
       </c>
       <c r="F96">
-        <v>8653.1023567978391</v>
-      </c>
-      <c r="H96">
-        <v>254.751131195407</v>
+        <v>273.81740349271701</v>
+      </c>
+      <c r="G96">
+        <v>8904.5959794030205</v>
       </c>
       <c r="I96">
-        <v>8423.6694403005895</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>285.79187715669599</v>
+      </c>
+      <c r="J96">
+        <v>8703.009451008671</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97">
-        <v>252.37102388437799</v>
+        <v>301.93237296691098</v>
       </c>
       <c r="C97">
-        <v>10009.083503612301</v>
-      </c>
-      <c r="E97">
-        <v>244.98993120002501</v>
+        <v>11031.898017228701</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>11031898.0172287</v>
       </c>
       <c r="F97">
-        <v>8724.4403198379987</v>
-      </c>
-      <c r="H97">
-        <v>257.34635842430902</v>
+        <v>275.29771011942802</v>
+      </c>
+      <c r="G97">
+        <v>8967.1748058620706</v>
       </c>
       <c r="I97">
-        <v>8494.2151753306898</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>287.96236663868302</v>
+      </c>
+      <c r="J97">
+        <v>8770.5653085845988</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98">
-        <v>254.965252656373</v>
+        <v>304.13314858923002</v>
       </c>
       <c r="C98">
-        <v>10086.019362846599</v>
-      </c>
-      <c r="E98">
-        <v>247.58530106562699</v>
+        <v>11122.6401245122</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>11122640.124512199</v>
       </c>
       <c r="F98">
-        <v>8794.0731799817713</v>
-      </c>
-      <c r="H98">
-        <v>259.81572339399401</v>
+        <v>277.40647287045499</v>
+      </c>
+      <c r="G98">
+        <v>9035.72135641159</v>
       </c>
       <c r="I98">
-        <v>8553.7758728415192</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>290.074103661636</v>
+      </c>
+      <c r="J98">
+        <v>8843.9919377073711</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99">
-        <v>257.55924370053299</v>
+        <v>306.33484005557301</v>
       </c>
       <c r="C99">
-        <v>10164.4766802248</v>
-      </c>
-      <c r="E99">
-        <v>250.17969624710699</v>
+        <v>11206.851936822</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>11206851.936822001</v>
       </c>
       <c r="F99">
-        <v>8869.9440185153999</v>
-      </c>
-      <c r="H99">
-        <v>262.53653949510198</v>
+        <v>276.36258137765401</v>
+      </c>
+      <c r="G99">
+        <v>8978.82687029921</v>
       </c>
       <c r="I99">
-        <v>8637.0563222563214</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>292.165479433359</v>
+      </c>
+      <c r="J99">
+        <v>8932.1630617423507</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100">
-        <v>260.09421375794199</v>
+        <v>308.53727271661398</v>
       </c>
       <c r="C100">
-        <v>10241.577403712699</v>
-      </c>
-      <c r="E100">
-        <v>252.774379079266</v>
+        <v>11285.7787662226</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>11285778.7662226</v>
       </c>
       <c r="F100">
-        <v>8943.9738926949503</v>
-      </c>
-      <c r="H100">
-        <v>265.1320306019</v>
+        <v>279.57487169797099</v>
+      </c>
+      <c r="G100">
+        <v>9086.4108466931611</v>
       </c>
       <c r="I100">
-        <v>8705.9132387467216</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>294.37153287309701</v>
+      </c>
+      <c r="J100">
+        <v>8985.2724458975608</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101">
-        <v>262.64665700932898</v>
+        <v>310.675024578104</v>
       </c>
       <c r="C101">
-        <v>10333.2133221082</v>
-      </c>
-      <c r="E101">
-        <v>255.370274323384</v>
+        <v>11347.628303195301</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>11347628.303195301</v>
       </c>
       <c r="F101">
-        <v>9010.2443303407799</v>
-      </c>
-      <c r="H101">
-        <v>267.727790341152</v>
+        <v>281.71834044603298</v>
+      </c>
+      <c r="G101">
+        <v>9144.2872863205794</v>
       </c>
       <c r="I101">
-        <v>8773.0509075345617</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>296.56262966479102</v>
+      </c>
+      <c r="J101">
+        <v>9034.6570353010811</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102">
-        <v>265.33829278064098</v>
+        <v>312.19969554125498</v>
       </c>
       <c r="C102">
-        <v>10418.562567528999</v>
-      </c>
-      <c r="E102">
-        <v>258.06336472490398</v>
+        <v>11428.665711882599</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>11428665.711882599</v>
       </c>
       <c r="F102">
-        <v>9086.2839424301383</v>
-      </c>
-      <c r="H102">
-        <v>270.38173634529301</v>
+        <v>283.87301505946402</v>
+      </c>
+      <c r="G102">
+        <v>9232.6329407325702</v>
       </c>
       <c r="I102">
-        <v>8846.8873901203515</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>298.77822136374499</v>
+      </c>
+      <c r="J102">
+        <v>9130.1262616811691</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103">
-        <v>267.93153498212098</v>
+        <v>314.34300879711799</v>
       </c>
       <c r="C103">
-        <v>10501.812478060399</v>
-      </c>
-      <c r="E103">
-        <v>260.46188471710701</v>
+        <v>11498.687970122201</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>11498687.970122201</v>
       </c>
       <c r="F103">
-        <v>9152.1196286941995</v>
-      </c>
-      <c r="H103">
-        <v>272.445829685109</v>
+        <v>286.07657229177101</v>
+      </c>
+      <c r="G103">
+        <v>9303.5411753746394</v>
       </c>
       <c r="I103">
-        <v>8904.8718334844707</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>300.84502999987501</v>
+      </c>
+      <c r="J103">
+        <v>9182.7614931801309</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104">
-        <v>270.56513326654698</v>
+        <v>316.54432966611103</v>
       </c>
       <c r="C104">
-        <v>10579.510730461499</v>
-      </c>
-      <c r="E104">
-        <v>263.154572434089</v>
+        <v>11585.5422738865</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>11585542.2738865</v>
       </c>
       <c r="F104">
-        <v>9230.7364218283692</v>
-      </c>
-      <c r="H104">
-        <v>275.04141586593801</v>
+        <v>288.23109231410098</v>
+      </c>
+      <c r="G104">
+        <v>9365.3963603057</v>
       </c>
       <c r="I104">
-        <v>8973.12027617475</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>303.18536138679701</v>
+      </c>
+      <c r="J104">
+        <v>9271.7604901753493</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105">
-        <v>273.11710413291502</v>
+        <v>318.74648118433601</v>
       </c>
       <c r="C105">
-        <v>10674.169912977</v>
-      </c>
-      <c r="E105">
-        <v>265.74984720855701</v>
+        <v>11666.4737519768</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>11666473.751976801</v>
       </c>
       <c r="F105">
-        <v>9300.97786522969</v>
-      </c>
-      <c r="H105">
-        <v>277.63729684638599</v>
+        <v>290.45132789773697</v>
+      </c>
+      <c r="G105">
+        <v>9436.9506167931104</v>
       </c>
       <c r="I105">
-        <v>9039.4820013092103</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+        <v>305.45632778189503</v>
+      </c>
+      <c r="J105">
+        <v>9340.291812916319</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106">
-        <v>275.71151120078599</v>
+        <v>320.05628270811701</v>
       </c>
       <c r="C106">
-        <v>10749.964678603501</v>
-      </c>
-      <c r="E106">
-        <v>268.32647223437198</v>
+        <v>11755.961116001601</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>11755961.1160016</v>
       </c>
       <c r="F106">
-        <v>9364.2140636537606</v>
-      </c>
-      <c r="H106">
-        <v>279.65554264775102</v>
+        <v>292.68689256017001</v>
+      </c>
+      <c r="G106">
+        <v>9518.7716901629192</v>
       </c>
       <c r="I106">
-        <v>9096.0422059071698</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>307.59177938397801</v>
+      </c>
+      <c r="J106">
+        <v>9418.5430209861297</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107">
-        <v>278.303731172575</v>
+        <v>321.74884000797101</v>
       </c>
       <c r="C107">
-        <v>10839.7568591535</v>
-      </c>
-      <c r="E107">
-        <v>270.941565586016</v>
+        <v>11780.9352762378</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>11780935.276237801</v>
       </c>
       <c r="F107">
-        <v>9433.9802494916512</v>
-      </c>
-      <c r="H107">
-        <v>281.94209420875501</v>
+        <v>294.89022615614499</v>
+      </c>
+      <c r="G107">
+        <v>9591.2745317172084</v>
       </c>
       <c r="I107">
-        <v>9162.4152457816799</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>309.830951843045</v>
+      </c>
+      <c r="J107">
+        <v>9474.6392158609397</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108">
-        <v>280.896985260446</v>
+        <v>323.90307472136601</v>
       </c>
       <c r="C108">
-        <v>10922.930696777699</v>
-      </c>
-      <c r="E108">
-        <v>273.53574285031402</v>
+        <v>11872.417575015599</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>11872417.575015599</v>
       </c>
       <c r="F108">
-        <v>9511.2457579904913</v>
-      </c>
-      <c r="H108">
-        <v>283.77017815477802</v>
+        <v>297.09322749242898</v>
+      </c>
+      <c r="G108">
+        <v>9666.1465035410893</v>
       </c>
       <c r="I108">
-        <v>9214.4961730521791</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>311.42250885774598</v>
+      </c>
+      <c r="J108">
+        <v>9545.0728202873997</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109">
-        <v>283.453324177676</v>
+        <v>325.35170041451198</v>
       </c>
       <c r="C109">
-        <v>10989.634353781399</v>
-      </c>
-      <c r="E109">
-        <v>276.17912660674699</v>
+        <v>11918.076491096101</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>11918076.4910961</v>
       </c>
       <c r="F109">
-        <v>9576.8624440901294</v>
-      </c>
-      <c r="H109">
-        <v>286.28548483437498</v>
+        <v>299.27029888070001</v>
+      </c>
+      <c r="G109">
+        <v>9705.1661914610195</v>
       </c>
       <c r="I109">
-        <v>9291.0788781811498</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110">
-        <v>286.08399266464198</v>
-      </c>
-      <c r="C110">
-        <v>11086.083309923901</v>
-      </c>
-      <c r="E110">
-        <v>278.724744791045</v>
-      </c>
+        <v>313.40157286649298</v>
+      </c>
+      <c r="J109">
+        <v>9602.5214994782509</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F110">
-        <v>9661.6333373097095</v>
-      </c>
-      <c r="H110">
-        <v>288.93648300481101</v>
+        <v>301.098557837047</v>
+      </c>
+      <c r="G110">
+        <v>9803.1802816802501</v>
       </c>
       <c r="I110">
-        <v>9358.5087692068792</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111">
-        <v>288.67716354777099</v>
-      </c>
-      <c r="C111">
-        <v>11169.7896578985</v>
-      </c>
-      <c r="E111">
-        <v>281.357892901242</v>
-      </c>
+        <v>315.40345424670699</v>
+      </c>
+      <c r="J110">
+        <v>9676.6271061068492</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F111">
-        <v>9722.7721453361592</v>
-      </c>
-      <c r="H111">
-        <v>291.17802900023003</v>
+        <v>303.300076783934</v>
+      </c>
+      <c r="G111">
+        <v>9888.6222193222711</v>
       </c>
       <c r="I111">
-        <v>9418.0689439796006</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112">
-        <v>291.26969256574603</v>
-      </c>
-      <c r="C112">
-        <v>11257.6039428615</v>
-      </c>
-      <c r="E112">
-        <v>283.83657512577201</v>
-      </c>
+        <v>317.60817225806699</v>
+      </c>
+      <c r="J111">
+        <v>9739.2585715378791</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F112">
-        <v>9800.4646496001405</v>
-      </c>
-      <c r="H112">
-        <v>293.75794361880003</v>
+        <v>305.45813512857302</v>
+      </c>
+      <c r="G112">
+        <v>9965.1041103010502</v>
       </c>
       <c r="I112">
-        <v>9485.5244760413098</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113">
-        <v>293.86413529279201</v>
-      </c>
-      <c r="C113">
-        <v>11333.1704897663</v>
-      </c>
-      <c r="E113">
-        <v>286.50826553172999</v>
-      </c>
+        <v>319.81167411375799</v>
+      </c>
+      <c r="J112">
+        <v>9810.5616612248796</v>
+      </c>
+    </row>
+    <row r="113" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F113">
-        <v>9887.1005969277503</v>
-      </c>
-      <c r="H113">
-        <v>295.93174144047902</v>
+        <v>307.761551890654</v>
+      </c>
+      <c r="G113">
+        <v>10001.533766001399</v>
       </c>
       <c r="I113">
-        <v>9557.4608415365801</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114">
-        <v>296.51630428136701</v>
-      </c>
-      <c r="C114">
-        <v>11418.3798719775</v>
-      </c>
-      <c r="E114">
-        <v>289.143948094949</v>
-      </c>
+        <v>322.031523126021</v>
+      </c>
+      <c r="J113">
+        <v>9884.8723096605609</v>
+      </c>
+    </row>
+    <row r="114" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F114">
-        <v>9951.4594650525105</v>
-      </c>
-      <c r="H114">
-        <v>299.35936079716902</v>
+        <v>309.87206395954701</v>
+      </c>
+      <c r="G114">
+        <v>10090.2166799603</v>
       </c>
       <c r="I114">
-        <v>9650.0908981166613</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115">
-        <v>299.05045328626602</v>
-      </c>
-      <c r="C115">
-        <v>11500.735331529801</v>
-      </c>
-      <c r="E115">
-        <v>291.90096438095497</v>
-      </c>
+        <v>324.218396682324</v>
+      </c>
+      <c r="J114">
+        <v>9955.1724892885395</v>
+      </c>
+    </row>
+    <row r="115" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F115">
-        <v>10033.5682216278</v>
-      </c>
-      <c r="H115">
-        <v>301.89710444503999</v>
+        <v>311.26141778920902</v>
+      </c>
+      <c r="G115">
+        <v>10155.650866287</v>
       </c>
       <c r="I115">
-        <v>9709.4406426518708</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116">
-        <v>301.64406396588998</v>
-      </c>
-      <c r="C116">
-        <v>11581.6269819382</v>
-      </c>
-      <c r="E116">
-        <v>294.29325780771302</v>
-      </c>
+        <v>326.53206900359902</v>
+      </c>
+      <c r="J115">
+        <v>10013.518071509001</v>
+      </c>
+    </row>
+    <row r="116" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F116">
-        <v>10103.150030635201</v>
-      </c>
-      <c r="H116">
-        <v>304.53141115841402</v>
+        <v>313.31627158012901</v>
+      </c>
+      <c r="G116">
+        <v>10210.750135996201</v>
       </c>
       <c r="I116">
-        <v>9782.6049497842596</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117">
-        <v>304.23658109747299</v>
-      </c>
-      <c r="C117">
-        <v>11669.517339808399</v>
-      </c>
-      <c r="E117">
-        <v>296.88693980568701</v>
-      </c>
+        <v>328.625702835222</v>
+      </c>
+      <c r="J116">
+        <v>10095.6221526479</v>
+      </c>
+    </row>
+    <row r="117" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F117">
-        <v>10183.585243600399</v>
-      </c>
-      <c r="H117">
-        <v>307.12600840855299</v>
+        <v>315.51931764367902</v>
+      </c>
+      <c r="G117">
+        <v>10285.303186437699</v>
       </c>
       <c r="I117">
-        <v>9857.1825488956092</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118">
-        <v>306.81197276863799</v>
-      </c>
-      <c r="C118">
-        <v>11740.6470079836</v>
-      </c>
-      <c r="E118">
-        <v>299.481216123249</v>
-      </c>
+        <v>330.720135368027</v>
+      </c>
+      <c r="J117">
+        <v>10172.0312091003</v>
+      </c>
+    </row>
+    <row r="118" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F118">
-        <v>10260.216811206001</v>
-      </c>
-      <c r="H118">
-        <v>309.72135450137199</v>
+        <v>317.75795624073203</v>
+      </c>
+      <c r="G118">
+        <v>10345.206008130701</v>
       </c>
       <c r="I118">
-        <v>9926.9675548537689</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119">
-        <v>309.42306550043202</v>
-      </c>
-      <c r="C119">
-        <v>11836.017160871099</v>
-      </c>
-      <c r="E119">
-        <v>302.07592035091301</v>
-      </c>
+        <v>333.03243392326698</v>
+      </c>
+      <c r="J118">
+        <v>10240.172233781599</v>
+      </c>
+    </row>
+    <row r="119" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F119">
-        <v>10334.1097541526</v>
-      </c>
-      <c r="H119">
-        <v>312.316843230892</v>
+        <v>319.970974032409</v>
+      </c>
+      <c r="G119">
+        <v>10416.982003335499</v>
       </c>
       <c r="I119">
-        <v>9995.83968592561</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120">
-        <v>312.01612940603502</v>
-      </c>
-      <c r="C120">
-        <v>11920.4081650104</v>
-      </c>
-      <c r="E120">
-        <v>304.67093362476299</v>
-      </c>
+        <v>335.03495071464499</v>
+      </c>
+      <c r="J119">
+        <v>10309.747131881799</v>
+      </c>
+    </row>
+    <row r="120" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F120">
-        <v>10406.0248015122</v>
-      </c>
-      <c r="H120">
-        <v>314.87713905422999</v>
+        <v>322.21423694993501</v>
+      </c>
+      <c r="G120">
+        <v>10495.155464248701</v>
       </c>
       <c r="I120">
-        <v>10073.323039937901</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121">
-        <v>313.432583165192</v>
-      </c>
-      <c r="C121">
-        <v>11953.285924588099</v>
-      </c>
-      <c r="E121">
-        <v>307.265585552304</v>
-      </c>
+        <v>341.70761886518301</v>
+      </c>
+      <c r="J120">
+        <v>10558.689473426799</v>
+      </c>
+    </row>
+    <row r="121" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F121">
-        <v>10480.2524652504</v>
-      </c>
-      <c r="H121">
-        <v>317.299480761361</v>
+        <v>324.331898053663</v>
+      </c>
+      <c r="G121">
+        <v>10580.690655958901</v>
       </c>
       <c r="I121">
-        <v>10140.1413091021</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E122">
-        <v>309.86116937295799</v>
-      </c>
+        <v>343.69744619643001</v>
+      </c>
+      <c r="J121">
+        <v>10599.1761308362</v>
+      </c>
+    </row>
+    <row r="122" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F122">
-        <v>10548.5160130647</v>
-      </c>
-      <c r="H122">
-        <v>320.101633438215</v>
+        <v>326.53390900047901</v>
+      </c>
+      <c r="G122">
+        <v>10662.624458393999</v>
       </c>
       <c r="I122">
-        <v>10213.182359055301</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E123">
-        <v>312.21826145985699</v>
-      </c>
+        <v>345.77332245295997</v>
+      </c>
+      <c r="J122">
+        <v>10669.934268168801</v>
+      </c>
+    </row>
+    <row r="123" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F123">
-        <v>10626.7630205516</v>
-      </c>
-      <c r="H123">
-        <v>322.71683574845099</v>
+        <v>328.73714675231201</v>
+      </c>
+      <c r="G123">
+        <v>10735.8107029107</v>
       </c>
       <c r="I123">
-        <v>10282.251209910599</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E124">
-        <v>314.57599461948303</v>
-      </c>
+        <v>348.05489868925298</v>
+      </c>
+      <c r="J123">
+        <v>10736.394325275302</v>
+      </c>
+    </row>
+    <row r="124" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F124">
-        <v>10700.907162577099</v>
-      </c>
-      <c r="H124">
-        <v>325.272834318663</v>
+        <v>330.94146115334098</v>
+      </c>
+      <c r="G124">
+        <v>10801.320054150001</v>
       </c>
       <c r="I124">
-        <v>10351.133087823699</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E125">
-        <v>316.69924889120898</v>
-      </c>
+        <v>350.25900436303903</v>
+      </c>
+      <c r="J124">
+        <v>10803.391976299301</v>
+      </c>
+    </row>
+    <row r="125" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F125">
-        <v>10759.352550806801</v>
-      </c>
-      <c r="H125">
-        <v>327.86756984715998</v>
+        <v>333.27683550731899</v>
+      </c>
+      <c r="G125">
+        <v>10854.7116569232</v>
       </c>
       <c r="I125">
-        <v>10424.825705448</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E126">
-        <v>318.93959006485699</v>
-      </c>
+        <v>352.46085663455301</v>
+      </c>
+      <c r="J125">
+        <v>10886.4571903055</v>
+      </c>
+    </row>
+    <row r="126" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F126">
-        <v>10826.623584909999</v>
-      </c>
-      <c r="H126">
-        <v>330.42312822466403</v>
+        <v>335.34628494296101</v>
+      </c>
+      <c r="G126">
+        <v>10959.469854235</v>
       </c>
       <c r="I126">
-        <v>10496.524816690799</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E127">
-        <v>322.39867291571602</v>
-      </c>
+        <v>354.63316822017299</v>
+      </c>
+      <c r="J126">
+        <v>10941.0207982299</v>
+      </c>
+    </row>
+    <row r="127" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F127">
-        <v>10928.4933394162</v>
-      </c>
-      <c r="H127">
-        <v>333.075796441693</v>
+        <v>337.68224303340298</v>
+      </c>
+      <c r="G127">
+        <v>11008.6992075374</v>
       </c>
       <c r="I127">
-        <v>10578.5391367999</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E128">
-        <v>325.00057033473001</v>
-      </c>
+        <v>357.01011165974103</v>
+      </c>
+      <c r="J127">
+        <v>11008.100030874801</v>
+      </c>
+    </row>
+    <row r="128" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F128">
-        <v>11006.8953122721</v>
-      </c>
-      <c r="H128">
-        <v>335.66985880420299</v>
+        <v>339.85547102811398</v>
+      </c>
+      <c r="G128">
+        <v>11090.890955176799</v>
       </c>
       <c r="I128">
-        <v>10656.540016735</v>
-      </c>
-    </row>
-    <row r="129" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E129">
-        <v>327.33770421896998</v>
-      </c>
+        <v>359.15716195359499</v>
+      </c>
+      <c r="J128">
+        <v>11086.426701943899</v>
+      </c>
+    </row>
+    <row r="129" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F129">
-        <v>11078.086937981301</v>
-      </c>
-      <c r="H129">
-        <v>338.264776986919</v>
+        <v>341.95601949715899</v>
+      </c>
+      <c r="G129">
+        <v>11178.876720460001</v>
       </c>
       <c r="I129">
-        <v>10729.063647352101</v>
-      </c>
-    </row>
-    <row r="130" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E130">
-        <v>330.223276376993</v>
-      </c>
+        <v>361.27525321496103</v>
+      </c>
+      <c r="J129">
+        <v>11168.8947160729</v>
+      </c>
+    </row>
+    <row r="130" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F130">
-        <v>11143.758459968201</v>
-      </c>
-      <c r="H130">
-        <v>340.93922850262601</v>
+        <v>344.158788677632</v>
+      </c>
+      <c r="G130">
+        <v>11255.404046126101</v>
       </c>
       <c r="I130">
-        <v>10798.0284922796</v>
-      </c>
-    </row>
-    <row r="131" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E131">
-        <v>332.73867459890897</v>
-      </c>
+        <v>363.47896866616901</v>
+      </c>
+      <c r="J130">
+        <v>11238.674793443699</v>
+      </c>
+    </row>
+    <row r="131" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F131">
-        <v>11219.755294254399</v>
-      </c>
-      <c r="H131">
-        <v>343.45380210611398</v>
+        <v>346.36298522586299</v>
+      </c>
+      <c r="G131">
+        <v>11321.7537298969</v>
       </c>
       <c r="I131">
-        <v>10879.3028845023</v>
-      </c>
-    </row>
-    <row r="132" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E132">
-        <v>335.33345014492397</v>
-      </c>
+        <v>365.75033334692398</v>
+      </c>
+      <c r="J131">
+        <v>11304.366197207701</v>
+      </c>
+    </row>
+    <row r="132" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F132">
-        <v>11293.191799757898</v>
-      </c>
-      <c r="H132">
-        <v>346.04939365292302</v>
+        <v>348.56510444106198</v>
+      </c>
+      <c r="G132">
+        <v>11402.915540096799</v>
       </c>
       <c r="I132">
-        <v>10947.516984926899</v>
-      </c>
-    </row>
-    <row r="133" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E133">
-        <v>337.870914264482</v>
-      </c>
+        <v>367.88589144249801</v>
+      </c>
+      <c r="J132">
+        <v>11381.8580686526</v>
+      </c>
+    </row>
+    <row r="133" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F133">
-        <v>11354.3305254939</v>
-      </c>
-      <c r="H133">
-        <v>348.64530553798897</v>
+        <v>350.73752003532502</v>
+      </c>
+      <c r="G133">
+        <v>11456.737529251001</v>
       </c>
       <c r="I133">
-        <v>11013.6809205026</v>
-      </c>
-    </row>
-    <row r="134" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E134">
-        <v>340.52314387365499</v>
-      </c>
+        <v>370.12306220426598</v>
+      </c>
+      <c r="J133">
+        <v>11452.2270801584</v>
+      </c>
+    </row>
+    <row r="134" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F134">
-        <v>11439.151935878399</v>
-      </c>
-      <c r="H134">
-        <v>351.24015240235502</v>
+        <v>353.04751914922298</v>
+      </c>
+      <c r="G134">
+        <v>11520.251337265699</v>
       </c>
       <c r="I134">
-        <v>11086.660988562899</v>
-      </c>
-    </row>
-    <row r="135" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E135">
-        <v>343.02010986788503</v>
-      </c>
+        <v>372.29396434853101</v>
+      </c>
+      <c r="J134">
+        <v>11516.840508313</v>
+      </c>
+    </row>
+    <row r="135" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F135">
-        <v>11506.751390985701</v>
-      </c>
-      <c r="H135">
-        <v>353.81641786481902</v>
+        <v>355.109554681882</v>
+      </c>
+      <c r="G135">
+        <v>11609.548383023601</v>
       </c>
       <c r="I135">
-        <v>11152.1983924296</v>
-      </c>
-    </row>
-    <row r="136" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E136">
-        <v>345.71269496568499</v>
-      </c>
+        <v>374.49655249006901</v>
+      </c>
+      <c r="J135">
+        <v>11594.6587062414</v>
+      </c>
+    </row>
+    <row r="136" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F136">
-        <v>11586.0249468853</v>
-      </c>
-      <c r="H136">
-        <v>356.43013140448801</v>
+        <v>357.46158209679697</v>
+      </c>
+      <c r="G136">
+        <v>11697.928800998699</v>
       </c>
       <c r="I136">
-        <v>11230.7953749109</v>
-      </c>
-    </row>
-    <row r="137" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E137">
-        <v>348.30675732819498</v>
-      </c>
+        <v>376.69992868344099</v>
+      </c>
+      <c r="J136">
+        <v>11666.8578131457</v>
+      </c>
+    </row>
+    <row r="137" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F137">
-        <v>11664.0258268204</v>
-      </c>
-      <c r="H137">
-        <v>359.02512090555399</v>
+        <v>359.64978859663</v>
+      </c>
+      <c r="G137">
+        <v>11758.7246172054</v>
       </c>
       <c r="I137">
-        <v>11302.8625680848</v>
-      </c>
-    </row>
-    <row r="138" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E138">
-        <v>350.90160419256102</v>
-      </c>
+        <v>378.90342201965302</v>
+      </c>
+      <c r="J137">
+        <v>11738.2216497627</v>
+      </c>
+    </row>
+    <row r="138" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F138">
-        <v>11737.0058948806</v>
-      </c>
-      <c r="H138">
-        <v>361.62025304332201</v>
+        <v>361.83568738251103</v>
+      </c>
+      <c r="G138">
+        <v>11835.975258073</v>
       </c>
       <c r="I138">
-        <v>11374.016886372499</v>
-      </c>
-    </row>
-    <row r="139" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E139">
-        <v>353.49690749437002</v>
-      </c>
+        <v>381.02547187228299</v>
+      </c>
+      <c r="J138">
+        <v>11816.3772190708</v>
+      </c>
+    </row>
+    <row r="139" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F139">
-        <v>11807.064763304699</v>
-      </c>
-      <c r="H139">
-        <v>364.21524254438901</v>
+        <v>364.03844804350399</v>
+      </c>
+      <c r="G139">
+        <v>11912.5633306691</v>
       </c>
       <c r="I139">
-        <v>11446.084079546401</v>
-      </c>
-    </row>
-    <row r="140" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E140">
-        <v>356.09129792129198</v>
-      </c>
+        <v>383.708733903481</v>
+      </c>
+      <c r="J139">
+        <v>11910.3952677173</v>
+      </c>
+    </row>
+    <row r="140" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F140">
-        <v>11882.966031001199</v>
-      </c>
-      <c r="H140">
-        <v>366.81062939055101</v>
+        <v>365.83581080394902</v>
+      </c>
+      <c r="G140">
+        <v>11938.395084075699</v>
       </c>
       <c r="I140">
-        <v>11515.608264108501</v>
-      </c>
-    </row>
-    <row r="141" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E141">
-        <v>358.68574540289501</v>
-      </c>
-      <c r="F141">
-        <v>11958.5021487432</v>
-      </c>
-      <c r="H141">
+        <v>385.41536968632499</v>
+      </c>
+      <c r="J140">
+        <v>11937.4722076786</v>
+      </c>
+    </row>
+    <row r="141" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="I141">
         <v>369.48367173206498</v>
       </c>
-      <c r="I141">
-        <v>11593.591823872699</v>
-      </c>
-    </row>
-    <row r="142" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H142">
+      <c r="J141">
+        <v>11593591.823872698</v>
+      </c>
+    </row>
+    <row r="142" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="I142">
         <v>372.00063895769102</v>
       </c>
-      <c r="I142">
-        <v>11659.547034409301</v>
-      </c>
-    </row>
-    <row r="143" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H143">
+      <c r="J142">
+        <v>11659547.034409301</v>
+      </c>
+    </row>
+    <row r="143" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="I143">
         <v>374.59520054865499</v>
       </c>
-      <c r="I143">
-        <v>11734.352852242298</v>
-      </c>
-    </row>
-    <row r="144" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H144">
+      <c r="J143">
+        <v>11734352.852242298</v>
+      </c>
+    </row>
+    <row r="144" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="I144">
         <v>377.37317444714603</v>
       </c>
-      <c r="I144">
-        <v>11814.713841294599</v>
-      </c>
-    </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H145">
+      <c r="J144">
+        <v>11814713.841294598</v>
+      </c>
+    </row>
+    <row r="145" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I145">
         <v>379.281987237473</v>
       </c>
-      <c r="I145">
-        <v>11875.8877407736</v>
-      </c>
-    </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H146">
+      <c r="J145">
+        <v>11875887.7407736</v>
+      </c>
+    </row>
+    <row r="146" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I146">
         <v>381.434535269874</v>
       </c>
-      <c r="I146">
-        <v>11937.156090984701</v>
-      </c>
-    </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H147">
+      <c r="J146">
+        <v>11937156.090984702</v>
+      </c>
+    </row>
+    <row r="147" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I147">
         <v>383.56368688996298</v>
       </c>
-      <c r="I147">
-        <v>11957.858449688301</v>
+      <c r="J147">
+        <v>11957858.4496883</v>
       </c>
     </row>
   </sheetData>

--- a/MAE 159/Other data/159 Digitized Plots.xlsx
+++ b/MAE 159/Other data/159 Digitized Plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy Slagle\Documents\MAE136-MAE158-MAE159_Aircraft_Design_and_Analysis_Course_Series\MAE 159\Other data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3223F2-9121-489D-A29B-BF452203D264}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60630B69-B0AD-4CD6-B05B-F003EB9EC074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="6495" windowWidth="28800" windowHeight="15435" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5970" yWindow="2430" windowWidth="28800" windowHeight="15435" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1a" sheetId="6" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="Figure 3" sheetId="3" r:id="rId4"/>
     <sheet name="Figure 4" sheetId="4" r:id="rId5"/>
     <sheet name="Figure 5" sheetId="5" r:id="rId6"/>
-    <sheet name="Shevel_3" sheetId="7" r:id="rId7"/>
-    <sheet name="Shevel_1" sheetId="8" r:id="rId8"/>
-    <sheet name="Shevel_2" sheetId="9" r:id="rId9"/>
-    <sheet name="JT9D_Thrust" sheetId="10" r:id="rId10"/>
+    <sheet name="Figure 6" sheetId="11" r:id="rId7"/>
+    <sheet name="Shevel_3" sheetId="7" r:id="rId8"/>
+    <sheet name="Shevel_1" sheetId="8" r:id="rId9"/>
+    <sheet name="Shevel_2" sheetId="9" r:id="rId10"/>
+    <sheet name="JT9D_Thrust" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>Range</t>
   </si>
@@ -202,6 +203,18 @@
   </si>
   <si>
     <t>25, T</t>
+  </si>
+  <si>
+    <t>to, cd</t>
+  </si>
+  <si>
+    <t>to, cl</t>
+  </si>
+  <si>
+    <t>l, cd</t>
+  </si>
+  <si>
+    <t>l, cl</t>
   </si>
 </sst>
 </file>
@@ -18827,6 +18840,669 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596094CB-5E7C-4458-92EE-C2DA16EDDB8D}">
+  <dimension ref="A1:B81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4.0465455966455597</v>
+      </c>
+      <c r="B2">
+        <v>1.3971791027042799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4.0543895497041298</v>
+      </c>
+      <c r="B3">
+        <v>1.3907254301576699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4.0959568161710198</v>
+      </c>
+      <c r="B4">
+        <v>1.38546817295806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4.1513567102403002</v>
+      </c>
+      <c r="B5">
+        <v>1.37970492324917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4.1887808578635397</v>
+      </c>
+      <c r="B6">
+        <v>1.37440870669709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4.2253637958448804</v>
+      </c>
+      <c r="B7">
+        <v>1.3695735934192801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4.2620241853533498</v>
+      </c>
+      <c r="B8">
+        <v>1.36488312691928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4.2987878435646696</v>
+      </c>
+      <c r="B9">
+        <v>1.3603855227897099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4.3355773189516897</v>
+      </c>
+      <c r="B10">
+        <v>1.3559361342527501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4.3722358643761901</v>
+      </c>
+      <c r="B11">
+        <v>1.35124222378185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4.3967685433905999</v>
+      </c>
+      <c r="B12">
+        <v>1.3476782080568099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4.44748177486332</v>
+      </c>
+      <c r="B13">
+        <v>1.3436277090033399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4.4872360147985999</v>
+      </c>
+      <c r="B14">
+        <v>1.33841565308246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4.51990826535451</v>
+      </c>
+      <c r="B15">
+        <v>1.3344055375152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4.5578610503851396</v>
+      </c>
+      <c r="B16">
+        <v>1.33009659262123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4.6066711592505696</v>
+      </c>
+      <c r="B17">
+        <v>1.3251890514898901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4.65440201237897</v>
+      </c>
+      <c r="B18">
+        <v>1.3203904134073601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4.70081742172954</v>
+      </c>
+      <c r="B19">
+        <v>1.3156290565734099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4.7474290416155096</v>
+      </c>
+      <c r="B20">
+        <v>1.31123413824325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4.7939787002797702</v>
+      </c>
+      <c r="B21">
+        <v>1.3067235024908499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4.8408484919228396</v>
+      </c>
+      <c r="B22">
+        <v>1.3028107400867499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4.9003374178526702</v>
+      </c>
+      <c r="B23">
+        <v>1.29747002243305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4.9629700998502004</v>
+      </c>
+      <c r="B24">
+        <v>1.2938268365648</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5.0157660634112498</v>
+      </c>
+      <c r="B25">
+        <v>1.2883199425843199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5.0783802662936699</v>
+      </c>
+      <c r="B26">
+        <v>1.2819716837888899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5.1661822485718503</v>
+      </c>
+      <c r="B27">
+        <v>1.27680846732852</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5.2223169844946096</v>
+      </c>
+      <c r="B28">
+        <v>1.2724901681905101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5.2862296847862797</v>
+      </c>
+      <c r="B29">
+        <v>1.26752284334673</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5.3654502752069897</v>
+      </c>
+      <c r="B30">
+        <v>1.26227214688423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5.4471003205374497</v>
+      </c>
+      <c r="B31">
+        <v>1.2572120046486399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5.5240129141250698</v>
+      </c>
+      <c r="B32">
+        <v>1.2527101507699101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5.5626644533101999</v>
+      </c>
+      <c r="B33">
+        <v>1.24781920784962</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5.66157500174796</v>
+      </c>
+      <c r="B34">
+        <v>1.2452567175346401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5.7136494577803303</v>
+      </c>
+      <c r="B35">
+        <v>1.24108817140108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5.80422931213654</v>
+      </c>
+      <c r="B36">
+        <v>1.2365061819624199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5.8851306593714003</v>
+      </c>
+      <c r="B37">
+        <v>1.2321379763412601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5.9709103770998198</v>
+      </c>
+      <c r="B38">
+        <v>1.2277359327395401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>6.0548488999138499</v>
+      </c>
+      <c r="B39">
+        <v>1.2235531441918299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>6.1026027454165899</v>
+      </c>
+      <c r="B40">
+        <v>1.22024632703739</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>6.1903470477674496</v>
+      </c>
+      <c r="B41">
+        <v>1.2169005627012399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>6.2811164367025096</v>
+      </c>
+      <c r="B42">
+        <v>1.21267254389598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>6.3768077984723401</v>
+      </c>
+      <c r="B43">
+        <v>1.20849211788877</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>6.4724681796313197</v>
+      </c>
+      <c r="B44">
+        <v>1.20425383317044</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>6.56813888766058</v>
+      </c>
+      <c r="B45">
+        <v>1.2000348346891501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>6.67859241270917</v>
+      </c>
+      <c r="B46">
+        <v>1.19599017389903</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>6.75531848279042</v>
+      </c>
+      <c r="B47">
+        <v>1.192968888</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>6.8605939178174697</v>
+      </c>
+      <c r="B48">
+        <v>1.18839831555637</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>6.9661374658907</v>
+      </c>
+      <c r="B49">
+        <v>1.1843284651728301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>7.0683889178465797</v>
+      </c>
+      <c r="B50">
+        <v>1.1811446573258899</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>7.1964876956409398</v>
+      </c>
+      <c r="B51">
+        <v>1.1755858673430899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>7.30212512435312</v>
+      </c>
+      <c r="B52">
+        <v>1.1716913463872101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>7.4077813291930896</v>
+      </c>
+      <c r="B53">
+        <v>1.1678318913168599</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>7.5134656982247501</v>
+      </c>
+      <c r="B54">
+        <v>1.1640250350748</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>7.6192627240231303</v>
+      </c>
+      <c r="B55">
+        <v>1.1604285741459399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>7.7250221975659503</v>
+      </c>
+      <c r="B56">
+        <v>1.1567619814460099</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>7.8308192233643403</v>
+      </c>
+      <c r="B57">
+        <v>1.1531655205171401</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>7.9331539007741103</v>
+      </c>
+      <c r="B58">
+        <v>1.14919923747657</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>8.0555112940146003</v>
+      </c>
+      <c r="B59">
+        <v>1.14561318052453</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>8.1469655154753902</v>
+      </c>
+      <c r="B60">
+        <v>1.1432789013753599</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>8.2543546849219993</v>
+      </c>
+      <c r="B61">
+        <v>1.1394283956840101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>8.3602737555510203</v>
+      </c>
+      <c r="B62">
+        <v>1.1360598630111001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>8.4663148710106704</v>
+      </c>
+      <c r="B63">
+        <v>1.1329192585941401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>8.5723090461508509</v>
+      </c>
+      <c r="B64">
+        <v>1.12969098946335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>8.6783877138660799</v>
+      </c>
+      <c r="B65">
+        <v>1.1266205168174599</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>8.7844476054535097</v>
+      </c>
+      <c r="B66">
+        <v>1.1235149782860301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>8.8904981089770594</v>
+      </c>
+      <c r="B67">
+        <v>1.12039190681184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>9.0007393562100599</v>
+      </c>
+      <c r="B68">
+        <v>1.1174748966169099</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>9.1016620698966708</v>
+      </c>
+      <c r="B69">
+        <v>1.11405840719547</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>9.2088937092089491</v>
+      </c>
+      <c r="B70">
+        <v>1.11147854890117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>9.3150287053075491</v>
+      </c>
+      <c r="B71">
+        <v>1.1085132739118699</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>9.4211918655978302</v>
+      </c>
+      <c r="B72">
+        <v>1.1056005977508601</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>9.5198648503826302</v>
+      </c>
+      <c r="B73">
+        <v>1.1029243296634199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>9.6181313099348404</v>
+      </c>
+      <c r="B74">
+        <v>1.0991762088674</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>9.7301530483696297</v>
+      </c>
+      <c r="B75">
+        <v>1.0973568801696001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>9.8427682590989996</v>
+      </c>
+      <c r="B76">
+        <v>1.0949428689016301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>9.9425263092696596</v>
+      </c>
+      <c r="B77">
+        <v>1.09161919256142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>10.046718772450999</v>
+      </c>
+      <c r="B78">
+        <v>1.08894518958888</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>10.1839726437893</v>
+      </c>
+      <c r="B79">
+        <v>1.0853102852718099</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>10.290257848910199</v>
+      </c>
+      <c r="B80">
+        <v>1.0826255373667499</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>10.358126314235699</v>
+      </c>
+      <c r="B81">
+        <v>1.0813511345859499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C2F5D8-F9D3-4BC8-847A-B054563BDAE4}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -29333,7 +30009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB30471-B599-4A7E-AA66-1ED16431E92A}">
   <dimension ref="B1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
@@ -29400,7 +30076,7 @@
         <v>3037.7469948995199</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="C3:D66" si="0">C3*1000</f>
+        <f t="shared" ref="D3:D66" si="0">C3*1000</f>
         <v>3037746.9948995197</v>
       </c>
       <c r="F3">
@@ -30936,7 +31612,7 @@
         <v>8774.0720439686902</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="C67:D109" si="1">C67*1000</f>
+        <f t="shared" ref="D67:D109" si="1">C67*1000</f>
         <v>8774072.0439686906</v>
       </c>
       <c r="F67">
@@ -32457,6 +33133,1871 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0737387E-079F-42FD-BAAB-95AC0AD4E1E7}">
+  <dimension ref="A1:E137"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.07094584094958E-2</v>
+      </c>
+      <c r="B2">
+        <v>0.57188338731219601</v>
+      </c>
+      <c r="D2">
+        <v>1.9183464122369199E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.54066713068513095</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.0725883419809901E-2</v>
+      </c>
+      <c r="B3">
+        <v>0.58572154440674196</v>
+      </c>
+      <c r="D3">
+        <v>1.9209917484784299E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.47071712306292701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.07645110985089E-2</v>
+      </c>
+      <c r="B4">
+        <v>0.54869230259634405</v>
+      </c>
+      <c r="D4">
+        <v>1.9127280642343199E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.51905451755641396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.0864137133995901E-2</v>
+      </c>
+      <c r="B5">
+        <v>0.53573298158621696</v>
+      </c>
+      <c r="D5">
+        <v>1.9126019356786199E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.494499228201291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.09493233902948E-2</v>
+      </c>
+      <c r="B6">
+        <v>0.59731637678621996</v>
+      </c>
+      <c r="D6">
+        <v>1.9170099669969999E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.48260898414849202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.09303410426623E-2</v>
+      </c>
+      <c r="B7">
+        <v>0.51721498108253805</v>
+      </c>
+      <c r="D7">
+        <v>1.9164323628932101E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.52986421988957999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.1111503985502799E-2</v>
+      </c>
+      <c r="B8">
+        <v>0.49979129133249001</v>
+      </c>
+      <c r="D8">
+        <v>1.9424187262456798E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.44980686811584403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.1174385979658299E-2</v>
+      </c>
+      <c r="B9">
+        <v>0.61307324937464303</v>
+      </c>
+      <c r="D9">
+        <v>1.93531865877953E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.55406731950840604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.13743213204772E-2</v>
+      </c>
+      <c r="B10">
+        <v>0.48391689684526301</v>
+      </c>
+      <c r="D10">
+        <v>1.93260786505168E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.46197649500467902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.14582211401403E-2</v>
+      </c>
+      <c r="B11">
+        <v>0.62483439512887695</v>
+      </c>
+      <c r="D11">
+        <v>1.9530416612944499E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.56881981262044401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.1601258717229199E-2</v>
+      </c>
+      <c r="B12">
+        <v>0.46864211966786901</v>
+      </c>
+      <c r="D12">
+        <v>1.96364935003428E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.433336095774424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.17404081846425E-2</v>
+      </c>
+      <c r="B13">
+        <v>0.63398341351911602</v>
+      </c>
+      <c r="D13">
+        <v>1.9746175138783E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.58222864583137701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.1869246538971499E-2</v>
+      </c>
+      <c r="B14">
+        <v>0.455803116675703</v>
+      </c>
+      <c r="D14">
+        <v>1.9812811981021701E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.42067198026594099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.19436367299135E-2</v>
+      </c>
+      <c r="B15">
+        <v>0.64349218521275497</v>
+      </c>
+      <c r="D15">
+        <v>2.0006537979346001E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.59287339423752505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.21456278387877E-2</v>
+      </c>
+      <c r="B16">
+        <v>0.44404333482641201</v>
+      </c>
+      <c r="D16">
+        <v>2.0036143610311301E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.40699754268566102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1.2206985923172599E-2</v>
+      </c>
+      <c r="B17">
+        <v>0.647589031428774</v>
+      </c>
+      <c r="D17">
+        <v>2.02868516043185E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.60527749398701503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1.2423716078391199E-2</v>
+      </c>
+      <c r="B18">
+        <v>0.43575574275287199</v>
+      </c>
+      <c r="D18">
+        <v>2.0283157839473001E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.394865253083378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1.2473425664838901E-2</v>
+      </c>
+      <c r="B19">
+        <v>0.65680446135468695</v>
+      </c>
+      <c r="D19">
+        <v>2.0538020599666799E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.38129569624825899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1.2715444312776899E-2</v>
+      </c>
+      <c r="B20">
+        <v>0.42049848882054602</v>
+      </c>
+      <c r="D20">
+        <v>2.05604203255445E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.61652812072947605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.27539870825554E-2</v>
+      </c>
+      <c r="B21">
+        <v>0.66315736266127301</v>
+      </c>
+      <c r="D21">
+        <v>2.0820689687290301E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.37040522312846302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1.2991682666896801E-2</v>
+      </c>
+      <c r="B22">
+        <v>0.40990818145040198</v>
+      </c>
+      <c r="D22">
+        <v>2.0840573898197001E-2</v>
+      </c>
+      <c r="E22">
+        <v>0.62621770446607605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1.3034472293927801E-2</v>
+      </c>
+      <c r="B23">
+        <v>0.67013372712087305</v>
+      </c>
+      <c r="D23">
+        <v>2.1103228236268801E-2</v>
+      </c>
+      <c r="E23">
+        <v>0.36058271929855001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1.3182057874802099E-2</v>
+      </c>
+      <c r="B24">
+        <v>0.67632072086573403</v>
+      </c>
+      <c r="D24">
+        <v>2.11209003463525E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.63449295049445298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1.3272130245506599E-2</v>
+      </c>
+      <c r="B25">
+        <v>0.39975533803943603</v>
+      </c>
+      <c r="D25">
+        <v>2.1385667999245499E-2</v>
+      </c>
+      <c r="E25">
+        <v>0.351568408444766</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1.3417177496547601E-2</v>
+      </c>
+      <c r="B26">
+        <v>0.67780315182370698</v>
+      </c>
+      <c r="D26">
+        <v>2.1403676628547998E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.64016258269119997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1.35546772618566E-2</v>
+      </c>
+      <c r="B27">
+        <v>0.38986356052585502</v>
+      </c>
+      <c r="D27">
+        <v>2.1668032496697201E-2</v>
+      </c>
+      <c r="E27">
+        <v>0.34316986366802998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1.36976468315983E-2</v>
+      </c>
+      <c r="B28">
+        <v>0.684909404440184</v>
+      </c>
+      <c r="D28">
+        <v>2.1681916634026601E-2</v>
+      </c>
+      <c r="E28">
+        <v>0.64807044696044902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1.3826365658182301E-2</v>
+      </c>
+      <c r="B29">
+        <v>0.38511083172299698</v>
+      </c>
+      <c r="D29">
+        <v>2.19205642936595E-2</v>
+      </c>
+      <c r="E29">
+        <v>0.33970285301722303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.3978432517059099E-2</v>
+      </c>
+      <c r="B30">
+        <v>0.68942751526406199</v>
+      </c>
+      <c r="D30">
+        <v>2.1943087712043501E-2</v>
+      </c>
+      <c r="E30">
+        <v>0.65612674675239602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1.4119481287080401E-2</v>
+      </c>
+      <c r="B31">
+        <v>0.37245262916432598</v>
+      </c>
+      <c r="D31">
+        <v>2.2181385714591498E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.328200667952525</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1.4259164693435701E-2</v>
+      </c>
+      <c r="B32">
+        <v>0.69438339728334197</v>
+      </c>
+      <c r="D32">
+        <v>2.2217516694700699E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.66033935966107804</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1.44018751851278E-2</v>
+      </c>
+      <c r="B33">
+        <v>0.363813550763743</v>
+      </c>
+      <c r="D33">
+        <v>2.2463684354708701E-2</v>
+      </c>
+      <c r="E33">
+        <v>0.320340918493208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1.45398357165731E-2</v>
+      </c>
+      <c r="B34">
+        <v>0.69983958924022505</v>
+      </c>
+      <c r="D34">
+        <v>2.2498093635931801E-2</v>
+      </c>
+      <c r="E34">
+        <v>0.66656525921427301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.46926814756326E-2</v>
+      </c>
+      <c r="B35">
+        <v>0.35609895020802701</v>
+      </c>
+      <c r="D35">
+        <v>2.2754304539442501E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.314148895776447</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1.48206878473803E-2</v>
+      </c>
+      <c r="B36">
+        <v>0.70381409407420803</v>
+      </c>
+      <c r="D36">
+        <v>2.2795441852993301E-2</v>
+      </c>
+      <c r="E36">
+        <v>0.67507788565260496</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1.4972168672474801E-2</v>
+      </c>
+      <c r="B37">
+        <v>0.34977928607702902</v>
+      </c>
+      <c r="D37">
+        <v>2.2736258453781098E-2</v>
+      </c>
+      <c r="E37">
+        <v>0.67103352500315905</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.51015940752836E-2</v>
+      </c>
+      <c r="B38">
+        <v>0.70734601704031097</v>
+      </c>
+      <c r="D38">
+        <v>2.3028133455940802E-2</v>
+      </c>
+      <c r="E38">
+        <v>0.305833709038766</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1.52487746335511E-2</v>
+      </c>
+      <c r="B39">
+        <v>0.34020543835093098</v>
+      </c>
+      <c r="D39">
+        <v>2.30594309781114E-2</v>
+      </c>
+      <c r="E39">
+        <v>0.67751612850785503</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1.53824038692329E-2</v>
+      </c>
+      <c r="B40">
+        <v>0.71166689029263297</v>
+      </c>
+      <c r="D40">
+        <v>2.33103191977704E-2</v>
+      </c>
+      <c r="E40">
+        <v>0.29889760869502402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1.55327347239491E-2</v>
+      </c>
+      <c r="B41">
+        <v>0.33484872500590201</v>
+      </c>
+      <c r="D41">
+        <v>2.33401603320307E-2</v>
+      </c>
+      <c r="E41">
+        <v>0.68249510175502504</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1.56633124491838E-2</v>
+      </c>
+      <c r="B42">
+        <v>0.71517957056882797</v>
+      </c>
+      <c r="D42">
+        <v>2.35924767150281E-2</v>
+      </c>
+      <c r="E42">
+        <v>0.29219242063017598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1.5816760878454999E-2</v>
+      </c>
+      <c r="B43">
+        <v>0.32665212807500998</v>
+      </c>
+      <c r="D43">
+        <v>2.36240886765701E-2</v>
+      </c>
+      <c r="E43">
+        <v>0.68745796935585102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1.5962147974536E-2</v>
+      </c>
+      <c r="B44">
+        <v>0.71688941479556501</v>
+      </c>
+      <c r="D44">
+        <v>2.3874549558570199E-2</v>
+      </c>
+      <c r="E44">
+        <v>0.28617996940200802</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1.6113174854432401E-2</v>
+      </c>
+      <c r="B45">
+        <v>0.318281117279264</v>
+      </c>
+      <c r="D45">
+        <v>2.3901645853212802E-2</v>
+      </c>
+      <c r="E45">
+        <v>0.69223368158441501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1.6225066103799E-2</v>
+      </c>
+      <c r="B46">
+        <v>0.722724483748729</v>
+      </c>
+      <c r="D46">
+        <v>2.41565659529684E-2</v>
+      </c>
+      <c r="E46">
+        <v>0.28062934273162798</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1.6377784558278902E-2</v>
+      </c>
+      <c r="B47">
+        <v>0.31027699167142703</v>
+      </c>
+      <c r="D47">
+        <v>2.4177332181747099E-2</v>
+      </c>
+      <c r="E47">
+        <v>0.69662188808108705</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1.65059252907491E-2</v>
+      </c>
+      <c r="B48">
+        <v>0.72664126051298805</v>
+      </c>
+      <c r="D48">
+        <v>2.4438589403509601E-2</v>
+      </c>
+      <c r="E48">
+        <v>0.27502098799152402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1.6660190048561199E-2</v>
+      </c>
+      <c r="B49">
+        <v>0.301543074299156</v>
+      </c>
+      <c r="D49">
+        <v>2.4463303544283398E-2</v>
+      </c>
+      <c r="E49">
+        <v>0.70056369651255401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1.6786773893484801E-2</v>
+      </c>
+      <c r="B50">
+        <v>0.73064462938183194</v>
+      </c>
+      <c r="D50">
+        <v>2.4720591685621799E-2</v>
+      </c>
+      <c r="E50">
+        <v>0.26958581746059102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1.6942287756607E-2</v>
+      </c>
+      <c r="B51">
+        <v>0.29532720034910598</v>
+      </c>
+      <c r="D51">
+        <v>2.4744099225946802E-2</v>
+      </c>
+      <c r="E51">
+        <v>0.70500002590432398</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1.7045703932092302E-2</v>
+      </c>
+      <c r="B52">
+        <v>0.73461631595870902</v>
+      </c>
+      <c r="D52">
+        <v>2.5028197182522902E-2</v>
+      </c>
+      <c r="E52">
+        <v>0.26392943684735598</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1.72245087791516E-2</v>
+      </c>
+      <c r="B53">
+        <v>0.28810245965674702</v>
+      </c>
+      <c r="D53">
+        <v>2.50249725251829E-2</v>
+      </c>
+      <c r="E53">
+        <v>0.70880134652913596</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1.7348643974459E-2</v>
+      </c>
+      <c r="B54">
+        <v>0.73723702941129698</v>
+      </c>
+      <c r="D54">
+        <v>2.5177318180108901E-2</v>
+      </c>
+      <c r="E54">
+        <v>0.25755480262040298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1.7517140533045001E-2</v>
+      </c>
+      <c r="B55">
+        <v>0.28289037766117697</v>
+      </c>
+      <c r="D55">
+        <v>2.5305717637821499E-2</v>
+      </c>
+      <c r="E55">
+        <v>0.71365139375392295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1.7629538442124001E-2</v>
+      </c>
+      <c r="B56">
+        <v>0.74086516582693795</v>
+      </c>
+      <c r="D56">
+        <v>2.5412802839651E-2</v>
+      </c>
+      <c r="E56">
+        <v>0.25605076810468402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1.7788816757524101E-2</v>
+      </c>
+      <c r="B57">
+        <v>0.27474981159677297</v>
+      </c>
+      <c r="D57">
+        <v>2.5586563888509498E-2</v>
+      </c>
+      <c r="E57">
+        <v>0.717674005312675</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1.7904002901500099E-2</v>
+      </c>
+      <c r="B58">
+        <v>0.74478753482951099</v>
+      </c>
+      <c r="D58">
+        <v>2.56948404024782E-2</v>
+      </c>
+      <c r="E58">
+        <v>0.25032695722513398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1.8066623574625101E-2</v>
+      </c>
+      <c r="B59">
+        <v>0.26876460737070201</v>
+      </c>
+      <c r="D59">
+        <v>2.58673736824588E-2</v>
+      </c>
+      <c r="E59">
+        <v>0.721994878564998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1.8181738520158398E-2</v>
+      </c>
+      <c r="B60">
+        <v>0.74810336831706903</v>
+      </c>
+      <c r="D60">
+        <v>2.59767827073751E-2</v>
+      </c>
+      <c r="E60">
+        <v>0.24538247528685</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1.8353055350490598E-2</v>
+      </c>
+      <c r="B61">
+        <v>0.26196482288908002</v>
+      </c>
+      <c r="D61">
+        <v>2.6185226021988101E-2</v>
+      </c>
+      <c r="E61">
+        <v>0.24017197124575301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1.84722465416195E-2</v>
+      </c>
+      <c r="B62">
+        <v>0.75154752682983195</v>
+      </c>
+      <c r="D62">
+        <v>2.6148211700980001E-2</v>
+      </c>
+      <c r="E62">
+        <v>0.72608483953842695</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1.8635275197011299E-2</v>
+      </c>
+      <c r="B63">
+        <v>0.25474970354167498</v>
+      </c>
+      <c r="D63">
+        <v>2.6438243873799099E-2</v>
+      </c>
+      <c r="E63">
+        <v>0.23646494384407099</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1.8753158649641902E-2</v>
+      </c>
+      <c r="B64">
+        <v>0.75503134307116504</v>
+      </c>
+      <c r="D64">
+        <v>2.64290144387864E-2</v>
+      </c>
+      <c r="E64">
+        <v>0.73046344086047299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1.8917404489697101E-2</v>
+      </c>
+      <c r="B65">
+        <v>0.24827542775571901</v>
+      </c>
+      <c r="D65">
+        <v>2.6720196762910601E-2</v>
+      </c>
+      <c r="E65">
+        <v>0.23143386980120201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1.9031894651570701E-2</v>
+      </c>
+      <c r="B66">
+        <v>0.758881336382215</v>
+      </c>
+      <c r="D66">
+        <v>2.6709848929236099E-2</v>
+      </c>
+      <c r="E66">
+        <v>0.73458226586876396</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1.9199484389382099E-2</v>
+      </c>
+      <c r="B67">
+        <v>0.24220524845782901</v>
+      </c>
+      <c r="D67">
+        <v>2.70023119433104E-2</v>
+      </c>
+      <c r="E67">
+        <v>0.22507505015469401</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1.9314938372785299E-2</v>
+      </c>
+      <c r="B68">
+        <v>0.76236298310458805</v>
+      </c>
+      <c r="D68">
+        <v>2.6990812782307E-2</v>
+      </c>
+      <c r="E68">
+        <v>0.73764274293212595</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1.9481592513638998E-2</v>
+      </c>
+      <c r="B69">
+        <v>0.23590415688104399</v>
+      </c>
+      <c r="D69">
+        <v>2.7284257776278902E-2</v>
+      </c>
+      <c r="E69">
+        <v>0.22010170418154801</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1.9621487604283699E-2</v>
+      </c>
+      <c r="B70">
+        <v>0.76534817381744902</v>
+      </c>
+      <c r="D70">
+        <v>2.7271627280351599E-2</v>
+      </c>
+      <c r="E70">
+        <v>0.74192513080463296</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1.9763693581752999E-2</v>
+      </c>
+      <c r="B71">
+        <v>0.22966079337398301</v>
+      </c>
+      <c r="D71">
+        <v>2.7566223366447699E-2</v>
+      </c>
+      <c r="E71">
+        <v>0.21496671961317601</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1.9793384949378601E-2</v>
+      </c>
+      <c r="B72">
+        <v>0.77141738289568096</v>
+      </c>
+      <c r="D72">
+        <v>2.75525210424023E-2</v>
+      </c>
+      <c r="E72">
+        <v>0.74555904002724704</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1.9933653198917801E-2</v>
+      </c>
+      <c r="B73">
+        <v>0.76888340271720601</v>
+      </c>
+      <c r="D73">
+        <v>2.78481325074727E-2</v>
+      </c>
+      <c r="E73">
+        <v>0.210293559602591</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2.00437347084347E-2</v>
+      </c>
+      <c r="B74">
+        <v>0.224174549485091</v>
+      </c>
+      <c r="D74">
+        <v>2.7833460904587201E-2</v>
+      </c>
+      <c r="E74">
+        <v>0.74881579252766794</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2.0183340044900501E-2</v>
+      </c>
+      <c r="B75">
+        <v>0.77208489402122205</v>
+      </c>
+      <c r="D75">
+        <v>2.8130150313099501E-2</v>
+      </c>
+      <c r="E75">
+        <v>0.20473138731826601</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2.0336437375057401E-2</v>
+      </c>
+      <c r="B76">
+        <v>0.21704099803854399</v>
+      </c>
+      <c r="D76">
+        <v>2.8107913015712999E-2</v>
+      </c>
+      <c r="E76">
+        <v>0.75283918565225605</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2.0464340354710099E-2</v>
+      </c>
+      <c r="B77">
+        <v>0.77484710939101298</v>
+      </c>
+      <c r="D77">
+        <v>2.8412161062583301E-2</v>
+      </c>
+      <c r="E77">
+        <v>0.19922694310366501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2.0610025010666701E-2</v>
+      </c>
+      <c r="B78">
+        <v>0.210699790573906</v>
+      </c>
+      <c r="D78">
+        <v>2.8395199270892499E-2</v>
+      </c>
+      <c r="E78">
+        <v>0.75648578319197002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2.0745277159233001E-2</v>
+      </c>
+      <c r="B79">
+        <v>0.77812887738831404</v>
+      </c>
+      <c r="D79">
+        <v>2.8694092178453499E-2</v>
+      </c>
+      <c r="E79">
+        <v>0.19437400139022801</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2.0902598276975E-2</v>
+      </c>
+      <c r="B80">
+        <v>0.20596621013404301</v>
+      </c>
+      <c r="D80">
+        <v>2.8672075265132602E-2</v>
+      </c>
+      <c r="E80">
+        <v>0.75811587349691201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2.1026242188327798E-2</v>
+      </c>
+      <c r="B81">
+        <v>0.78117973310672195</v>
+      </c>
+      <c r="D81">
+        <v>2.8975954883337599E-2</v>
+      </c>
+      <c r="E81">
+        <v>0.190080747057537</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2.1174128360892799E-2</v>
+      </c>
+      <c r="B82">
+        <v>0.19902125653591099</v>
+      </c>
+      <c r="D82">
+        <v>2.89464059517981E-2</v>
+      </c>
+      <c r="E82">
+        <v>0.76313267048799005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2.1307193105136599E-2</v>
+      </c>
+      <c r="B83">
+        <v>0.78434604496457605</v>
+      </c>
+      <c r="D83">
+        <v>2.9255764802226799E-2</v>
+      </c>
+      <c r="E83">
+        <v>0.18514475723632601</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2.14560044556482E-2</v>
+      </c>
+      <c r="B84">
+        <v>0.194618456318531</v>
+      </c>
+      <c r="D84">
+        <v>2.9238057901438099E-2</v>
+      </c>
+      <c r="E84">
+        <v>0.76593661204076402</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2.1588129909659401E-2</v>
+      </c>
+      <c r="B85">
+        <v>0.787627812961878</v>
+      </c>
+      <c r="D85">
+        <v>2.95399973155294E-2</v>
+      </c>
+      <c r="E85">
+        <v>0.178900598688155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2.1746675366209799E-2</v>
+      </c>
+      <c r="B86">
+        <v>0.18801143292275799</v>
+      </c>
+      <c r="D86">
+        <v>2.9519037042818799E-2</v>
+      </c>
+      <c r="E86">
+        <v>0.76887201161972496</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2.18799609089275E-2</v>
+      </c>
+      <c r="B87">
+        <v>0.78896690474541997</v>
+      </c>
+      <c r="D87">
+        <v>2.9821974901141302E-2</v>
+      </c>
+      <c r="E87">
+        <v>0.17366747640125299</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2.20072252376395E-2</v>
+      </c>
+      <c r="B88">
+        <v>0.18371288819787099</v>
+      </c>
+      <c r="D88">
+        <v>2.97999315104839E-2</v>
+      </c>
+      <c r="E88">
+        <v>0.77250014803536704</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2.2139612172148999E-2</v>
+      </c>
+      <c r="B89">
+        <v>0.79202009842370102</v>
+      </c>
+      <c r="D89">
+        <v>3.00973915478111E-2</v>
+      </c>
+      <c r="E89">
+        <v>0.16979976310615</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2.2291815057782102E-2</v>
+      </c>
+      <c r="B90">
+        <v>0.17803293124691699</v>
+      </c>
+      <c r="D90">
+        <v>3.0080931820293502E-2</v>
+      </c>
+      <c r="E90">
+        <v>0.77526236340515797</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2.24311378952314E-2</v>
+      </c>
+      <c r="B91">
+        <v>0.79585673100152698</v>
+      </c>
+      <c r="D91">
+        <v>3.03858312863633E-2</v>
+      </c>
+      <c r="E91">
+        <v>0.164009424803577</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2.2622943265715598E-2</v>
+      </c>
+      <c r="B92">
+        <v>0.79598722554569101</v>
+      </c>
+      <c r="D92">
+        <v>3.0361946242389099E-2</v>
+      </c>
+      <c r="E92">
+        <v>0.77790912263550105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2.3224641157706699E-2</v>
+      </c>
+      <c r="B93">
+        <v>0.16287071033021</v>
+      </c>
+      <c r="D93">
+        <v>3.06677418386169E-2</v>
+      </c>
+      <c r="E93">
+        <v>0.159324719179049</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2.3430069000218198E-2</v>
+      </c>
+      <c r="B94">
+        <v>0.15617490105540099</v>
+      </c>
+      <c r="D94">
+        <v>3.06428901030549E-2</v>
+      </c>
+      <c r="E94">
+        <v>0.78113316256307896</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2.38917030421451E-2</v>
+      </c>
+      <c r="B95">
+        <v>0.14584303190439901</v>
+      </c>
+      <c r="D95">
+        <v>3.0949655918941901E-2</v>
+      </c>
+      <c r="E95">
+        <v>0.15461114951965799</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2.41736770996855E-2</v>
+      </c>
+      <c r="B96">
+        <v>0.14063877365235899</v>
+      </c>
+      <c r="D96">
+        <v>3.0923848076006701E-2</v>
+      </c>
+      <c r="E96">
+        <v>0.78424174635121102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2.4455637044939901E-2</v>
+      </c>
+      <c r="B97">
+        <v>0.135549971539767</v>
+      </c>
+      <c r="D97">
+        <v>3.1231569999267E-2</v>
+      </c>
+      <c r="E97">
+        <v>0.149897579860267</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2.4737596990194299E-2</v>
+      </c>
+      <c r="B98">
+        <v>0.13046116942717301</v>
+      </c>
+      <c r="D98">
+        <v>3.1204869554245299E-2</v>
+      </c>
+      <c r="E98">
+        <v>0.78683077751183095</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2.5019571047734598E-2</v>
+      </c>
+      <c r="B99">
+        <v>0.12525691117513399</v>
+      </c>
+      <c r="D99">
+        <v>3.1513487607663503E-2</v>
+      </c>
+      <c r="E99">
+        <v>0.14515514616601499</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2.5301552161417998E-2</v>
+      </c>
+      <c r="B100">
+        <v>0.11999492485337</v>
+      </c>
+      <c r="D100">
+        <v>3.1485898088626903E-2</v>
+      </c>
+      <c r="E100">
+        <v>0.78936208060272794</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2.5587617605860698E-2</v>
+      </c>
+      <c r="B101">
+        <v>0.11619218932488801</v>
+      </c>
+      <c r="D101">
+        <v>3.1795313486201397E-2</v>
+      </c>
+      <c r="E101">
+        <v>0.141163177378166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2.5865415602783E-2</v>
+      </c>
+      <c r="B102">
+        <v>0.110279145185972</v>
+      </c>
+      <c r="D102">
+        <v>3.1766877230007602E-2</v>
+      </c>
+      <c r="E102">
+        <v>0.792297480181689</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2.6147368491894401E-2</v>
+      </c>
+      <c r="B103">
+        <v>0.105248071143102</v>
+      </c>
+      <c r="D103">
+        <v>3.2077202870026002E-2</v>
+      </c>
+      <c r="E103">
+        <v>0.13665165596280701</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2.6429342549434701E-2</v>
+      </c>
+      <c r="B104">
+        <v>0.100043812891062</v>
+      </c>
+      <c r="D104">
+        <v>3.2045711205921597E-2</v>
+      </c>
+      <c r="E104">
+        <v>0.79534592382622205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2.67111665463345E-2</v>
+      </c>
+      <c r="B105">
+        <v>9.6067238255140602E-2</v>
+      </c>
+      <c r="D105">
+        <v>3.23590216924209E-2</v>
+      </c>
+      <c r="E105">
+        <v>0.132717415244682</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2.69932236311572E-2</v>
+      </c>
+      <c r="B106">
+        <v>9.0183713049355199E-2</v>
+      </c>
+      <c r="D106">
+        <v>3.2316380714801897E-2</v>
+      </c>
+      <c r="E106">
+        <v>0.79544154975385595</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2.7285641074308201E-2</v>
+      </c>
+      <c r="B107">
+        <v>8.6724960815885099E-2</v>
+      </c>
+      <c r="D107">
+        <v>3.2640974581532298E-2</v>
+      </c>
+      <c r="E107">
+        <v>0.12768634120181299</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2.7557062376021801E-2</v>
+      </c>
+      <c r="B108">
+        <v>8.0669981625988305E-2</v>
+      </c>
+      <c r="D108">
+        <v>3.2922835740785097E-2</v>
+      </c>
+      <c r="E108">
+        <v>0.123405732065347</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2.78389870405613E-2</v>
+      </c>
+      <c r="B109">
+        <v>7.5869819862012397E-2</v>
+      </c>
+      <c r="D109">
+        <v>3.3204718068466699E-2</v>
+      </c>
+      <c r="E109">
+        <v>0.11895193871971201</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2.8112242998249899E-2</v>
+      </c>
+      <c r="B110">
+        <v>7.2242152385872505E-2</v>
+      </c>
+      <c r="D110">
+        <v>3.3486610980362902E-2</v>
+      </c>
+      <c r="E110">
+        <v>0.114411553269491</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2.8402822257354399E-2</v>
+      </c>
+      <c r="B111">
+        <v>6.6384952473507397E-2</v>
+      </c>
+      <c r="D111">
+        <v>3.3768440386972201E-2</v>
+      </c>
+      <c r="E111">
+        <v>0.110390720446781</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2.8684753978036898E-2</v>
+      </c>
+      <c r="B112">
+        <v>6.1527062639808103E-2</v>
+      </c>
+      <c r="D112">
+        <v>3.4050343883082798E-2</v>
+      </c>
+      <c r="E112">
+        <v>0.105763742891976</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2.8966664530290499E-2</v>
+      </c>
+      <c r="B113">
+        <v>5.6842357015278899E-2</v>
+      </c>
+      <c r="D113">
+        <v>3.4332254435336398E-2</v>
+      </c>
+      <c r="E113">
+        <v>0.10107903726744601</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2.9248582138687002E-2</v>
+      </c>
+      <c r="B114">
+        <v>5.2099923321026198E-2</v>
+      </c>
+      <c r="D114">
+        <v>3.4614129706875101E-2</v>
+      </c>
+      <c r="E114">
+        <v>9.6682971991534694E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2.9530422129510799E-2</v>
+      </c>
+      <c r="B115">
+        <v>4.7992498393731202E-2</v>
+      </c>
+      <c r="D115">
+        <v>3.4895874943778903E-2</v>
+      </c>
+      <c r="E115">
+        <v>9.3350752571954104E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2.98123115133355E-2</v>
+      </c>
+      <c r="B116">
+        <v>4.3480976978372103E-2</v>
+      </c>
+      <c r="D116">
+        <v>3.5177848497309101E-2</v>
+      </c>
+      <c r="E116">
+        <v>8.8150617753466096E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>3.0094193841017101E-2</v>
+      </c>
+      <c r="B117">
+        <v>3.9027183632736703E-2</v>
+      </c>
+      <c r="D117">
+        <v>3.5459776689920099E-2</v>
+      </c>
+      <c r="E117">
+        <v>8.3321591954628405E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>3.03760832248418E-2</v>
+      </c>
+      <c r="B118">
+        <v>3.4515662217378097E-2</v>
+      </c>
+      <c r="D118">
+        <v>3.5741623736886899E-2</v>
+      </c>
+      <c r="E118">
+        <v>7.9156438957610001E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>3.0657951440237498E-2</v>
+      </c>
+      <c r="B119">
+        <v>3.0177325011189401E-2</v>
+      </c>
+      <c r="D119">
+        <v>3.6023463727710703E-2</v>
+      </c>
+      <c r="E119">
+        <v>7.5049014030314803E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>3.0939756150346401E-2</v>
+      </c>
+      <c r="B120">
+        <v>2.63585404325112E-2</v>
+      </c>
+      <c r="D120">
+        <v>3.6305331943106402E-2</v>
+      </c>
+      <c r="E120">
+        <v>7.0710676824126101E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>3.1221631421885099E-2</v>
+      </c>
+      <c r="B121">
+        <v>2.1962475156599201E-2</v>
+      </c>
+      <c r="D121">
+        <v>3.6587171933930199E-2</v>
+      </c>
+      <c r="E121">
+        <v>6.6603251896830903E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>3.1503485524994899E-2</v>
+      </c>
+      <c r="B122">
+        <v>1.7739594089857001E-2</v>
+      </c>
+      <c r="D122">
+        <v>3.68690683738978E-2</v>
+      </c>
+      <c r="E122">
+        <v>6.2034002411748702E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>3.17853325719617E-2</v>
+      </c>
+      <c r="B123">
+        <v>1.3574441092838599E-2</v>
+      </c>
+      <c r="D123">
+        <v>3.7150908364721603E-2</v>
+      </c>
+      <c r="E123">
+        <v>5.7926577484453699E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>3.20675274867772E-2</v>
+      </c>
+      <c r="B124">
+        <v>6.5632942584563604E-3</v>
+      </c>
+      <c r="D124">
+        <v>3.7432736595307103E-2</v>
+      </c>
+      <c r="E124">
+        <v>5.3915366006697697E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>3.2349303737109397E-2</v>
+      </c>
+      <c r="B125">
+        <v>2.9773462276629901E-3</v>
+      </c>
+      <c r="D125">
+        <v>3.7714581290226298E-2</v>
+      </c>
+      <c r="E125">
+        <v>4.9769455699587101E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>3.2618115147939698E-2</v>
+      </c>
+      <c r="B126">
+        <v>8.3744591762124898E-4</v>
+      </c>
+      <c r="D126">
+        <v>3.7996414224907099E-2</v>
+      </c>
+      <c r="E126">
+        <v>4.5719758842015498E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>3.8278240103445001E-2</v>
+      </c>
+      <c r="E127">
+        <v>4.1727790054167199E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>3.85600942065547E-2</v>
+      </c>
+      <c r="E128">
+        <v>3.7504908987425499E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>3.8841934197378497E-2</v>
+      </c>
+      <c r="E129">
+        <v>3.3397484060130302E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>3.9123753019773402E-2</v>
+      </c>
+      <c r="E130">
+        <v>2.94632433420054E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>3.9405593010597199E-2</v>
+      </c>
+      <c r="E131">
+        <v>2.53558184147104E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>3.9687433001421003E-2</v>
+      </c>
+      <c r="E132">
+        <v>2.1248393487415401E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>3.9969251823815902E-2</v>
+      </c>
+      <c r="E133">
+        <v>1.7314152769290599E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>4.0251105926925698E-2</v>
+      </c>
+      <c r="E134">
+        <v>1.3091271702548601E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>4.0532903580891601E-2</v>
+      </c>
+      <c r="E135">
+        <v>9.3302151935941106E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>4.0814792964716302E-2</v>
+      </c>
+      <c r="E136">
+        <v>4.8186937782355097E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>4.0994356515148801E-2</v>
+      </c>
+      <c r="E137">
+        <v>4.8003316549372001E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C880236A-8313-45CB-937D-1F7FCDCED26D}">
   <dimension ref="A1:C158"/>
   <sheetViews>
@@ -34364,7 +36905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AD2FA9-8674-4C65-A2F1-A6D0908A8068}">
   <dimension ref="A1:Z98"/>
   <sheetViews>
@@ -39278,667 +41819,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596094CB-5E7C-4458-92EE-C2DA16EDDB8D}">
-  <dimension ref="A1:B81"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4.0465455966455597</v>
-      </c>
-      <c r="B2">
-        <v>1.3971791027042799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4.0543895497041298</v>
-      </c>
-      <c r="B3">
-        <v>1.3907254301576699</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4.0959568161710198</v>
-      </c>
-      <c r="B4">
-        <v>1.38546817295806</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4.1513567102403002</v>
-      </c>
-      <c r="B5">
-        <v>1.37970492324917</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4.1887808578635397</v>
-      </c>
-      <c r="B6">
-        <v>1.37440870669709</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4.2253637958448804</v>
-      </c>
-      <c r="B7">
-        <v>1.3695735934192801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4.2620241853533498</v>
-      </c>
-      <c r="B8">
-        <v>1.36488312691928</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4.2987878435646696</v>
-      </c>
-      <c r="B9">
-        <v>1.3603855227897099</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4.3355773189516897</v>
-      </c>
-      <c r="B10">
-        <v>1.3559361342527501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4.3722358643761901</v>
-      </c>
-      <c r="B11">
-        <v>1.35124222378185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4.3967685433905999</v>
-      </c>
-      <c r="B12">
-        <v>1.3476782080568099</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4.44748177486332</v>
-      </c>
-      <c r="B13">
-        <v>1.3436277090033399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4.4872360147985999</v>
-      </c>
-      <c r="B14">
-        <v>1.33841565308246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4.51990826535451</v>
-      </c>
-      <c r="B15">
-        <v>1.3344055375152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4.5578610503851396</v>
-      </c>
-      <c r="B16">
-        <v>1.33009659262123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4.6066711592505696</v>
-      </c>
-      <c r="B17">
-        <v>1.3251890514898901</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4.65440201237897</v>
-      </c>
-      <c r="B18">
-        <v>1.3203904134073601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4.70081742172954</v>
-      </c>
-      <c r="B19">
-        <v>1.3156290565734099</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>4.7474290416155096</v>
-      </c>
-      <c r="B20">
-        <v>1.31123413824325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4.7939787002797702</v>
-      </c>
-      <c r="B21">
-        <v>1.3067235024908499</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>4.8408484919228396</v>
-      </c>
-      <c r="B22">
-        <v>1.3028107400867499</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4.9003374178526702</v>
-      </c>
-      <c r="B23">
-        <v>1.29747002243305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4.9629700998502004</v>
-      </c>
-      <c r="B24">
-        <v>1.2938268365648</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>5.0157660634112498</v>
-      </c>
-      <c r="B25">
-        <v>1.2883199425843199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>5.0783802662936699</v>
-      </c>
-      <c r="B26">
-        <v>1.2819716837888899</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>5.1661822485718503</v>
-      </c>
-      <c r="B27">
-        <v>1.27680846732852</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>5.2223169844946096</v>
-      </c>
-      <c r="B28">
-        <v>1.2724901681905101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>5.2862296847862797</v>
-      </c>
-      <c r="B29">
-        <v>1.26752284334673</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>5.3654502752069897</v>
-      </c>
-      <c r="B30">
-        <v>1.26227214688423</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>5.4471003205374497</v>
-      </c>
-      <c r="B31">
-        <v>1.2572120046486399</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>5.5240129141250698</v>
-      </c>
-      <c r="B32">
-        <v>1.2527101507699101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>5.5626644533101999</v>
-      </c>
-      <c r="B33">
-        <v>1.24781920784962</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>5.66157500174796</v>
-      </c>
-      <c r="B34">
-        <v>1.2452567175346401</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>5.7136494577803303</v>
-      </c>
-      <c r="B35">
-        <v>1.24108817140108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>5.80422931213654</v>
-      </c>
-      <c r="B36">
-        <v>1.2365061819624199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>5.8851306593714003</v>
-      </c>
-      <c r="B37">
-        <v>1.2321379763412601</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>5.9709103770998198</v>
-      </c>
-      <c r="B38">
-        <v>1.2277359327395401</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>6.0548488999138499</v>
-      </c>
-      <c r="B39">
-        <v>1.2235531441918299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>6.1026027454165899</v>
-      </c>
-      <c r="B40">
-        <v>1.22024632703739</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>6.1903470477674496</v>
-      </c>
-      <c r="B41">
-        <v>1.2169005627012399</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>6.2811164367025096</v>
-      </c>
-      <c r="B42">
-        <v>1.21267254389598</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>6.3768077984723401</v>
-      </c>
-      <c r="B43">
-        <v>1.20849211788877</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>6.4724681796313197</v>
-      </c>
-      <c r="B44">
-        <v>1.20425383317044</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>6.56813888766058</v>
-      </c>
-      <c r="B45">
-        <v>1.2000348346891501</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>6.67859241270917</v>
-      </c>
-      <c r="B46">
-        <v>1.19599017389903</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>6.75531848279042</v>
-      </c>
-      <c r="B47">
-        <v>1.192968888</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>6.8605939178174697</v>
-      </c>
-      <c r="B48">
-        <v>1.18839831555637</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>6.9661374658907</v>
-      </c>
-      <c r="B49">
-        <v>1.1843284651728301</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>7.0683889178465797</v>
-      </c>
-      <c r="B50">
-        <v>1.1811446573258899</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>7.1964876956409398</v>
-      </c>
-      <c r="B51">
-        <v>1.1755858673430899</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>7.30212512435312</v>
-      </c>
-      <c r="B52">
-        <v>1.1716913463872101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>7.4077813291930896</v>
-      </c>
-      <c r="B53">
-        <v>1.1678318913168599</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>7.5134656982247501</v>
-      </c>
-      <c r="B54">
-        <v>1.1640250350748</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>7.6192627240231303</v>
-      </c>
-      <c r="B55">
-        <v>1.1604285741459399</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>7.7250221975659503</v>
-      </c>
-      <c r="B56">
-        <v>1.1567619814460099</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>7.8308192233643403</v>
-      </c>
-      <c r="B57">
-        <v>1.1531655205171401</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>7.9331539007741103</v>
-      </c>
-      <c r="B58">
-        <v>1.14919923747657</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>8.0555112940146003</v>
-      </c>
-      <c r="B59">
-        <v>1.14561318052453</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>8.1469655154753902</v>
-      </c>
-      <c r="B60">
-        <v>1.1432789013753599</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>8.2543546849219993</v>
-      </c>
-      <c r="B61">
-        <v>1.1394283956840101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>8.3602737555510203</v>
-      </c>
-      <c r="B62">
-        <v>1.1360598630111001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>8.4663148710106704</v>
-      </c>
-      <c r="B63">
-        <v>1.1329192585941401</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>8.5723090461508509</v>
-      </c>
-      <c r="B64">
-        <v>1.12969098946335</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>8.6783877138660799</v>
-      </c>
-      <c r="B65">
-        <v>1.1266205168174599</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>8.7844476054535097</v>
-      </c>
-      <c r="B66">
-        <v>1.1235149782860301</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>8.8904981089770594</v>
-      </c>
-      <c r="B67">
-        <v>1.12039190681184</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>9.0007393562100599</v>
-      </c>
-      <c r="B68">
-        <v>1.1174748966169099</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>9.1016620698966708</v>
-      </c>
-      <c r="B69">
-        <v>1.11405840719547</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>9.2088937092089491</v>
-      </c>
-      <c r="B70">
-        <v>1.11147854890117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>9.3150287053075491</v>
-      </c>
-      <c r="B71">
-        <v>1.1085132739118699</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>9.4211918655978302</v>
-      </c>
-      <c r="B72">
-        <v>1.1056005977508601</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>9.5198648503826302</v>
-      </c>
-      <c r="B73">
-        <v>1.1029243296634199</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>9.6181313099348404</v>
-      </c>
-      <c r="B74">
-        <v>1.0991762088674</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>9.7301530483696297</v>
-      </c>
-      <c r="B75">
-        <v>1.0973568801696001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>9.8427682590989996</v>
-      </c>
-      <c r="B76">
-        <v>1.0949428689016301</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>9.9425263092696596</v>
-      </c>
-      <c r="B77">
-        <v>1.09161919256142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>10.046718772450999</v>
-      </c>
-      <c r="B78">
-        <v>1.08894518958888</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>10.1839726437893</v>
-      </c>
-      <c r="B79">
-        <v>1.0853102852718099</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>10.290257848910199</v>
-      </c>
-      <c r="B80">
-        <v>1.0826255373667499</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>10.358126314235699</v>
-      </c>
-      <c r="B81">
-        <v>1.0813511345859499</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/MAE 159/Other data/159 Digitized Plots.xlsx
+++ b/MAE 159/Other data/159 Digitized Plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy Slagle\Documents\MAE136-MAE158-MAE159_Aircraft_Design_and_Analysis_Course_Series\MAE 159\Other data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60630B69-B0AD-4CD6-B05B-F003EB9EC074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D61738-F0CA-4D33-8F97-A524D598C978}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="2430" windowWidth="28800" windowHeight="15435" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4875" yWindow="4050" windowWidth="28800" windowHeight="15435" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1a" sheetId="6" r:id="rId1"/>
@@ -10106,7 +10106,7 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -10115,6 +10115,698 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>2, TOFL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 5'!$B$2:$B$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="146"/>
+                <c:pt idx="0">
+                  <c:v>70.643408757290402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.849330145099202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.730029234863494</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.9231356523551</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.0590994881303</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.805084108819997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.866074447708598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.069275991755006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.273732029126506</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.495013201355704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.680910389834395</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.885639050543006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96.889420627219707</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>103.518211887381</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>105.79077461991101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>107.90742403547399</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>110.078667795646</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>112.31453850008801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114.517648459732</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>116.72056673109201</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>118.924635132156</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>122.930144385839</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>124.731457446269</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>126.93642039265799</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>129.13981788472799</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>132.75878834573899</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>134.94897240629601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>136.949152020523</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>139.15427257727899</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>140.89974349365201</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>142.958425459343</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>145.16077931520101</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>147.36454953448899</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>153.05531257967499</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>157.578134884695</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>160.29662024660601</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>162.780124099647</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>164.82672967302199</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>167.47878556154799</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>170.278978213877</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>173.28197341218799</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>176.00057017933099</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>182.60887772074901</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>185.0147987531</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>187.08163160382099</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>189.32745026120301</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>191.41918555963301</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>195.62314604249801</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>197.825723534687</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>200.028782377455</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>203.23167544295899</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>207.808437298884</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>209.91383032527199</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>211.32340145521701</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>213.242669097049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>215.38980455644</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>216.84025126019699</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>225.05132308482499</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>227.16719814057399</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>229.275148910328</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>230.176268792553</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>232.064260784787</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>234.26688034190499</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>236.46822250959701</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>238.61930106798499</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>240.70217431968999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>242.997841776396</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>245.278255595274</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>246.67737240589901</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>248.682421967473</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>250.972523417318</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>253.18632228079699</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>255.489274452345</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>257.11067101931701</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>258.22512114384199</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>259.46591902560198</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>261.21069050793898</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>263.49709815497903</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>265.73327267013701</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>267.90127339923799</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>270.105014459595</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>272.46720819956897</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>274.47607124234798</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>276.67915990329402</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>278.84698438566699</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>281.04879326108397</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>283.11513739542499</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>284.18605172568999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>286.31984830482202</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>288.43494356741598</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>290.85664491394402</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>293.20860873702998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>295.32602490572901</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>297.57982449935298</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>299.81948698785601</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>301.93237296691098</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>304.13314858923002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>306.33484005557301</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>308.53727271661398</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>310.675024578104</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>312.19969554125498</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>314.34300879711799</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>316.54432966611103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>318.74648118433601</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>320.05628270811701</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>321.74884000797101</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>323.90307472136601</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>325.35170041451198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 5'!$C$2:$C$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="146"/>
+                <c:pt idx="0">
+                  <c:v>2983.6960333294801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3037.7469948995199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3115.0315235173102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3164.8029015226598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3239.4017004268599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3312.0036189612597</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3355.9567345892096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3429.4011535583404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3493.9005870865399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3557.9994234788101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3635.2614543957702</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3697.81698616431</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3802.1337731171602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4005.2281432322002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4062.3770099664098</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4155.1258996127999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4217.3034843514597</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4296.94236889695</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4371.0398173634703</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4446.5040717547399</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4513.76749059745</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4649.5255832068397</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4718.9314609233497</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4779.8164521171902</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4851.8636916965606</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4984.5055015541602</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5040.3981899378896</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5126.6379958318503</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5186.3991688208798</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5262.6639825980901</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5323.0766235421997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5402.5653620452595</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5471.9549234376</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5667.6825673222102</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5821.4411739097095</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5927.3552662437696</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6034.8107115181701</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6076.9815440922202</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6170.3157714090503</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6268.6958428940397</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6378.61978843822</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6466.6582897717399</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6696.2402667699998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6759.0458148289099</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6848.2987332972698</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6912.1906790208695</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7007.8319798658804</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7163.3854134896901</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7241.2795450805406</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7315.7414751269898</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7435.1457160201007</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7597.1643944813995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7676.2285835743005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7746.1129160451201</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7794.3596334525801</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7876.2597649278296</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7969.1366087857796</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8249.0246748344907</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8292.9456522481705</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8373.3021576444207</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8437.8125422811499</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8463.0960716781792</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8540.6902653021989</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8627.3927017415008</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8713.7867536772901</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8774.0720439686902</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8866.1949949100908</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8940.9435033295304</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9008.5053226392902</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9060.0206646781098</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9151.5370442986896</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9229.1312065451693</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9308.7297664609196</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9405.5339529697503</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9410.4200017528401</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9470.9504042588997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9525.0277453805193</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9603.0260504256803</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9680.4986560570887</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9765.8002105561409</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9835.3976855481505</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9923.0297490395806</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9995.1810574814499</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10069.430373272899</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10155.9886298861</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10239.3632735669</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10332.1009143629</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10408.275477962699</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10438.543279069499</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10525.2926025283</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10612.2287299688</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>10701.0625803855</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10788.344246332899</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10859.712371214498</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>10929.395713103799</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11031.898017228701</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>11122.6401245122</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>11206.851936822</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>11285.7787662226</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>11347.628303195301</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>11428.665711882599</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11498.687970122201</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>11585.5422738865</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>11666.4737519768</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>11755.961116001601</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>11780.9352762378</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11872.417575015599</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11918.076491096101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4358-422D-8D72-905B9DE39A84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 5'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4, TOFL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10141,713 +10833,854 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5'!$B$2:$B$147</c:f>
+              <c:f>'Figure 5'!$I$2:$I$147</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="146"/>
                 <c:pt idx="0">
-                  <c:v>70.643408757290402</c:v>
+                  <c:v>70.634700480256797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.849330145099202</c:v>
+                  <c:v>72.941308573354306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.730029234863494</c:v>
+                  <c:v>74.824118364111897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.9231356523551</c:v>
+                  <c:v>76.950332112243402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.0590994881303</c:v>
+                  <c:v>78.971155362940394</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.805084108819997</c:v>
+                  <c:v>81.026507378587695</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82.866074447708598</c:v>
+                  <c:v>83.199702581272106</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85.069275991755006</c:v>
+                  <c:v>85.416611109023805</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>87.273732029126506</c:v>
+                  <c:v>87.355972388289103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89.495013201355704</c:v>
+                  <c:v>101.990844965436</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>91.680910389834395</c:v>
+                  <c:v>104.161748631037</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>93.885639050543006</c:v>
+                  <c:v>106.36565310819201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>96.889420627219707</c:v>
+                  <c:v>111.04686508418099</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>103.518211887381</c:v>
+                  <c:v>113.12954596662399</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>105.79077461991101</c:v>
+                  <c:v>117.03954516362001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>107.90742403547399</c:v>
+                  <c:v>119.244252525631</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>110.078667795646</c:v>
+                  <c:v>120.75571444183601</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>112.31453850008801</c:v>
+                  <c:v>122.917277081577</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>114.517648459732</c:v>
+                  <c:v>125.056569903884</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>116.72056673109201</c:v>
+                  <c:v>127.25787259798901</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>118.924635132156</c:v>
+                  <c:v>129.497934551546</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>122.930144385839</c:v>
+                  <c:v>131.669648353703</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>124.731457446269</c:v>
+                  <c:v>133.87445688452999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>126.93642039265799</c:v>
+                  <c:v>136.045696080694</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>129.13981788472799</c:v>
+                  <c:v>138.28487797204099</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>132.75878834573899</c:v>
+                  <c:v>140.38209844983101</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>134.94897240629601</c:v>
+                  <c:v>142.77746614105101</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>136.949152020523</c:v>
+                  <c:v>144.86542291388801</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>139.15427257727899</c:v>
+                  <c:v>146.96897056201999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>140.89974349365201</c:v>
+                  <c:v>149.108985942663</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>142.958425459343</c:v>
+                  <c:v>151.12798025639501</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>145.16077931520101</c:v>
+                  <c:v>153.11744719591999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>147.36454953448899</c:v>
+                  <c:v>155.064278439384</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>153.05531257967499</c:v>
+                  <c:v>157.125286527188</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>157.578134884695</c:v>
+                  <c:v>159.21696078495299</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>160.29662024660601</c:v>
+                  <c:v>159.72994845101701</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>162.780124099647</c:v>
+                  <c:v>161.60109056133399</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>164.82672967302199</c:v>
+                  <c:v>164.481464061152</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>167.47878556154799</c:v>
+                  <c:v>168.79050068280799</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>170.278978213877</c:v>
+                  <c:v>171.00945562425801</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>173.28197341218799</c:v>
+                  <c:v>173.15655652759801</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>176.00057017933099</c:v>
+                  <c:v>175.17684961819899</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>182.60887772074901</c:v>
+                  <c:v>177.27449161517001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>185.0147987531</c:v>
+                  <c:v>179.31781161025299</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>187.08163160382099</c:v>
+                  <c:v>181.57408959583401</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>189.32745026120301</c:v>
+                  <c:v>183.77817561903501</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>191.41918555963301</c:v>
+                  <c:v>186.03263128863</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>195.62314604249801</c:v>
+                  <c:v>185.33227760514001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>197.825723534687</c:v>
+                  <c:v>188.18696570801899</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>200.028782377455</c:v>
+                  <c:v>189.134683993951</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>203.23167544295899</c:v>
+                  <c:v>190.98955719505699</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>207.808437298884</c:v>
+                  <c:v>193.19508178343699</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>209.91383032527199</c:v>
+                  <c:v>195.20092388186001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>211.32340145521701</c:v>
+                  <c:v>197.63624334254999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>213.242669097049</c:v>
+                  <c:v>199.17950578090401</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>215.38980455644</c:v>
+                  <c:v>200.946144951208</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>216.84025126019699</c:v>
+                  <c:v>203.214733849862</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>225.05132308482499</c:v>
+                  <c:v>204.97555248646401</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>227.16719814057399</c:v>
+                  <c:v>207.07669857090099</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>229.275148910328</c:v>
+                  <c:v>209.22606474292999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>230.176268792553</c:v>
+                  <c:v>213.23213628224599</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>232.064260784787</c:v>
+                  <c:v>214.981487466456</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>234.26688034190499</c:v>
+                  <c:v>217.03912402104299</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>236.46822250959701</c:v>
+                  <c:v>219.242920863705</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>238.61930106798499</c:v>
+                  <c:v>221.447005238792</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>240.70217431968999</c:v>
+                  <c:v>223.650945847667</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>242.997841776396</c:v>
+                  <c:v>226.25514984948401</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>245.278255595274</c:v>
+                  <c:v>228.19275936515399</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>246.67737240589901</c:v>
+                  <c:v>230.30274289670899</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>248.682421967473</c:v>
+                  <c:v>231.86640903789399</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>250.972523417318</c:v>
+                  <c:v>235.003858277983</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>253.18632228079699</c:v>
+                  <c:v>237.18698424502301</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>255.489274452345</c:v>
+                  <c:v>238.73818654738801</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>257.11067101931701</c:v>
+                  <c:v>241.09370948437001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>258.22512114384199</c:v>
+                  <c:v>245.030382866747</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>259.46591902560198</c:v>
+                  <c:v>247.091912772657</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>261.21069050793898</c:v>
+                  <c:v>248.97351364930401</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>263.49709815497903</c:v>
+                  <c:v>251.01406896232999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>265.73327267013701</c:v>
+                  <c:v>253.301873803972</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>267.90127339923799</c:v>
+                  <c:v>255.52158153487099</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>270.105014459595</c:v>
+                  <c:v>257.70894567118899</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>272.46720819956897</c:v>
+                  <c:v>259.824782304763</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>274.47607124234798</c:v>
+                  <c:v>259.912864981366</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>276.67915990329402</c:v>
+                  <c:v>262.11593411850498</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>278.84698438566699</c:v>
+                  <c:v>264.32075684846399</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>281.04879326108397</c:v>
+                  <c:v>266.52392005485399</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>283.11513739542499</c:v>
+                  <c:v>268.66104626708398</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>284.18605172568999</c:v>
+                  <c:v>270.86487627486099</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>286.31984830482202</c:v>
+                  <c:v>272.61371261375302</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>288.43494356741598</c:v>
+                  <c:v>274.75482378706499</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>290.85664491394402</c:v>
+                  <c:v>277.37537885021499</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>293.20860873702998</c:v>
+                  <c:v>279.36329898445899</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>295.32602490572901</c:v>
+                  <c:v>281.349085851231</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>297.57982449935298</c:v>
+                  <c:v>283.55319684969197</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>299.81948698785601</c:v>
+                  <c:v>285.79187715669599</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>301.93237296691098</c:v>
+                  <c:v>287.96236663868302</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>304.13314858923002</c:v>
+                  <c:v>290.074103661636</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>306.33484005557301</c:v>
+                  <c:v>292.165479433359</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>308.53727271661398</c:v>
+                  <c:v>294.37153287309701</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>310.675024578104</c:v>
+                  <c:v>296.56262966479102</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>312.19969554125498</c:v>
+                  <c:v>298.77822136374499</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>314.34300879711799</c:v>
+                  <c:v>300.84502999987501</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>316.54432966611103</c:v>
+                  <c:v>303.18536138679701</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>318.74648118433601</c:v>
+                  <c:v>305.45632778189503</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>320.05628270811701</c:v>
+                  <c:v>307.59177938397801</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>321.74884000797101</c:v>
+                  <c:v>309.830951843045</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>323.90307472136601</c:v>
+                  <c:v>311.42250885774598</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>325.35170041451198</c:v>
+                  <c:v>313.40157286649298</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>315.40345424670699</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>317.60817225806699</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>319.81167411375799</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>322.031523126021</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>324.218396682324</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>326.53206900359902</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>328.625702835222</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>330.720135368027</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>333.03243392326698</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>335.03495071464499</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>341.70761886518301</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>343.69744619643001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>345.77332245295997</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>348.05489868925298</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>350.25900436303903</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>352.46085663455301</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>354.63316822017299</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>357.01011165974103</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>359.15716195359499</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>361.27525321496103</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>363.47896866616901</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>365.75033334692398</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>367.88589144249801</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>370.12306220426598</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>372.29396434853101</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>374.49655249006901</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>376.69992868344099</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>378.90342201965302</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>381.02547187228299</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>383.708733903481</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>385.41536968632499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5'!$C$2:$C$147</c:f>
+              <c:f>'Figure 5'!$J$2:$J$147</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="146"/>
                 <c:pt idx="0">
-                  <c:v>2983.6960333294801</c:v>
+                  <c:v>2328.3774184182803</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3037.7469948995199</c:v>
+                  <c:v>2381.9079520023697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3115.0315235173102</c:v>
+                  <c:v>2444.14242871531</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3164.8029015226598</c:v>
+                  <c:v>2492.60793599116</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3239.4017004268599</c:v>
+                  <c:v>2551.2198645035601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3312.0036189612597</c:v>
+                  <c:v>2602.7666139722496</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3355.9567345892096</c:v>
+                  <c:v>2651.0297166491</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3429.4011535583404</c:v>
+                  <c:v>2695.0633740922003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3493.9005870865399</c:v>
+                  <c:v>2748.0726235315597</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3557.9994234788101</c:v>
+                  <c:v>3178.1746939763698</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3635.2614543957702</c:v>
+                  <c:v>3242.7772744648701</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3697.81698616431</c:v>
+                  <c:v>3311.2095293265802</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3802.1337731171602</c:v>
+                  <c:v>3471.4951362455404</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4005.2281432322002</c:v>
+                  <c:v>3507.5302402172401</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4062.3770099664098</c:v>
+                  <c:v>3606.8974074778198</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4155.1258996127999</c:v>
+                  <c:v>3669.6048065713399</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4217.3034843514597</c:v>
+                  <c:v>3733.23005567788</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4296.94236889695</c:v>
+                  <c:v>3784.72507104325</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4371.0398173634703</c:v>
+                  <c:v>3835.58700705413</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4446.5040717547399</c:v>
+                  <c:v>3922.5709042690401</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4513.76749059745</c:v>
+                  <c:v>3972.32468574632</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4649.5255832068397</c:v>
+                  <c:v>4031.15070325837</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4718.9314609233497</c:v>
+                  <c:v>4093.1367325582596</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4779.8164521171902</c:v>
+                  <c:v>4155.3468602951298</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4851.8636916965606</c:v>
+                  <c:v>4211.3757996403101</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4984.5055015541602</c:v>
+                  <c:v>4267.9058126571199</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5040.3981899378896</c:v>
+                  <c:v>4341.5773471350003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5126.6379958318503</c:v>
+                  <c:v>4399.7777800436597</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5186.3991688208798</c:v>
+                  <c:v>4466.3783272985702</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5262.6639825980901</c:v>
+                  <c:v>4512.08816430973</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5323.0766235421997</c:v>
+                  <c:v>4583.7410665736907</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5402.5653620452595</c:v>
+                  <c:v>4626.7974456778202</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5471.9549234376</c:v>
+                  <c:v>4702.1146934113203</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5667.6825673222102</c:v>
+                  <c:v>4745.9412529351303</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5821.4411739097095</c:v>
+                  <c:v>4831.9840648872705</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5927.3552662437696</c:v>
+                  <c:v>4826.4767463888402</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6034.8107115181701</c:v>
+                  <c:v>4876.25105296519</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6076.9815440922202</c:v>
+                  <c:v>4972.2874428649602</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6170.3157714090503</c:v>
+                  <c:v>5096.02221997574</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6268.6958428940397</c:v>
+                  <c:v>5159.6266807106404</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6378.61978843822</c:v>
+                  <c:v>5223.1391379967499</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6466.6582897717399</c:v>
+                  <c:v>5285.5312973399496</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6696.2402667699998</c:v>
+                  <c:v>5329.8581416351299</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6759.0458148289099</c:v>
+                  <c:v>5412.0119763995999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6848.2987332972698</c:v>
+                  <c:v>5465.7082814839505</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6912.1906790208695</c:v>
+                  <c:v>5532.8460481946904</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7007.8319798658804</c:v>
+                  <c:v>5632.1457416411495</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7163.3854134896901</c:v>
+                  <c:v>5571.4258248668502</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7241.2795450805406</c:v>
+                  <c:v>5662.7147172754303</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7315.7414751269898</c:v>
+                  <c:v>5720.5564002359697</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7435.1457160201007</c:v>
+                  <c:v>5766.7652164388101</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7597.1643944813995</c:v>
+                  <c:v>5823.6454996505399</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7676.2285835743005</c:v>
+                  <c:v>5869.5097709113397</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7746.1129160451201</c:v>
+                  <c:v>5961.8312722266901</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7794.3596334525801</c:v>
+                  <c:v>6017.9165839489106</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7876.2597649278296</c:v>
+                  <c:v>6072.4284690050799</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7969.1366087857796</c:v>
+                  <c:v>6121.1218448507998</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8249.0246748344907</c:v>
+                  <c:v>6192.3027306487693</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8292.9456522481705</c:v>
+                  <c:v>6255.5298064601302</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8373.3021576444207</c:v>
+                  <c:v>6302.8900889687302</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8437.8125422811499</c:v>
+                  <c:v>6434.6388841988191</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8463.0960716781792</c:v>
+                  <c:v>6515.8456270452298</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8540.6902653021989</c:v>
+                  <c:v>6551.1027979661794</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8627.3927017415008</c:v>
+                  <c:v>6620.3025252023099</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8713.7867536772901</c:v>
+                  <c:v>6687.4520435512904</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8774.0720439686902</c:v>
+                  <c:v>6755.62666634385</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8866.1949949100908</c:v>
+                  <c:v>6839.4273072844799</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8940.9435033295304</c:v>
+                  <c:v>6893.5397688456305</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9008.5053226392902</c:v>
+                  <c:v>6962.0776181162601</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9060.0206646781098</c:v>
+                  <c:v>7004.2027273295698</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9151.5370442986896</c:v>
+                  <c:v>7111.9703227118798</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9229.1312065451693</c:v>
+                  <c:v>7191.9109202968202</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>9308.7297664609196</c:v>
+                  <c:v>7268.2477095473205</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9405.5339529697503</c:v>
+                  <c:v>7342.5736816356903</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9410.4200017528401</c:v>
+                  <c:v>7447.4021279765093</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9470.9504042588997</c:v>
+                  <c:v>7487.5079380384695</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9525.0277453805193</c:v>
+                  <c:v>7558.3624041168896</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>9603.0260504256803</c:v>
+                  <c:v>7619.7600291141398</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9680.4986560570887</c:v>
+                  <c:v>7687.7958376410506</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9765.8002105561409</c:v>
+                  <c:v>7763.11387266572</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9835.3976855481505</c:v>
+                  <c:v>7829.9160415751503</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9923.0297490395806</c:v>
+                  <c:v>7928.4603570839899</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9995.1810574814499</c:v>
+                  <c:v>7898.2425316926701</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>10069.430373272899</c:v>
+                  <c:v>7972.6310591987203</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>10155.9886298861</c:v>
+                  <c:v>8034.5158436152997</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>10239.3632735669</c:v>
+                  <c:v>8108.2336237693798</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>10332.1009143629</c:v>
+                  <c:v>8174.5442634131605</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>10408.275477962699</c:v>
+                  <c:v>8243.5075115289692</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>10438.543279069499</c:v>
+                  <c:v>8304.4715606924201</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>10525.2926025283</c:v>
+                  <c:v>8366.2817293034695</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>10612.2287299688</c:v>
+                  <c:v>8453.0620866498593</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>10701.0625803855</c:v>
+                  <c:v>8507.1477398329589</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>10788.344246332899</c:v>
+                  <c:v>8576.4443519676097</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>10859.712371214498</c:v>
+                  <c:v>8643.4040361603693</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>10929.395713103799</c:v>
+                  <c:v>8703.009451008671</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>11031.898017228701</c:v>
+                  <c:v>8770.5653085845988</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>11122.6401245122</c:v>
+                  <c:v>8843.9919377073711</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>11206.851936822</c:v>
+                  <c:v>8932.1630617423507</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>11285.7787662226</c:v>
+                  <c:v>8985.2724458975608</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>11347.628303195301</c:v>
+                  <c:v>9034.6570353010811</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>11428.665711882599</c:v>
+                  <c:v>9130.1262616811691</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>11498.687970122201</c:v>
+                  <c:v>9182.7614931801309</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>11585.5422738865</c:v>
+                  <c:v>9271.7604901753493</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>11666.4737519768</c:v>
+                  <c:v>9340.291812916319</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>11755.961116001601</c:v>
+                  <c:v>9418.5430209861297</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>11780.9352762378</c:v>
+                  <c:v>9474.6392158609397</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>11872.417575015599</c:v>
+                  <c:v>9545.0728202873997</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>11918.076491096101</c:v>
+                  <c:v>9602.5214994782509</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9676.6271061068492</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9739.2585715378791</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9810.5616612248796</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9884.8723096605609</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9955.1724892885395</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>10013.518071509001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>10095.6221526479</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>10172.0312091003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>10240.172233781599</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>10309.747131881799</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>10558.689473426799</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>10599.1761308362</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>10669.934268168801</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>10736.394325275302</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>10803.391976299301</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>10886.4571903055</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>10941.0207982299</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>11008.100030874801</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>11086.426701943899</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>11168.8947160729</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>11238.674793443699</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>11304.366197207701</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>11381.8580686526</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>11452.2270801584</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>11516.840508313</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>11594.6587062414</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>11666.8578131457</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>11738.2216497627</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>11816.3772190708</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>11910.3952677173</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>11937.4722076786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10855,7 +11688,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5903-4139-80BB-FA9FC4942AFC}"/>
+              <c16:uniqueId val="{00000006-4358-422D-8D72-905B9DE39A84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10867,11 +11700,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="473799624"/>
-        <c:axId val="473799952"/>
+        <c:axId val="597124544"/>
+        <c:axId val="597121592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="473799624"/>
+        <c:axId val="597124544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10928,12 +11761,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473799952"/>
+        <c:crossAx val="597121592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="473799952"/>
+        <c:axId val="597121592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10990,44 +11823,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473799624"/>
+        <c:crossAx val="597124544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -13900,46 +14705,6 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17075,522 +17840,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -30007,10 +30256,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB30471-B599-4A7E-AA66-1ED16431E92A}">
-  <dimension ref="B1:J147"/>
+  <dimension ref="B1:J140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33070,62 +33319,6 @@
         <v>11937.4722076786</v>
       </c>
     </row>
-    <row r="141" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="I141">
-        <v>369.48367173206498</v>
-      </c>
-      <c r="J141">
-        <v>11593591.823872698</v>
-      </c>
-    </row>
-    <row r="142" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="I142">
-        <v>372.00063895769102</v>
-      </c>
-      <c r="J142">
-        <v>11659547.034409301</v>
-      </c>
-    </row>
-    <row r="143" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="I143">
-        <v>374.59520054865499</v>
-      </c>
-      <c r="J143">
-        <v>11734352.852242298</v>
-      </c>
-    </row>
-    <row r="144" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="I144">
-        <v>377.37317444714603</v>
-      </c>
-      <c r="J144">
-        <v>11814713.841294598</v>
-      </c>
-    </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I145">
-        <v>379.281987237473</v>
-      </c>
-      <c r="J145">
-        <v>11875887.7407736</v>
-      </c>
-    </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I146">
-        <v>381.434535269874</v>
-      </c>
-      <c r="J146">
-        <v>11937156.090984702</v>
-      </c>
-    </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I147">
-        <v>383.56368688996298</v>
-      </c>
-      <c r="J147">
-        <v>11957858.4496883</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -33136,7 +33329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0737387E-079F-42FD-BAAB-95AC0AD4E1E7}">
   <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/MAE 159/Other data/159 Digitized Plots.xlsx
+++ b/MAE 159/Other data/159 Digitized Plots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy Slagle\Documents\MAE136-MAE158-MAE159_Aircraft_Design_and_Analysis_Course_Series\MAE 159\Other data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D61738-F0CA-4D33-8F97-A524D598C978}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C6CA92-0F83-461F-B2B5-B697132B22F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="4050" windowWidth="28800" windowHeight="15435" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1a" sheetId="6" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Shevel_1" sheetId="8" r:id="rId9"/>
     <sheet name="Shevel_2" sheetId="9" r:id="rId10"/>
     <sheet name="JT9D_Thrust" sheetId="10" r:id="rId11"/>
+    <sheet name="Payload Range" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
   <si>
     <t>Range</t>
   </si>
@@ -215,6 +216,54 @@
   </si>
   <si>
     <t>l, cl</t>
+  </si>
+  <si>
+    <t>point 1</t>
+  </si>
+  <si>
+    <t>point 2</t>
+  </si>
+  <si>
+    <t>point 3</t>
+  </si>
+  <si>
+    <t>point 4</t>
+  </si>
+  <si>
+    <t>max takeoff</t>
+  </si>
+  <si>
+    <t>SFC</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Fuel Frac</t>
+  </si>
+  <si>
+    <t>w_f</t>
+  </si>
+  <si>
+    <t>payload weight</t>
+  </si>
+  <si>
+    <t>max payload</t>
+  </si>
+  <si>
+    <t>change in payload</t>
+  </si>
+  <si>
+    <t>W_0</t>
+  </si>
+  <si>
+    <t>W_1</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Payload Weight</t>
   </si>
 </sst>
 </file>
@@ -14486,6 +14535,359 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>One-stop</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Payload Range'!$B$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4144.3785908379887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4313.3040622274284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5445.9151792890061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Payload Range'!$B$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>60375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DD8A-4D2F-95F8-B4FAC249C421}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Non-Stop</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Payload Range'!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7707.9715076383754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8189.9123020152301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10438.052659410961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Payload Range'!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>60375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DD8A-4D2F-95F8-B4FAC249C421}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="590972720"/>
+        <c:axId val="590975016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="590972720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Range (nmi)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590975016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="590975016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Payload (lbs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590972720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -18170,6 +18572,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA3F7DC-B080-47EA-9F46-72A63D1E2D25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -20755,6 +21198,400 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A31913A-DDE1-4679-9D29-231C6104AACB}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <f>H2</f>
+        <v>330085</v>
+      </c>
+      <c r="C2">
+        <f>H2</f>
+        <v>330085</v>
+      </c>
+      <c r="D2">
+        <f>H2</f>
+        <v>330085</v>
+      </c>
+      <c r="E2">
+        <f>H2-H8</f>
+        <v>275710</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2">
+        <v>330085</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <f>C2-C4</f>
+        <v>205494</v>
+      </c>
+      <c r="D3">
+        <f>D2-D4</f>
+        <v>199494</v>
+      </c>
+      <c r="E3">
+        <f>E2-E4</f>
+        <v>145119</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4">
+        <f>H7-H10</f>
+        <v>124591</v>
+      </c>
+      <c r="D4">
+        <f>H7</f>
+        <v>130591</v>
+      </c>
+      <c r="E4">
+        <f>H7</f>
+        <v>130591</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5">
+        <v>60375</v>
+      </c>
+      <c r="D5">
+        <f>H8</f>
+        <v>54375</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>$H$4/$H$3*$H$5*LN(C2/C3)</f>
+        <v>7707.9715076383754</v>
+      </c>
+      <c r="D6">
+        <f>$H$4/$H$3*$H$5*LN(D2/D3)</f>
+        <v>8189.9123020152301</v>
+      </c>
+      <c r="E6">
+        <f>$H$4/$H$3*$H$5*LN(E2/E3)</f>
+        <v>10438.052659410961</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6">
+        <v>0.39560000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>C7</f>
+        <v>60375</v>
+      </c>
+      <c r="C7">
+        <f>C5</f>
+        <v>60375</v>
+      </c>
+      <c r="D7">
+        <f>D5</f>
+        <v>54375</v>
+      </c>
+      <c r="E7">
+        <f>E5</f>
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7">
+        <v>130591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8">
+        <v>54375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9">
+        <f>H8+6000</f>
+        <v>60375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10">
+        <f>H9-H8</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18">
+        <f>H18</f>
+        <v>299275</v>
+      </c>
+      <c r="C18">
+        <f>H18</f>
+        <v>299275</v>
+      </c>
+      <c r="D18">
+        <f>H18</f>
+        <v>299275</v>
+      </c>
+      <c r="E18">
+        <f>H18-H24</f>
+        <v>247900</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18">
+        <v>299275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19">
+        <f>C18-C20</f>
+        <v>210406</v>
+      </c>
+      <c r="D19">
+        <f>D18-D20</f>
+        <v>207406</v>
+      </c>
+      <c r="E19">
+        <f>E18-E20</f>
+        <v>156031</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20">
+        <f>H23-H26</f>
+        <v>88869</v>
+      </c>
+      <c r="D20">
+        <f>H23</f>
+        <v>91869</v>
+      </c>
+      <c r="E20">
+        <f>H23</f>
+        <v>91869</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21">
+        <v>60375</v>
+      </c>
+      <c r="D21">
+        <f>H24</f>
+        <v>51375</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f>$H$20/$H$19*$H$21*LN(C18/C19)</f>
+        <v>4144.3785908379887</v>
+      </c>
+      <c r="D22">
+        <f>$H$20/$H$19*$H$21*LN(D18/D19)</f>
+        <v>4313.3040622274284</v>
+      </c>
+      <c r="E22">
+        <f>$H$20/$H$19*$H$21*LN(E18/E19)</f>
+        <v>5445.9151792890061</v>
+      </c>
+      <c r="G22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>C23</f>
+        <v>60375</v>
+      </c>
+      <c r="C23">
+        <f>C21</f>
+        <v>60375</v>
+      </c>
+      <c r="D23">
+        <f>D21</f>
+        <v>51375</v>
+      </c>
+      <c r="E23">
+        <f>E21</f>
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23">
+        <v>91869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24">
+        <v>51375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25">
+        <f>H24+3000</f>
+        <v>54375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26">
+        <f>H25-H24</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f>H23*2</f>
+        <v>183738</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z102"/>
@@ -30258,7 +31095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB30471-B599-4A7E-AA66-1ED16431E92A}">
   <dimension ref="B1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>

--- a/MAE 159/Other data/159 Digitized Plots.xlsx
+++ b/MAE 159/Other data/159 Digitized Plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy Slagle\Documents\MAE136-MAE158-MAE159_Aircraft_Design_and_Analysis_Course_Series\MAE 159\Other data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C6CA92-0F83-461F-B2B5-B697132B22F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0E0822-40F4-4724-8260-B9C8FF2BEA2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15435" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1a" sheetId="6" r:id="rId1"/>
@@ -14607,10 +14607,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>60375</c:v>
+                  <c:v>54375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60375</c:v>
+                  <c:v>54375</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>51375</c:v>
@@ -21203,7 +21203,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21488,7 +21488,8 @@
         <v>72</v>
       </c>
       <c r="C21">
-        <v>60375</v>
+        <f>H25</f>
+        <v>54375</v>
       </c>
       <c r="D21">
         <f>H24</f>
@@ -21533,11 +21534,11 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <f>C23</f>
-        <v>60375</v>
+        <v>54375</v>
       </c>
       <c r="C23">
         <f>C21</f>
-        <v>60375</v>
+        <v>54375</v>
       </c>
       <c r="D23">
         <f>D21</f>
